--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A91AA-1BA6-4A11-88EC-7566886B4D02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -583,7 +582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -695,6 +694,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,9 +707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2824,12 +2823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F1" sqref="F1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2841,29 +2840,30 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2937,14 +2937,14 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -2957,12 +2957,12 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -2975,7 +2975,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2987,11 +2987,11 @@
       <c r="L6" s="6"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3016,29 +3016,29 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6">
         <v>20</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3056,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665E83EE-41D8-4FF6-B54C-E79BF87B165E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
     <sheet name="地震力" sheetId="2" r:id="rId2"/>
+    <sheet name="統計" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -43,17 +45,22 @@
     <definedName name="Gp_20">[1]地震行政區資料!$M$433:$M$445</definedName>
     <definedName name="N_1">[1]地震行政區資料!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -575,6 +582,187 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1.1~1.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>整體優化結果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>優化比例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層</t>
+    </r>
+  </si>
+  <si>
+    <t>HighSeismic 4Floor 6M</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋上下層</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋</t>
+    </r>
+  </si>
+  <si>
+    <t>HighSeismic 4Floor 9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighSeismic 4Floor 12M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowSeismic 4Floor 6M</t>
+  </si>
+  <si>
+    <t>LowSeismic 4Floor 9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowSeismic 4Floor 12M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidSeismic 4Floor 6M</t>
+  </si>
+  <si>
+    <t>MidSeismic 4Floor 9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidSeismic 4Floor 12M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Seismic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midddle Seismic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Seismic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層優化結果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層優化結果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋優化結果</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,8 +770,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,6 +807,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -664,12 +876,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,9 +924,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2823,11 +3045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:M6"/>
     </sheetView>
   </sheetViews>
@@ -3056,7 +3278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
@@ -3203,4 +3425,648 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A15457-8DD2-4C8A-9726-1C0D742D3CD8}">
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="14">
+        <v>1.0061767298243838</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="14">
+        <v>1.0338409349771489</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="14">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="14">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="14">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="14">
+        <v>1.0441176371571805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.98474203195811549</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0.96060943538379284</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0.91927082493993217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.93568860544932175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>0.95992351770881768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1.0061767298243838</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.94793615123778008</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0.94264578934699639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.94793615123778008</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.94944202197660055</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.93568860544932175</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0.91156038760034275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.9321536975438629</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.94550620248802886</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0.94484837694979296</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0.93892080006194989</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0.97195217303784809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.85955102613220613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.91156038760034275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1.0338409349771489</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.94944202197660055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.96525299905055362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.97195217303784809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.96060943538379284</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.94550620248802886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.94484837694979296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.93892080006194989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.98474203195811549</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.9321536975438629</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:D4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:D14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:D19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665E83EE-41D8-4FF6-B54C-E79BF87B165E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
     <definedName name="Gp_20">[1]地震行政區資料!$M$433:$M$445</definedName>
     <definedName name="N_1">[1]地震行政區資料!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -770,7 +769,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -912,6 +911,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,12 +929,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -937,6 +936,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1ABC9C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3045,7 +3049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:M14"/>
   <sheetViews>
@@ -3071,21 +3075,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3159,7 +3163,7 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3179,7 +3183,7 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3197,7 +3201,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3209,11 +3213,11 @@
       <c r="L6" s="6"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3238,29 +3242,29 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6">
         <v>20</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3278,7 +3282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
@@ -3428,11 +3432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A15457-8DD2-4C8A-9726-1C0D742D3CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3467,7 +3471,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="1">
@@ -3482,64 +3486,64 @@
       <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="10">
         <v>1.0061767298243838</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="10">
         <v>1.0338409349771489</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1" s="10">
         <v>0.98117154875196999</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="14">
+      <c r="T1" s="10">
         <v>0.99467084587180876</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="14">
+      <c r="Y1" s="10">
         <v>0.99598392642281919</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="14">
+      <c r="AB1" s="10">
         <v>1.0441176371571805</v>
       </c>
     </row>
@@ -3547,61 +3551,61 @@
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>0.98117154875196999</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>0.94494408086120152</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>0.90359829906310252</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="10">
         <v>0.98474203195811549</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="10">
         <v>0.96060943538379284</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="10">
         <v>0.9325048570767529</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="10">
         <v>0.96034816489690034</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="10">
         <v>0.96580407717300698</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="10">
         <v>0.91927082493993217</v>
       </c>
     </row>
@@ -3609,76 +3613,76 @@
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>0.99598392642281919</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>0.95337746088014153</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>0.93568860544932175</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <v>0.94235169554311193</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>0.97350979414442429</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="10">
         <v>0.94494408086120152</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="10">
         <v>0.91240717823153894</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="10">
         <v>0.95337746088014153</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AB3" s="10">
         <v>0.95992351770881768</v>
       </c>
     </row>
@@ -3686,61 +3690,61 @@
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>1.0061767298243838</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>0.94235169554311193</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>0.94793615123778008</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>0.91995203321878605</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>0.88999116544880397</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="10">
         <v>0.94067682504457073</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="10">
         <v>0.99366398441956927</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="10">
         <v>0.94409103821715123</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="10">
         <v>0.94264578934699639</v>
       </c>
     </row>
@@ -3748,69 +3752,69 @@
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>0.94793615123778008</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>0.94944202197660055</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="10">
         <v>0.90359829906310252</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="10">
         <v>0.85955102613220613</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="10">
         <v>0.93568860544932175</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="10">
         <v>0.91156038760034275</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="1">
@@ -3822,52 +3826,52 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>0.9321536975438629</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <v>0.94550620248802886</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="10">
         <v>0.94484837694979296</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="10">
         <v>0.96525299905055362</v>
       </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="10">
         <v>0.93892080006194989</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="10">
         <v>0.97195217303784809</v>
       </c>
     </row>
@@ -3875,13 +3879,13 @@
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>0.99467084587180876</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>0.91240717823153894</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>0.85955102613220613</v>
       </c>
     </row>
@@ -3889,13 +3893,13 @@
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>1.0441176371571805</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>0.95992351770881768</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>0.91156038760034275</v>
       </c>
     </row>
@@ -3903,18 +3907,18 @@
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>1.0338409349771489</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>0.97350979414442429</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>0.94944202197660055</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="1">
@@ -3931,13 +3935,13 @@
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>0.96034816489690034</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <v>0.99366398441956927</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>0.96525299905055362</v>
       </c>
     </row>
@@ -3945,13 +3949,13 @@
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="10">
         <v>0.91927082493993217</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>0.94264578934699639</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>0.97195217303784809</v>
       </c>
     </row>
@@ -3959,18 +3963,18 @@
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="10">
         <v>0.96060943538379284</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <v>0.88999116544880397</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>0.94550620248802886</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="1">
@@ -3987,13 +3991,13 @@
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>0.9325048570767529</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>0.94067682504457073</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>0.94484837694979296</v>
       </c>
     </row>
@@ -4001,13 +4005,13 @@
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>0.96580407717300698</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>0.94409103821715123</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>0.93892080006194989</v>
       </c>
     </row>
@@ -4015,13 +4019,13 @@
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>0.98474203195811549</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>0.91995203321878605</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>0.9321536975438629</v>
       </c>
     </row>
@@ -4032,7 +4036,7 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FF1ABC9C"/>
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2727A36F-CA37-4608-AFFE-E332E4EED998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
     <definedName name="Gp_20">[1]地震行政區資料!$M$433:$M$445</definedName>
     <definedName name="N_1">[1]地震行政區資料!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -763,13 +764,17 @@
       </rPr>
       <t>箍筋優化結果</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整體優化結果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -883,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3049,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:M14"/>
   <sheetViews>
@@ -3282,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
@@ -3432,11 +3440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3471,8 +3479,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
+      <c r="A1" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="1">
         <v>6</v>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2727A36F-CA37-4608-AFFE-E332E4EED998}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
     <definedName name="Gp_20">[1]地震行政區資料!$M$433:$M$445</definedName>
     <definedName name="N_1">[1]地震行政區資料!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+  <si>
+    <t>6m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <r>
       <rPr>
@@ -70,9 +81,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>反應譜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>縣市</t>
+    </r>
   </si>
   <si>
     <r>
@@ -83,9 +93,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>鄉鎮市區</t>
+    </r>
   </si>
   <si>
     <r>
@@ -96,9 +105,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>跨距</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>地盤類別</t>
+    </r>
   </si>
   <si>
     <r>
@@ -109,20 +117,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12m</t>
+      <t>地震力小</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,9 +130,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>結構設計變數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>桃園縣</t>
+    </r>
   </si>
   <si>
     <r>
@@ -147,9 +142,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>考慮高模態</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>蘆竹鄉</t>
+    </r>
   </si>
   <si>
     <r>
@@ -160,7 +154,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>影響最佳化效果</t>
+      <t>地震力中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,7 +167,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>縣市</t>
+      <t>平鎮市</t>
     </r>
   </si>
   <si>
@@ -185,8 +179,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>鄉鎮市區</t>
-    </r>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -197,7 +192,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地盤類別</t>
+      <t>宜蘭縣</t>
     </r>
   </si>
   <si>
@@ -209,9 +204,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>蘇澳鎮</t>
+    </r>
   </si>
   <si>
     <r>
@@ -222,8 +216,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣</t>
-    </r>
+      <t>選擇標準</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -234,8 +229,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>蘆竹鄉</t>
-    </r>
+      <t>不選近斷層，因為沒有做近斷層地震。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -246,178 +242,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選擇標準</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不選近斷層，因為沒有做近斷層地震。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>地盤類別不同是為了放大地震力的差異。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>常數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DL tonf/m2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,106 +255,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FIX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>柱底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rigid Zone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,50 +276,6 @@
   </si>
   <si>
     <t>SM1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.3~1.6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.1~1.3</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,17 +461,435 @@
   </si>
   <si>
     <t>整體優化結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>常數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.3~1.6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1~1.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考慮高模態</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -810,13 +921,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -835,6 +939,26 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -844,7 +968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -879,16 +1003,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,9 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,32 +1042,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3057,231 +3201,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="21.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="23.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+    <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="12">
+        <v>280</v>
+      </c>
+      <c r="G3" s="12">
+        <v>4200</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4200</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="N3" s="10">
+        <v>4</v>
+      </c>
+      <c r="O3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F4" s="12"/>
+      <c r="I4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F5" s="12"/>
+      <c r="I5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6">
-        <v>280</v>
-      </c>
-      <c r="G3" s="6">
-        <v>4200</v>
-      </c>
-      <c r="H3" s="6">
-        <v>4200</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1.2</v>
-      </c>
+    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12">
+    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="I4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="D12" s="14" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="I5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="12">
+        <v>12</v>
+      </c>
+      <c r="D13" s="17"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="6">
-        <v>12</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="6">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="12">
         <v>20</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:M1"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3290,7 +3450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
@@ -3305,10 +3465,10 @@
     <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.875" style="2" bestFit="1" customWidth="1"/>
@@ -3318,117 +3478,117 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>22</v>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.3</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.7</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>0.4</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.66</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.49</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.8</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.54</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.77</v>
       </c>
     </row>
@@ -3440,10 +3600,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3479,8 +3639,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>66</v>
+      <c r="A1" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>6</v>
@@ -3492,338 +3652,338 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="10">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7">
         <v>1.0061767298243838</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="10">
+      <c r="J1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="7">
         <v>1.0338409349771489</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="10">
+        <v>35</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="7">
         <v>0.98117154875196999</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="10">
+      <c r="R1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="7">
         <v>0.99467084587180876</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="10">
+        <v>38</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="7">
         <v>0.99598392642281919</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="10">
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="7">
         <v>1.0441176371571805</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7">
         <v>0.98117154875196999</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>0.94494408086120152</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>0.90359829906310252</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7">
         <v>0.98474203195811549</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="10">
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7">
         <v>0.96060943538379284</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="10">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7">
         <v>0.9325048570767529</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="10">
+      <c r="R2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="7">
         <v>0.96034816489690034</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="10">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="7">
         <v>0.96580407717300698</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="10">
+      <c r="Z2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="7">
         <v>0.91927082493993217</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.99598392642281919</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>0.95337746088014153</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>0.93568860544932175</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="10">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7">
         <v>0.94235169554311193</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="J3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7">
         <v>0.97350979414442429</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="10">
+        <v>36</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0.94494408086120152</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="10">
+      <c r="R3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="7">
         <v>0.91240717823153894</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="10">
+        <v>39</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="7">
         <v>0.95337746088014153</v>
       </c>
-      <c r="Z3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="10">
+      <c r="Z3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="7">
         <v>0.95992351770881768</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="10">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7">
         <v>1.0061767298243838</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>0.94235169554311193</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>0.94793615123778008</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="7">
         <v>0.91995203321878605</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="7">
         <v>0.88999116544880397</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="10">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="7">
         <v>0.94067682504457073</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="10">
+      <c r="R4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="7">
         <v>0.99366398441956927</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="10">
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="7">
         <v>0.94409103821715123</v>
       </c>
-      <c r="Z4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB4" s="10">
+      <c r="Z4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="7">
         <v>0.94264578934699639</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="10">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
         <v>0.94793615123778008</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="7">
         <v>0.94944202197660055</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="10">
+        <v>37</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7">
         <v>0.90359829906310252</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="7">
         <v>0.85955102613220613</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="10">
+        <v>40</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="7">
         <v>0.93568860544932175</v>
       </c>
-      <c r="Z5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB5" s="10">
+      <c r="Z5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="7">
         <v>0.91156038760034275</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>63</v>
+      <c r="A6" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -3834,100 +3994,100 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.9321536975438629</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="J6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7">
         <v>0.94550620248802886</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7">
         <v>0.94484837694979296</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="10">
+      <c r="R6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="7">
         <v>0.96525299905055362</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="10">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="7">
         <v>0.93892080006194989</v>
       </c>
-      <c r="Z6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="10">
+      <c r="Z6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="7">
         <v>0.97195217303784809</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="10">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.99467084587180876</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>0.91240717823153894</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>0.85955102613220613</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="10">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7">
         <v>1.0441176371571805</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>0.95992351770881768</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>0.91156038760034275</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="10">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7">
         <v>1.0338409349771489</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>0.97350979414442429</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>0.94944202197660055</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>64</v>
+      <c r="A11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -3941,49 +4101,49 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="10">
+        <v>41</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.96034816489690034</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>0.99366398441956927</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>0.96525299905055362</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="10">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.91927082493993217</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>0.94264578934699639</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>0.97195217303784809</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="10">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.96060943538379284</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>0.88999116544880397</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>0.94550620248802886</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>65</v>
+      <c r="A16" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -3997,43 +4157,43 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="10">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7">
         <v>0.9325048570767529</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>0.94067682504457073</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>0.94484837694979296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
         <v>0.96580407717300698</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>0.94409103821715123</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>0.93892080006194989</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="10">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7">
         <v>0.98474203195811549</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>0.91995203321878605</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>0.9321536975438629</v>
       </c>
     </row>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,123 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>整體優化結果</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>優化比例</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層</t>
-    </r>
-  </si>
-  <si>
-    <t>HighSeismic 4Floor 6M</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋上下層</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋</t>
-    </r>
-  </si>
-  <si>
-    <t>HighSeismic 4Floor 9M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighSeismic 4Floor 12M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LowSeismic 4Floor 6M</t>
-  </si>
-  <si>
-    <t>LowSeismic 4Floor 9M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LowSeismic 4Floor 12M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MidSeismic 4Floor 6M</t>
-  </si>
-  <si>
-    <t>MidSeismic 4Floor 9M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MidSeismic 4Floor 12M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low Seismic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,19 +288,6 @@
   </si>
   <si>
     <t>High Seismic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1051,9 +921,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1066,19 +933,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3205,243 +3075,243 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="21.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="23.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="21.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="23.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>76</v>
+      <c r="O2" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11">
         <v>280</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>4200</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>4200</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>1.2</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>0.3</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>0.75</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>1.2</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>4</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="I4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="I4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="I5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="I5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>53</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>74</v>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="12">
         <v>4</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="12">
+      <c r="B13" s="18"/>
+      <c r="C13" s="11">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="12">
+      <c r="B14" s="18"/>
+      <c r="C14" s="11">
         <v>20</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3601,46 +3471,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1">
         <v>6</v>
@@ -3651,73 +3497,10 @@
       <c r="D1" s="1">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="7">
-        <v>1.0061767298243838</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="7">
-        <v>1.0338409349771489</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="7">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="7">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="7">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="7">
-        <v>1.0441176371571805</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B2" s="7">
         <v>0.98117154875196999</v>
@@ -3728,58 +3511,10 @@
       <c r="D2" s="7">
         <v>0.90359829906310252</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.98474203195811549</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.96060943538379284</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>0.91927082493993217</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
         <v>0.99598392642281919</v>
@@ -3788,75 +3523,12 @@
         <v>0.95337746088014153</v>
       </c>
       <c r="D3" s="7">
-        <v>0.93568860544932175</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>0.95992351770881768</v>
+        <v>0.91</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7">
         <v>1.0061767298243838</v>
@@ -3865,125 +3537,12 @@
         <v>0.94235169554311193</v>
       </c>
       <c r="D4" s="7">
-        <v>0.94793615123778008</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0.94264578934699639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.94793615123778008</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.94944202197660055</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0.93568860544932175</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0.91156038760034275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -3994,58 +3553,10 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.9321536975438629</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.94550620248802886</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.94484837694979296</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0.93892080006194989</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0.97195217303784809</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7">
         <v>0.99467084587180876</v>
@@ -4057,9 +3568,9 @@
         <v>0.85955102613220613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7">
         <v>1.0441176371571805</v>
@@ -4068,12 +3579,12 @@
         <v>0.95992351770881768</v>
       </c>
       <c r="D8" s="7">
-        <v>0.91156038760034275</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7">
         <v>1.0338409349771489</v>
@@ -4082,12 +3593,12 @@
         <v>0.97350979414442429</v>
       </c>
       <c r="D9" s="7">
-        <v>0.94944202197660055</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -4099,9 +3610,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>0.96034816489690034</v>
@@ -4113,9 +3624,9 @@
         <v>0.96525299905055362</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
         <v>0.91927082493993217</v>
@@ -4127,9 +3638,9 @@
         <v>0.97195217303784809</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7">
         <v>0.96060943538379284</v>
@@ -4138,12 +3649,12 @@
         <v>0.88999116544880397</v>
       </c>
       <c r="D14" s="7">
-        <v>0.94550620248802886</v>
+        <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -4157,7 +3668,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B17" s="7">
         <v>0.9325048570767529</v>
@@ -4171,7 +3682,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
         <v>0.96580407717300698</v>
@@ -4180,12 +3691,12 @@
         <v>0.94409103821715123</v>
       </c>
       <c r="D18" s="7">
-        <v>0.93892080006194989</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7">
         <v>0.98474203195811549</v>
@@ -4194,7 +3705,7 @@
         <v>0.91995203321878605</v>
       </c>
       <c r="D19" s="7">
-        <v>0.9321536975438629</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4240,5 +3751,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,11 +342,415 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>結構設計變數</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1~1.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋直徑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.3~1.6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -381,6 +785,54 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>箍筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考慮高模態</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>樓層數</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,361 +846,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>跨距</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>柱底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響最佳化效果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.3~1.6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.1~1.3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>結構設計變數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>反應譜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>考慮高模態</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響最佳化效果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ra</t>
+      <t>地震力高</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -819,13 +918,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -893,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,16 +1019,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3073,10 +3162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3085,228 +3174,355 @@
     <col min="2" max="2" width="21.875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="23.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="23.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="11">
+        <v>41</v>
+      </c>
+      <c r="G3" s="13">
         <v>280</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="13">
         <v>4200</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="13">
         <v>4200</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="13">
         <v>1.2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="13">
         <v>0.3</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="13">
         <v>0.75</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="13">
         <v>1.2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>4</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="16">
+        <v>55</v>
+      </c>
+      <c r="C4" s="15">
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="9" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="13">
+        <v>20</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="16">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="E26" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="I5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="11">
-        <v>12</v>
-      </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="11">
-        <v>20</v>
-      </c>
-      <c r="D14" s="18"/>
+      <c r="D28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:O1"/>
+  <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G1:P1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="C4:C6"/>
@@ -3473,7 +3689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
-    <sheet name="地震力" sheetId="2" r:id="rId2"/>
-    <sheet name="統計" sheetId="3" r:id="rId3"/>
+    <sheet name="Word 總則" sheetId="4" r:id="rId2"/>
+    <sheet name="地震力" sheetId="2" r:id="rId3"/>
+    <sheet name="統計" sheetId="3" r:id="rId4"/>
+    <sheet name="Word 統計" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -759,7 +761,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>常數</t>
+      <t>反應譜</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,82 +774,394 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>反應譜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>箍筋強度</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考慮高模態</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8, #10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8, #10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>縣市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄉鎮市區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地盤類別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋號數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8, #10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
       <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> kgf/cm2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>考慮高模態</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力高</t>
-    </r>
+    <t>DL  kgf/m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL kgf/m2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +1172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -920,6 +1234,19 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,7 +1355,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1374,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3164,8 +3503,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3189,27 +3528,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>37</v>
@@ -3224,7 +3563,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>17</v>
@@ -3250,7 +3589,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -3291,7 +3630,7 @@
       <c r="B4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="18">
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -3311,7 +3650,7 @@
       <c r="B5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
@@ -3329,7 +3668,7 @@
       <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
@@ -3341,11 +3680,11 @@
       <c r="M6" s="13"/>
     </row>
     <row r="9" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -3363,42 +3702,42 @@
         <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="13">
         <v>20</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -3425,47 +3764,47 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="19">
         <v>4</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="13">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="13">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>46</v>
@@ -3476,7 +3815,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
@@ -3485,13 +3824,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="19">
         <v>4</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -3499,15 +3838,15 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="13" t="s">
         <v>61</v>
       </c>
@@ -3537,11 +3876,598 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6</v>
+      </c>
+      <c r="E13" s="14">
+        <v>4</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
+        <v>12</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14">
+        <v>9</v>
+      </c>
+      <c r="E22" s="14">
+        <v>12</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>9</v>
+      </c>
+      <c r="E23" s="14">
+        <v>20</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H27" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I27" s="14">
+        <v>4</v>
+      </c>
+      <c r="J27" s="14">
+        <v>280</v>
+      </c>
+      <c r="K27" s="14">
+        <v>4200</v>
+      </c>
+      <c r="L27" s="14">
+        <v>4200</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1200</v>
+      </c>
+      <c r="N27" s="14">
+        <v>300</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="R27" s="14">
+        <v>4</v>
+      </c>
+      <c r="S27" s="14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H25:S25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3685,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3969,4 +4895,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,6 +974,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#8, #10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL  kgf/m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL kgf/m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1000,14 +1024,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#8, #10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1016,7 +1032,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>假設</t>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,6 +1054,32 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
       <t>一樓樓高</t>
     </r>
     <r>
@@ -1095,7 +1146,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋強度</t>
+      <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
@@ -1117,7 +1168,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>柱底</t>
+      <t>強柱弱梁</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1130,7 +1181,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>強柱弱梁</t>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,25 +1203,34 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>箍筋強度</t>
-    </r>
+      <t>上層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL  kgf/m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LL kgf/m2</t>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,20 +1433,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3533,8 +3608,8 @@
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="G1" s="17" t="s">
-        <v>84</v>
+      <c r="G1" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -3630,7 +3705,7 @@
       <c r="B4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -3650,7 +3725,7 @@
       <c r="B5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
@@ -3668,7 +3743,7 @@
       <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
@@ -3709,27 +3784,27 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="13">
         <v>20</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
@@ -3764,29 +3839,29 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>4</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="13">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="13">
         <v>420</v>
       </c>
@@ -3824,13 +3899,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>4</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -3838,21 +3913,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="13" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -3860,13 +3942,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3876,10 +3951,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3913,10 +3989,10 @@
         <v>80</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3956,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4156,7 +4232,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4170,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="14">
         <v>4</v>
@@ -4181,22 +4257,22 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="14">
         <v>4</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4224,19 +4300,19 @@
         <v>77</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="14">
         <v>4</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4244,13 +4320,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E18" s="14">
         <v>4</v>
@@ -4259,205 +4335,105 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>6</v>
-      </c>
-      <c r="E19" s="14">
+    <row r="20" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H22" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I22" s="14">
         <v>4</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14">
-        <v>9</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="J22" s="14">
+        <v>280</v>
+      </c>
+      <c r="K22" s="14">
+        <v>4200</v>
+      </c>
+      <c r="L22" s="14">
+        <v>4200</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1200</v>
+      </c>
+      <c r="N22" s="14">
+        <v>300</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="R22" s="14">
         <v>4</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14">
-        <v>4</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="14">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14">
-        <v>9</v>
-      </c>
-      <c r="E22" s="14">
-        <v>12</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="14">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14">
-        <v>9</v>
-      </c>
-      <c r="E23" s="14">
-        <v>20</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H27" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I27" s="14">
-        <v>4</v>
-      </c>
-      <c r="J27" s="14">
-        <v>280</v>
-      </c>
-      <c r="K27" s="14">
-        <v>4200</v>
-      </c>
-      <c r="L27" s="14">
-        <v>4200</v>
-      </c>
-      <c r="M27" s="14">
-        <v>1200</v>
-      </c>
-      <c r="N27" s="14">
-        <v>300</v>
-      </c>
-      <c r="O27" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="R27" s="14">
-        <v>4</v>
-      </c>
-      <c r="S27" s="14">
+      <c r="S22" s="14">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H25:S25"/>
+    <mergeCell ref="H20:S20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4613,6 +4589,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4899,14 +4876,544 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="工作表5"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="9" style="14"/>
+    <col min="7" max="8" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.99584277680568178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0.94235169554311193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.92082074738974806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.99598392642281919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.95337746088014153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.90979728180831543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.98117154875196999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.94494408086120152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.90359829906310252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.93845389777708454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.96975909457752896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6</v>
+      </c>
+      <c r="E13" s="14">
+        <v>4</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1.0082304382359188</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.97047396873295011</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.99319095316927664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.98440485723765936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>6</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1.0482555851877347</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.92820092479584371</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1.0022285827349886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.98732275859428775</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.98365679269121908</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.98587427484124401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -17,9 +17,10 @@
     <sheet name="地震力" sheetId="2" r:id="rId3"/>
     <sheet name="統計" sheetId="3" r:id="rId4"/>
     <sheet name="Word 統計" sheetId="5" r:id="rId5"/>
+    <sheet name="Word 統計-2" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,7 +1182,56 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>梁長</t>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2028W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1966W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1968W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0890W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0648W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0629W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -1190,11 +1240,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>\</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1203,7 +1250,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>上層筋效益</t>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1216,7 +1272,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>下層筋效益</t>
+      <t>總體效益</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1229,7 +1285,715 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋號數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋號數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
       <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋號數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋號數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,7 +2145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,6 +2216,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3955,7 +4722,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="A13" sqref="A13:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4877,21 +5644,34 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9" style="14"/>
-    <col min="7" max="8" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
+    <col min="1" max="3" width="9" style="14"/>
+    <col min="4" max="4" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="14"/>
+    <col min="8" max="9" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="14"/>
+    <col min="17" max="17" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="14"/>
+    <col min="22" max="22" width="14.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>72</v>
       </c>
@@ -4902,54 +5682,63 @@
         <v>74</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="14">
         <v>6</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="14">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="22">
+      <c r="H2" s="22">
         <v>1.0129198894890106</v>
       </c>
-      <c r="H2" s="22">
+      <c r="I2" s="22">
         <v>0.97176684744885755</v>
       </c>
-      <c r="I2" s="22">
+      <c r="J2" s="22">
         <v>0.99584277680568178</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>75</v>
       </c>
@@ -4959,26 +5748,32 @@
       <c r="C3" s="14">
         <v>3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="14">
         <v>9</v>
       </c>
-      <c r="E3" s="14">
+      <c r="F3" s="14">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="22">
+      <c r="H3" s="22">
         <v>0.97350979414442429</v>
       </c>
-      <c r="H3" s="22">
+      <c r="I3" s="22">
         <v>0.88999116544880397</v>
       </c>
-      <c r="I3" s="22">
+      <c r="J3" s="22">
         <v>0.94235169554311193</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>75</v>
       </c>
@@ -4988,55 +5783,67 @@
       <c r="C4" s="14">
         <v>3</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="14">
         <v>12</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F4" s="14">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="22">
+      <c r="H4" s="22">
         <v>0.90222315151508559</v>
       </c>
-      <c r="H4" s="22">
+      <c r="I4" s="22">
         <v>0.95095056774797182</v>
       </c>
-      <c r="I4" s="22">
+      <c r="J4" s="22">
         <v>0.92082074738974806</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C5" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="23">
+      <c r="H5" s="24">
         <v>1.0441176371571805</v>
       </c>
-      <c r="H5" s="23">
+      <c r="I5" s="24">
         <v>0.91927082493993217</v>
       </c>
-      <c r="I5" s="23">
+      <c r="J5" s="24">
         <v>0.99598392642281919</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>77</v>
       </c>
@@ -5046,26 +5853,32 @@
       <c r="C6" s="14">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="14">
         <v>9</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H6" s="22">
         <v>0.95992351770881768</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I6" s="22">
         <v>0.94264578934699639</v>
       </c>
-      <c r="I6" s="22">
+      <c r="J6" s="22">
         <v>0.95337746088014153</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>77</v>
       </c>
@@ -5075,55 +5888,67 @@
       <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="14">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="22">
         <v>0.86890739851651788</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I7" s="22">
         <v>0.97196858936483677</v>
       </c>
-      <c r="I7" s="22">
+      <c r="J7" s="22">
         <v>0.90979728180831543</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="14">
         <v>6</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="14">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="22">
+      <c r="H8" s="22">
         <v>0.99467084587180876</v>
       </c>
-      <c r="H8" s="22">
+      <c r="I8" s="22">
         <v>0.96034816489690034</v>
       </c>
-      <c r="I8" s="22">
+      <c r="J8" s="22">
         <v>0.98117154875196999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>77</v>
       </c>
@@ -5133,26 +5958,32 @@
       <c r="C9" s="14">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="14">
         <v>9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="14">
         <v>4</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="22">
         <v>0.91240717823153894</v>
       </c>
-      <c r="H9" s="22">
+      <c r="I9" s="22">
         <v>0.99366398441956927</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="22">
         <v>0.94494408086120152</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>77</v>
       </c>
@@ -5162,26 +5993,32 @@
       <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="14">
         <v>12</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F10" s="14">
         <v>4</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="22">
         <v>0.85955102613220613</v>
       </c>
-      <c r="H10" s="22">
+      <c r="I10" s="22">
         <v>0.96525299905055362</v>
       </c>
-      <c r="I10" s="22">
+      <c r="J10" s="22">
         <v>0.90359829906310252</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>77</v>
       </c>
@@ -5191,26 +6028,32 @@
       <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="14">
         <v>9</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="14">
         <v>12</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="22">
         <v>0.9528993293071234</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I11" s="22">
         <v>0.91488753032343617</v>
       </c>
-      <c r="I11" s="22">
+      <c r="J11" s="22">
         <v>0.93845389777708454</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>77</v>
       </c>
@@ -5220,26 +6063,32 @@
       <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>20</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="22">
+      <c r="H12" s="22">
         <v>0.99226020155070471</v>
       </c>
-      <c r="H12" s="22">
+      <c r="I12" s="22">
         <v>0.93593454952384891</v>
       </c>
-      <c r="I12" s="22">
+      <c r="J12" s="22">
         <v>0.96975909457752896</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>75</v>
       </c>
@@ -5249,167 +6098,986 @@
       <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="14">
         <v>6</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="22">
+      <c r="H13" s="22">
         <v>1.0082304382359188</v>
       </c>
-      <c r="H13" s="22">
+      <c r="I13" s="22">
         <v>0.97047396873295011</v>
       </c>
-      <c r="I13" s="22">
+      <c r="J13" s="22">
         <v>0.99319095316927664</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="14">
         <v>6</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <v>4</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0.97683621337292725</v>
+      <c r="G14" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="H14" s="22">
-        <v>0.99583333370126281</v>
+        <v>1.0482555851877347</v>
       </c>
       <c r="I14" s="22">
-        <v>0.98440485723765936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.92820092479584371</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1.0022285827349886</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.98732275859428775</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.98365679269121908</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0.98587427484124401</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="14">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="14">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="14">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="14">
+        <v>9</v>
+      </c>
+      <c r="F17" s="14">
+        <v>4</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.97880850432860123</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.93719992692330101</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="14">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14">
+        <v>4</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.90568348791952125</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0.93038123815291496</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0.91521741816882973</v>
+      </c>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="14">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="I19" s="22">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C20" s="14">
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="14">
+        <v>9</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0.93165903250304649</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0.99593495727743075</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.95801516520843055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="14">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0.86196382675318783</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0.97357901239101086</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F22" s="14">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="22">
+      <c r="G22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="14">
+        <v>9</v>
+      </c>
+      <c r="F23" s="14">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0.96905867158805403</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0.94961240732685592</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0.96147227615551067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="14">
+        <v>12</v>
+      </c>
+      <c r="F24" s="14">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0.87802789344330667</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0.96850763718630439</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="14">
+        <v>9</v>
+      </c>
+      <c r="F25" s="14">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0.97418106672431659</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0.92157689209957483</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0.95431611009417394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="14">
+        <v>9</v>
+      </c>
+      <c r="F26" s="14">
+        <v>20</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="22">
+        <v>1.0169398406633805</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0.94750914859707136</v>
+      </c>
+      <c r="J26" s="22">
+        <v>0.98914904350968524</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="14">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14">
+        <v>12</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="22">
+        <v>1.0082304382359188</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0.97047396873295011</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0.99319095316927664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>12</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="22">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0.99584277680568178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
+        <v>20</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0.98440485723765936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14">
+        <v>9</v>
+      </c>
+      <c r="D8" s="14">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="22">
         <v>1.0482555851877347</v>
       </c>
-      <c r="H15" s="22">
+      <c r="M9" s="22">
         <v>0.92820092479584371</v>
       </c>
-      <c r="I15" s="22">
+      <c r="N9" s="22">
         <v>1.0022285827349886</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="23">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0.99598392642281919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="14">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0.98732275859428775</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0.98365679269121908</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0.98587427484124401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>6</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.98982648139335327</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.9365079371211531</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0.98117154875196999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="14">
+        <v>140</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="M17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
-        <v>6</v>
-      </c>
-      <c r="E17" s="14">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0.98732275859428775</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0.98365679269121908</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0.98587427484124401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>6</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0.9372073047629168</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="N17" s="22">
         <v>0.95974259319363719</v>
       </c>
     </row>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="總則" sheetId="1" r:id="rId1"/>
-    <sheet name="Word 總則" sheetId="4" r:id="rId2"/>
-    <sheet name="地震力" sheetId="2" r:id="rId3"/>
-    <sheet name="統計" sheetId="3" r:id="rId4"/>
-    <sheet name="Word 統計" sheetId="5" r:id="rId5"/>
-    <sheet name="Word 統計-2" sheetId="6" r:id="rId6"/>
+    <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
+    <sheet name="Word 變數" sheetId="4" r:id="rId2"/>
+    <sheet name="Word 假設" sheetId="7" r:id="rId3"/>
+    <sheet name="地震力" sheetId="2" r:id="rId4"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId5"/>
+    <sheet name="Word 撓曲統計" sheetId="5" r:id="rId6"/>
+    <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
+    <sheet name="Word 統計-2" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="135">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,14 +249,6 @@
       </rPr>
       <t>地盤類別不同是為了放大地震力的差異。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL tonf/m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LL tonf/m2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,8 +339,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -358,16 +360,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>結構設計變數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ra</t>
+      <t>樓層數</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,7 +373,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力中</t>
+      <t>影響最佳化效果</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,7 +386,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>樓層數</t>
+      <t>地震力中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +399,667 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考慮高模態</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8, #10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>縣市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄉鎮市區</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地盤類別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL  kgf/m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL kgf/m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2028W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1966W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1968W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0890W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0648W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0629W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋號數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>混凝土強度</t>
     </r>
     <r>
@@ -427,7 +1082,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>柱底</t>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,7 +1104,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>強柱弱梁</t>
+      <t>箍筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,7 +1126,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>影響最佳化效果</t>
+      <t>柱底</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +1139,58 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>住宅</t>
     </r>
     <r>
@@ -475,7 +1200,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 0.2</t>
+      <t xml:space="preserve"> 1.3~1.6</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,7 +1213,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>辦公室</t>
+      <t>住宅</t>
     </r>
     <r>
       <rPr>
@@ -497,7 +1222,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1.1~1.3</t>
+      <t xml:space="preserve"> 0.2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,7 +1244,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 0.3</t>
+      <t xml:space="preserve"> 1.1~1.3</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,7 +1257,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力大</t>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,7 +1279,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>跨距</t>
+      <t>地震力大</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,7 +1292,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>影響最佳化效果</t>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,7 +1314,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力中</t>
+      <t>結構設計變數</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,7 +1327,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>反應譜</t>
+      <t>跨距</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,7 +1340,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>跨距</t>
+      <t>影響疊加的彎矩圖</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,7 +1353,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>結構設計變數</t>
+      <t>影響最佳化效果</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,7 +1366,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>反應譜</t>
+      <t>樓層數</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,7 +1379,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋直徑</t>
+      <t>混凝土強度</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,16 +1392,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
+      <t>地震力中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,7 +1405,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力小</t>
+      <t>跨距</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,16 +1418,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.3~1.6</t>
+      <t>主筋直徑</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,16 +1431,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>公共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.4</t>
+      <t>影響疊加的彎矩圖</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,7 +1444,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>混凝土強度</t>
+      <t>影響最佳化效果</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,119 +1457,12 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>反應譜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>考慮高模態</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>地震力高</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8, #10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8, #10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8</t>
+    <t>箍筋效益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -865,8 +1474,18 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>縣市</t>
-    </r>
+      <t>箍筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -877,10 +1496,17 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>鄉鎮市區</t>
-    </r>
-  </si>
-  <si>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -889,8 +1515,18 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地盤類別</t>
-    </r>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -901,8 +1537,9 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>宜蘭縣</t>
-    </r>
+      <t>上層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -913,8 +1550,9 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>蘇澳鎮</t>
-    </r>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -925,8 +1563,9 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣</t>
-    </r>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -937,10 +1576,17 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>平鎮市</t>
-    </r>
-  </si>
-  <si>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -949,8 +1595,18 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>蘆竹鄉</t>
-    </r>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -961,7 +1617,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>梁長</t>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -970,35 +1626,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8, #10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL  kgf/m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LL kgf/m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1007,7 +1636,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>樓層數</t>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,11 +1658,17 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋號數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1033,7 +1677,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋強度</t>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -1042,11 +1686,14 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1055,7 +1702,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>柱底</t>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1068,7 +1724,16 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>假設</t>
+      <t>上層筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,7 +1746,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>一樓樓高</t>
+      <t>樓層數</t>
     </r>
     <r>
       <rPr>
@@ -1090,11 +1755,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>\</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1103,7 +1765,20 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>二樓以上樓高</t>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
     </r>
     <r>
       <rPr>
@@ -1112,7 +1787,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
+      <t>(%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,7 +1800,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>混凝土強度</t>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -1134,7 +1809,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
+      <t>(%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,7 +1822,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>箍筋強度</t>
+      <t>鋼筋號數</t>
     </r>
     <r>
       <rPr>
@@ -1156,11 +1831,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>\</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1169,832 +1841,12 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2028W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1966W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1968W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1454W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1454W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1454W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0890W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0648W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0629W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋號數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>效益</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設計地震力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋號數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘆竹鄉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層筋效益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋號數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋號數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
+    <t>1/4 與 2h 之距離(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,7 +1997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2182,16 +2034,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2203,13 +2055,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4343,40 +4198,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="B1:P30"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:P3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="21.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
     <col min="7" max="7" width="23.375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.75" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.375" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="9"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="G1" s="19" t="s">
-        <v>82</v>
+      <c r="G1" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -4386,196 +4238,181 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-    </row>
-    <row r="2" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="13">
+        <v>99</v>
+      </c>
+      <c r="G3" s="15">
         <v>280</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="15">
         <v>4200</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="15">
         <v>4200</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="15">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="15">
+        <v>300</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="15">
         <v>1.2</v>
       </c>
-      <c r="K3" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="O3" s="15">
         <v>4</v>
       </c>
-      <c r="P3" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="20">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="19">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>36</v>
+      <c r="J4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>45</v>
+      <c r="J5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="9" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>12</v>
       </c>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <v>20</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4583,31 +4420,31 @@
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C20" s="17">
         <v>4</v>
@@ -4615,13 +4452,13 @@
       <c r="D20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="13">
+      <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
@@ -4629,13 +4466,13 @@
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="13">
+      <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -4643,31 +4480,31 @@
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C28" s="17">
         <v>4</v>
@@ -4675,28 +4512,28 @@
       <c r="D28" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>60</v>
+      <c r="E28" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="13" t="s">
-        <v>61</v>
+      <c r="E30" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G1:P1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="C4:C6"/>
@@ -4719,485 +4556,233 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="12.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="14"/>
+    <col min="1" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="14">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12">
         <v>3</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>6</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="14">
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
         <v>3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>9</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="14">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>12</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="14">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>6</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="14">
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>9</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="14">
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="14">
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="14">
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="14">
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>12</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>4</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="14">
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
         <v>2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>12</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="14">
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>9</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>20</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14">
-        <v>4</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="14">
-        <v>2</v>
-      </c>
-      <c r="D15" s="14">
-        <v>6</v>
-      </c>
-      <c r="E15" s="14">
-        <v>4</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>6</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14">
-        <v>6</v>
-      </c>
-      <c r="E17" s="14">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>6</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H22" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I22" s="14">
-        <v>4</v>
-      </c>
-      <c r="J22" s="14">
-        <v>280</v>
-      </c>
-      <c r="K22" s="14">
-        <v>4200</v>
-      </c>
-      <c r="L22" s="14">
-        <v>4200</v>
-      </c>
-      <c r="M22" s="14">
-        <v>1200</v>
-      </c>
-      <c r="N22" s="14">
-        <v>300</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="R22" s="14">
-        <v>4</v>
-      </c>
-      <c r="S22" s="14">
-        <v>3</v>
-      </c>
-    </row>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H20:S20"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -5206,12 +4791,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
+  <dimension ref="B2:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>280</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4200</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="12">
+        <v>300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5242,16 +4948,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>14</v>
@@ -5354,14 +5060,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5372,7 +5076,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1">
         <v>6</v>
@@ -5386,7 +5090,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7">
         <v>0.98117154875196999</v>
@@ -5400,7 +5104,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>0.99598392642281919</v>
@@ -5414,7 +5118,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7">
         <v>1.0061767298243838</v>
@@ -5428,7 +5132,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -5442,7 +5146,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7">
         <v>0.99467084587180876</v>
@@ -5456,7 +5160,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7">
         <v>1.0441176371571805</v>
@@ -5470,7 +5174,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7">
         <v>1.0338409349771489</v>
@@ -5484,7 +5188,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -5498,7 +5202,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7">
         <v>0.96034816489690034</v>
@@ -5512,7 +5216,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7">
         <v>0.91927082493993217</v>
@@ -5526,7 +5230,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <v>0.96060943538379284</v>
@@ -5540,7 +5244,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -5554,7 +5258,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="7">
         <v>0.9325048570767529</v>
@@ -5568,7 +5272,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7">
         <v>0.96580407717300698</v>
@@ -5582,7 +5286,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
         <v>0.98474203195811549</v>
@@ -5641,914 +5345,777 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="14"/>
-    <col min="4" max="4" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="14"/>
-    <col min="8" max="9" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9" style="14"/>
-    <col min="17" max="17" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="14"/>
-    <col min="22" max="22" width="14.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="14"/>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="12"/>
+    <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="12"/>
+    <col min="15" max="15" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="12"/>
+    <col min="20" max="20" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.97880850432860123</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.93719992692330101</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="12">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.90568348791952125</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.93038123815291496</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.93165903250304649</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.99593495727743075</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.95801516520843055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="12">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0.86196382675318783</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.97357901239101086</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="14">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="B19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="12">
         <v>6</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F19" s="12">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="22">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="J2" s="22">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="14">
-        <v>3</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="G19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="12">
         <v>9</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F20" s="12">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0.96905867158805403</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.94961240732685592</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0.96147227615551067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="22">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="E21" s="12">
         <v>12</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F21" s="12">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="G21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0.87802789344330667</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.96850763718630439</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="14">
-        <v>6</v>
-      </c>
-      <c r="F5" s="14">
-        <v>4</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="24">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="J5" s="24">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="D22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12">
+        <v>12</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0.97418106672431659</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0.92157689209957483</v>
+      </c>
+      <c r="J22" s="23">
+        <v>0.95431611009417394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="12">
         <v>9</v>
       </c>
-      <c r="F6" s="14">
-        <v>4</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="I6" s="22">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="14">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="14">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14">
-        <v>4</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="14">
-        <v>9</v>
-      </c>
-      <c r="F9" s="14">
-        <v>4</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="14">
-        <v>12</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="14">
-        <v>9</v>
-      </c>
-      <c r="F11" s="14">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="14">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="14">
-        <v>9</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="F23" s="12">
         <v>20</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="J12" s="22">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="14">
-        <v>6</v>
-      </c>
-      <c r="F13" s="14">
-        <v>4</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1.0082304382359188</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0.97047396873295011</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0.99319095316927664</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="14">
-        <v>6</v>
-      </c>
-      <c r="F14" s="14">
-        <v>4</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1.0482555851877347</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0.92820092479584371</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1.0022285827349886</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="14">
-        <v>6</v>
-      </c>
-      <c r="F15" s="14">
-        <v>4</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0.98732275859428775</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0.98365679269121908</v>
-      </c>
-      <c r="J15" s="22">
-        <v>0.98587427484124401</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="14">
-        <v>3</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="14">
-        <v>6</v>
-      </c>
-      <c r="F16" s="14">
-        <v>4</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.97683621337292725</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0.99583333370126281</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="14">
-        <v>3</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="14">
-        <v>9</v>
-      </c>
-      <c r="F17" s="14">
-        <v>4</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0.97880850432860123</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0.93719992692330101</v>
-      </c>
-      <c r="J17" s="22">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="14">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="14">
-        <v>12</v>
-      </c>
-      <c r="F18" s="14">
-        <v>4</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0.90568348791952125</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0.93038123815291496</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0.91521741816882973</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="14">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="14">
-        <v>6</v>
-      </c>
-      <c r="F19" s="14">
-        <v>4</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0.98982648139335327</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0.9365079371211531</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="14">
-        <v>9</v>
-      </c>
-      <c r="F20" s="14">
-        <v>4</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="22">
-        <v>0.93165903250304649</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0.99593495727743075</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0.95801516520843055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="14">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="14">
-        <v>12</v>
-      </c>
-      <c r="F21" s="14">
-        <v>4</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0.86196382675318783</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0.97357901239101086</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="14">
-        <v>6</v>
-      </c>
-      <c r="F22" s="14">
-        <v>4</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0.9372073047629168</v>
-      </c>
-      <c r="I22" s="22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="22">
-        <v>0.95974259319363719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="14">
-        <v>9</v>
-      </c>
-      <c r="F23" s="14">
-        <v>4</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0.96905867158805403</v>
-      </c>
-      <c r="I23" s="22">
-        <v>0.94961240732685592</v>
-      </c>
-      <c r="J23" s="22">
-        <v>0.96147227615551067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="14">
-        <v>12</v>
-      </c>
-      <c r="F24" s="14">
-        <v>4</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0.87802789344330667</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0.96850763718630439</v>
-      </c>
-      <c r="J24" s="22">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="14">
-        <v>9</v>
-      </c>
-      <c r="F25" s="14">
-        <v>12</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0.97418106672431659</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0.92157689209957483</v>
-      </c>
-      <c r="J25" s="22">
-        <v>0.95431611009417394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="14">
-        <v>9</v>
-      </c>
-      <c r="F26" s="14">
-        <v>20</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="23">
         <v>1.0169398406633805</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I23" s="23">
         <v>0.94750914859707136</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J23" s="23">
         <v>0.98914904350968524</v>
       </c>
     </row>
@@ -6558,527 +6125,954 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="12"/>
+    <col min="14" max="14" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="12"/>
+    <col min="19" max="19" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="23">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.90191491074006924</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.86975819949198241</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.94484837694979296</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="21"/>
+    <col min="6" max="6" width="12.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="21"/>
+    <col min="11" max="11" width="37.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="12">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="12">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="23">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.90191491074006924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>12</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0.86975819949198241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>20</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.94484837694979296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12">
+        <v>9</v>
+      </c>
+      <c r="N8" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="12">
+        <f>540/4-2*70</f>
+        <v>-5</v>
+      </c>
+      <c r="M9" s="12">
+        <f>820/4-2*80</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="12">
+        <f>1100/4-2*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="12">
+        <f>540/4-2*50</f>
+        <v>35</v>
+      </c>
+      <c r="M10" s="12">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N10" s="12">
+        <f>1110/4-2*100</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="12">
+        <f>550/4-2*50</f>
+        <v>37.5</v>
+      </c>
+      <c r="M11" s="12">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N11" s="12">
+        <f>1110/4-2*90</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="B20" s="12">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C20" s="12">
         <v>9</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D20" s="12">
         <v>12</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="22">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14">
-        <v>4</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="22">
-        <v>1.0082304382359188</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0.97047396873295011</v>
-      </c>
-      <c r="N3" s="22">
-        <v>0.99319095316927664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
-        <v>12</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="22">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0.99584277680568178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="22">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
-        <v>20</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0.97683621337292725</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0.99583333370126281</v>
-      </c>
-      <c r="N5" s="22">
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="23">
         <v>0.98440485723765936</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="14">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="22">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="22">
-        <v>1.0482555851877347</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0.92820092479584371</v>
-      </c>
-      <c r="N9" s="22">
-        <v>1.0022285827349886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="23">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="23">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="M10" s="23">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="N10" s="23">
-        <v>0.99598392642281919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="22">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0.98982648139335327</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0.9365079371211531</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="C21" s="23">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="23">
         <v>0.97065645875260842</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0.98732275859428775</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0.98365679269121908</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0.98587427484124401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="23">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0.98117154875196999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0.9372073047629168</v>
-      </c>
-      <c r="M17" s="22">
-        <v>1</v>
-      </c>
-      <c r="N17" s="22">
+      <c r="C22" s="23">
+        <v>0.95801516520843055</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="23">
         <v>0.95974259319363719</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.96147227615551067</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.91409434242231791</v>
       </c>
     </row>
   </sheetData>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
     <sheet name="Word 變數" sheetId="4" r:id="rId2"/>
     <sheet name="Word 假設" sheetId="7" r:id="rId3"/>
     <sheet name="地震力" sheetId="2" r:id="rId4"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId5"/>
-    <sheet name="Word 撓曲統計" sheetId="5" r:id="rId6"/>
-    <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
-    <sheet name="Word 統計-2" sheetId="6" r:id="rId8"/>
+    <sheet name="Word 撓曲統計" sheetId="5" r:id="rId5"/>
+    <sheet name="Word 剪力統計" sheetId="8" r:id="rId6"/>
+    <sheet name="Word 整理統計" sheetId="6" r:id="rId7"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId8"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="145">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,6 +1848,46 @@
   </si>
   <si>
     <t>1/4 與 2h 之距離(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1997,7 +2038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2046,21 +2087,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2075,6 +2101,27 @@
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4222,22 +4269,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -4317,7 +4364,7 @@
       <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="22">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -4334,7 +4381,7 @@
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4349,7 +4396,7 @@
       <c r="B6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
@@ -4359,11 +4406,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -4388,35 +4435,35 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -4443,40 +4490,40 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="23">
         <v>4</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -4503,13 +4550,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="23">
         <v>4</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="23" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -4517,21 +4564,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:D1"/>
@@ -4539,13 +4593,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4558,7 +4605,7 @@
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4812,20 +4859,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -5061,6 +5108,2282 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5"/>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="12"/>
+    <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="12"/>
+    <col min="15" max="15" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="12"/>
+    <col min="20" max="20" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.97880850432860123</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.93719992692330101</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="12">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.90568348791952125</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.93038123815291496</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.93165903250304649</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.99593495727743075</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.95801516520843055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="12">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.86196382675318783</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.97357901239101086</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="12">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="12">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.96905867158805403</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.94961240732685592</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0.96147227615551067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="12">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.87802789344330667</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.96850763718630439</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12">
+        <v>12</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.97418106672431659</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0.92157689209957483</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.95431611009417394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="12">
+        <v>9</v>
+      </c>
+      <c r="F23" s="12">
+        <v>20</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1.0169398406633805</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.94750914859707136</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0.98914904350968524</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="12"/>
+    <col min="14" max="14" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="12"/>
+    <col min="19" max="19" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.90191491074006924</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.86975819949198241</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.94484837694979296</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="12.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="12">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="12">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0.90191491074006924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>12</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.86975819949198241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>20</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.94484837694979296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12">
+        <v>9</v>
+      </c>
+      <c r="N8" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="12">
+        <f>540/4-2*70</f>
+        <v>-5</v>
+      </c>
+      <c r="M9" s="12">
+        <f>820/4-2*80</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="12">
+        <f>1100/4-2*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="12">
+        <f>540/4-2*50</f>
+        <v>35</v>
+      </c>
+      <c r="M10" s="12">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N10" s="12">
+        <f>1110/4-2*100</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="12">
+        <f>550/4-2*50</f>
+        <v>37.5</v>
+      </c>
+      <c r="M11" s="12">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N11" s="12">
+        <f>1110/4-2*90</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="12">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.97065645875260842</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.95801516520843055</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.95974259319363719</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.96147227615551067</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="12">
+        <v>6</v>
+      </c>
+      <c r="C26" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="18">
+        <f>B21/B15</f>
+        <v>0.98851433194634264</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" ref="C27:D27" si="0">C21/C15</f>
+        <v>1.0217116065423451</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99391485342092678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="18">
+        <f t="shared" ref="B28:D29" si="1">B22/B16</f>
+        <v>0.97457040520605887</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0048644996536917</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99972423658126308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="18">
+        <f t="shared" si="1"/>
+        <v>0.97815982782461441</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0174911887688061</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0116158290360864</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>48440</v>
+      </c>
+      <c r="C2">
+        <v>50163</v>
+      </c>
+      <c r="D2">
+        <v>153428</v>
+      </c>
+      <c r="E2">
+        <v>165643</v>
+      </c>
+      <c r="F2">
+        <v>338577</v>
+      </c>
+      <c r="G2">
+        <v>380518</v>
+      </c>
+      <c r="I2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="27">
+        <f>(B2+B6+B10)</f>
+        <v>160065</v>
+      </c>
+      <c r="K2" s="27">
+        <f>(C2+C6+C10)</f>
+        <v>166822</v>
+      </c>
+      <c r="L2" s="27">
+        <f>(D2+D6+D10)</f>
+        <v>481414</v>
+      </c>
+      <c r="M2" s="27">
+        <f>(E2+E6+E10)</f>
+        <v>523521</v>
+      </c>
+      <c r="N2" s="27">
+        <f>(F2+F6+F10)</f>
+        <v>1007985</v>
+      </c>
+      <c r="O2" s="27">
+        <f>(G2+G6+G10)</f>
+        <v>1145830</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="26">
+        <f>(J2+J3)/(K2+K3)</f>
+        <v>0.97754327369409855</v>
+      </c>
+      <c r="S2" s="26">
+        <f>(L2+L3)/(M2+M3)</f>
+        <v>0.93714191857466811</v>
+      </c>
+      <c r="T2" s="26">
+        <f>(N2+N3)/(O2+O3)</f>
+        <v>0.89782841703876393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>60195</v>
+      </c>
+      <c r="C3">
+        <v>59283</v>
+      </c>
+      <c r="D3">
+        <v>198866</v>
+      </c>
+      <c r="E3">
+        <v>206949</v>
+      </c>
+      <c r="F3">
+        <v>408185</v>
+      </c>
+      <c r="G3">
+        <v>437923</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="27">
+        <f>(B3+B7+B11)</f>
+        <v>195837</v>
+      </c>
+      <c r="K3" s="27">
+        <f>(C3+C7+C11)</f>
+        <v>197256</v>
+      </c>
+      <c r="L3" s="27">
+        <f>(D3+D7+D11)</f>
+        <v>579828</v>
+      </c>
+      <c r="M3" s="27">
+        <f>(E3+E7+E11)</f>
+        <v>608903</v>
+      </c>
+      <c r="N3" s="27">
+        <f>(F3+F7+F11)</f>
+        <v>1173264</v>
+      </c>
+      <c r="O3" s="27">
+        <f>(G3+G7+G11)</f>
+        <v>1283642</v>
+      </c>
+      <c r="P3" s="27"/>
+      <c r="Q3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3" s="26">
+        <f>(J4+J5)/(K4+K5)</f>
+        <v>1.0017494633288822</v>
+      </c>
+      <c r="S3" s="26">
+        <f>(L4+L5)/(M4+M5)</f>
+        <v>0.95535509551992304</v>
+      </c>
+      <c r="T3" s="26">
+        <f>(N4+N5)/(O4+O5)</f>
+        <v>0.9231367626082253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>73978</v>
+      </c>
+      <c r="C4">
+        <v>74788</v>
+      </c>
+      <c r="D4">
+        <v>228478</v>
+      </c>
+      <c r="E4">
+        <v>243600</v>
+      </c>
+      <c r="F4">
+        <v>475495</v>
+      </c>
+      <c r="G4">
+        <v>513520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="27">
+        <f>(B4+B8+B12)</f>
+        <v>228672</v>
+      </c>
+      <c r="K4" s="27">
+        <f>(C4+C8+C12)</f>
+        <v>227456</v>
+      </c>
+      <c r="L4" s="27">
+        <f>(D4+D8+D12)</f>
+        <v>642182</v>
+      </c>
+      <c r="M4" s="27">
+        <f>(E4+E8+E12)</f>
+        <v>673029</v>
+      </c>
+      <c r="N4" s="27">
+        <f>(F4+F8+F12)</f>
+        <v>1317974</v>
+      </c>
+      <c r="O4" s="27">
+        <f>(G4+G8+G12)</f>
+        <v>1426129</v>
+      </c>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5">
+        <v>84416</v>
+      </c>
+      <c r="C5">
+        <v>83909</v>
+      </c>
+      <c r="D5">
+        <v>229455</v>
+      </c>
+      <c r="E5">
+        <v>243600</v>
+      </c>
+      <c r="F5">
+        <v>482622</v>
+      </c>
+      <c r="G5">
+        <v>519518</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="27">
+        <f>(B5+B9+B13)</f>
+        <v>245444</v>
+      </c>
+      <c r="K5" s="27">
+        <f>(C5+C9+C13)</f>
+        <v>245832</v>
+      </c>
+      <c r="L5" s="27">
+        <f>(D5+D9+D13)</f>
+        <v>632726</v>
+      </c>
+      <c r="M5" s="27">
+        <f>(E5+E9+E13)</f>
+        <v>661457</v>
+      </c>
+      <c r="N5" s="27">
+        <f>(F5+F9+F13)</f>
+        <v>1342568</v>
+      </c>
+      <c r="O5" s="27">
+        <f>(G5+G9+G13)</f>
+        <v>1455938</v>
+      </c>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6">
+        <v>59689</v>
+      </c>
+      <c r="C6">
+        <v>61108</v>
+      </c>
+      <c r="D6">
+        <v>173240</v>
+      </c>
+      <c r="E6">
+        <v>187526</v>
+      </c>
+      <c r="F6">
+        <v>314204</v>
+      </c>
+      <c r="G6">
+        <v>359584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>72356</v>
+      </c>
+      <c r="C7">
+        <v>73876</v>
+      </c>
+      <c r="D7">
+        <v>207975</v>
+      </c>
+      <c r="E7">
+        <v>216644</v>
+      </c>
+      <c r="F7">
+        <v>365381</v>
+      </c>
+      <c r="G7">
+        <v>403829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>84010</v>
+      </c>
+      <c r="C8">
+        <v>82997</v>
+      </c>
+      <c r="D8">
+        <v>225076</v>
+      </c>
+      <c r="E8">
+        <v>234450</v>
+      </c>
+      <c r="F8">
+        <v>415696</v>
+      </c>
+      <c r="G8">
+        <v>448074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9">
+        <v>85530</v>
+      </c>
+      <c r="C9">
+        <v>84821</v>
+      </c>
+      <c r="D9">
+        <v>217584</v>
+      </c>
+      <c r="E9">
+        <v>225547</v>
+      </c>
+      <c r="F9">
+        <v>431754</v>
+      </c>
+      <c r="G9">
+        <v>466947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10">
+        <v>51936</v>
+      </c>
+      <c r="C10">
+        <v>55551</v>
+      </c>
+      <c r="D10">
+        <v>154746</v>
+      </c>
+      <c r="E10">
+        <v>170352</v>
+      </c>
+      <c r="F10">
+        <v>355204</v>
+      </c>
+      <c r="G10">
+        <v>405728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11">
+        <v>63286</v>
+      </c>
+      <c r="C11">
+        <v>64097</v>
+      </c>
+      <c r="D11">
+        <v>172987</v>
+      </c>
+      <c r="E11">
+        <v>185310</v>
+      </c>
+      <c r="F11">
+        <v>399698</v>
+      </c>
+      <c r="G11">
+        <v>441890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>70684</v>
+      </c>
+      <c r="C12">
+        <v>69671</v>
+      </c>
+      <c r="D12">
+        <v>188628</v>
+      </c>
+      <c r="E12">
+        <v>194979</v>
+      </c>
+      <c r="F12">
+        <v>426783</v>
+      </c>
+      <c r="G12">
+        <v>464535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13">
+        <v>75498</v>
+      </c>
+      <c r="C13">
+        <v>77102</v>
+      </c>
+      <c r="D13">
+        <v>185687</v>
+      </c>
+      <c r="E13">
+        <v>192310</v>
+      </c>
+      <c r="F13">
+        <v>428192</v>
+      </c>
+      <c r="G13">
+        <v>469473</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -5343,1740 +7666,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="12"/>
-    <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="12"/>
-    <col min="15" max="15" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="12"/>
-    <col min="20" max="20" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="23">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="I2" s="23">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="J2" s="23">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="25">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="12">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12">
-        <v>20</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="I12" s="23">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="12">
-        <v>6</v>
-      </c>
-      <c r="F13" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.97683621337292725</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.99583333370126281</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="12">
-        <v>3</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="12">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.97880850432860123</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.93719992692330101</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="12">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="12">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="23">
-        <v>0.90568348791952125</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0.93038123815291496</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="12">
-        <v>6</v>
-      </c>
-      <c r="F16" s="12">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="23">
-        <v>0.98982648139335327</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0.9365079371211531</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="12">
-        <v>9</v>
-      </c>
-      <c r="F17" s="12">
-        <v>4</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="23">
-        <v>0.93165903250304649</v>
-      </c>
-      <c r="I17" s="23">
-        <v>0.99593495727743075</v>
-      </c>
-      <c r="J17" s="23">
-        <v>0.95801516520843055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="12">
-        <v>12</v>
-      </c>
-      <c r="F18" s="12">
-        <v>4</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0.86196382675318783</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0.97357901239101086</v>
-      </c>
-      <c r="J18" s="23">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12">
-        <v>4</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0.9372073047629168</v>
-      </c>
-      <c r="I19" s="23">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0.95974259319363719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="12">
-        <v>4</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0.96905867158805403</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0.94961240732685592</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0.96147227615551067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="12">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12">
-        <v>4</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="23">
-        <v>0.87802789344330667</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0.96850763718630439</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="12">
-        <v>9</v>
-      </c>
-      <c r="F22" s="12">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="23">
-        <v>0.97418106672431659</v>
-      </c>
-      <c r="I22" s="23">
-        <v>0.92157689209957483</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0.95431611009417394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="12">
-        <v>9</v>
-      </c>
-      <c r="F23" s="12">
-        <v>20</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="23">
-        <v>1.0169398406633805</v>
-      </c>
-      <c r="I23" s="23">
-        <v>0.94750914859707136</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0.98914904350968524</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="12"/>
-    <col min="14" max="14" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="12"/>
-    <col min="19" max="19" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="G2" s="23">
-        <v>1.0144026135167818</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.90191491074006924</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.86975819949198241</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.94484837694979296</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="12">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12">
-        <v>20</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:N23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="21"/>
-    <col min="6" max="6" width="12.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="21"/>
-    <col min="11" max="11" width="37.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="12">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="12">
-        <v>6</v>
-      </c>
-      <c r="M2" s="12">
-        <v>9</v>
-      </c>
-      <c r="N2" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="23">
-        <v>1.0144026135167818</v>
-      </c>
-      <c r="M3" s="23">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="N3" s="23">
-        <v>0.90191491074006924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="24">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
-        <v>12</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="N4" s="23">
-        <v>0.86975819949198241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
-        <v>20</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="23">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="M5" s="23">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="N5" s="23">
-        <v>0.94484837694979296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="12">
-        <v>6</v>
-      </c>
-      <c r="M8" s="12">
-        <v>9</v>
-      </c>
-      <c r="N8" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="23">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="12">
-        <f>540/4-2*70</f>
-        <v>-5</v>
-      </c>
-      <c r="M9" s="12">
-        <f>820/4-2*80</f>
-        <v>45</v>
-      </c>
-      <c r="N9" s="12">
-        <f>1100/4-2*100</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="24">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="12">
-        <f>540/4-2*50</f>
-        <v>35</v>
-      </c>
-      <c r="M10" s="12">
-        <f>820/4-2*70</f>
-        <v>65</v>
-      </c>
-      <c r="N10" s="12">
-        <f>1110/4-2*100</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="23">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="12">
-        <f>550/4-2*50</f>
-        <v>37.5</v>
-      </c>
-      <c r="M11" s="12">
-        <f>820/4-2*70</f>
-        <v>65</v>
-      </c>
-      <c r="N11" s="12">
-        <f>1110/4-2*90</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="12">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="23">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="24">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="23">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="12">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="23">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="23">
-        <v>0.97065645875260842</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0.95801516520843055</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="23">
-        <v>0.95974259319363719</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0.96147227615551067</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -2038,7 +2038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2102,10 +2102,13 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2114,14 +2117,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4269,22 +4272,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -4364,7 +4367,7 @@
       <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="26">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -4381,7 +4384,7 @@
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -4396,7 +4399,7 @@
       <c r="B6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
@@ -4406,11 +4409,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -4435,35 +4438,35 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -4490,40 +4493,40 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="24">
         <v>4</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -4550,13 +4553,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="24">
         <v>4</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -4564,21 +4567,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -4586,13 +4596,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4859,20 +4862,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -6296,7 +6299,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6315,12 +6318,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6511,12 +6514,12 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -6681,12 +6684,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6775,12 +6778,12 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -6912,6 +6915,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6984,43 +6993,43 @@
       <c r="I2" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="27">
-        <f>(B2+B6+B10)</f>
+      <c r="J2" s="22">
+        <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
         <v>160065</v>
       </c>
-      <c r="K2" s="27">
-        <f>(C2+C6+C10)</f>
+      <c r="K2" s="22">
+        <f t="shared" si="0"/>
         <v>166822</v>
       </c>
-      <c r="L2" s="27">
-        <f>(D2+D6+D10)</f>
+      <c r="L2" s="22">
+        <f t="shared" si="0"/>
         <v>481414</v>
       </c>
-      <c r="M2" s="27">
-        <f>(E2+E6+E10)</f>
+      <c r="M2" s="22">
+        <f t="shared" si="0"/>
         <v>523521</v>
       </c>
-      <c r="N2" s="27">
-        <f>(F2+F6+F10)</f>
+      <c r="N2" s="22">
+        <f t="shared" si="0"/>
         <v>1007985</v>
       </c>
-      <c r="O2" s="27">
-        <f>(G2+G6+G10)</f>
+      <c r="O2" s="22">
+        <f t="shared" si="0"/>
         <v>1145830</v>
       </c>
-      <c r="P2" s="27"/>
+      <c r="P2" s="22"/>
       <c r="Q2" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="21">
         <f>(J2+J3)/(K2+K3)</f>
         <v>0.97754327369409855</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="21">
         <f>(L2+L3)/(M2+M3)</f>
         <v>0.93714191857466811</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="21">
         <f>(N2+N3)/(O2+O3)</f>
         <v>0.89782841703876393</v>
       </c>
@@ -7050,43 +7059,43 @@
       <c r="I3" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="27">
-        <f>(B3+B7+B11)</f>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
         <v>195837</v>
       </c>
-      <c r="K3" s="27">
-        <f>(C3+C7+C11)</f>
+      <c r="K3" s="22">
+        <f t="shared" si="0"/>
         <v>197256</v>
       </c>
-      <c r="L3" s="27">
-        <f>(D3+D7+D11)</f>
+      <c r="L3" s="22">
+        <f t="shared" si="0"/>
         <v>579828</v>
       </c>
-      <c r="M3" s="27">
-        <f>(E3+E7+E11)</f>
+      <c r="M3" s="22">
+        <f t="shared" si="0"/>
         <v>608903</v>
       </c>
-      <c r="N3" s="27">
-        <f>(F3+F7+F11)</f>
+      <c r="N3" s="22">
+        <f t="shared" si="0"/>
         <v>1173264</v>
       </c>
-      <c r="O3" s="27">
-        <f>(G3+G7+G11)</f>
+      <c r="O3" s="22">
+        <f t="shared" si="0"/>
         <v>1283642</v>
       </c>
-      <c r="P3" s="27"/>
+      <c r="P3" s="22"/>
       <c r="Q3" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="21">
         <f>(J4+J5)/(K4+K5)</f>
         <v>1.0017494633288822</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="21">
         <f>(L4+L5)/(M4+M5)</f>
         <v>0.95535509551992304</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="21">
         <f>(N4+N5)/(O4+O5)</f>
         <v>0.9231367626082253</v>
       </c>
@@ -7116,31 +7125,31 @@
       <c r="I4" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="27">
-        <f>(B4+B8+B12)</f>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
         <v>228672</v>
       </c>
-      <c r="K4" s="27">
-        <f>(C4+C8+C12)</f>
+      <c r="K4" s="22">
+        <f t="shared" si="0"/>
         <v>227456</v>
       </c>
-      <c r="L4" s="27">
-        <f>(D4+D8+D12)</f>
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
         <v>642182</v>
       </c>
-      <c r="M4" s="27">
-        <f>(E4+E8+E12)</f>
+      <c r="M4" s="22">
+        <f t="shared" si="0"/>
         <v>673029</v>
       </c>
-      <c r="N4" s="27">
-        <f>(F4+F8+F12)</f>
+      <c r="N4" s="22">
+        <f t="shared" si="0"/>
         <v>1317974</v>
       </c>
-      <c r="O4" s="27">
-        <f>(G4+G8+G12)</f>
+      <c r="O4" s="22">
+        <f t="shared" si="0"/>
         <v>1426129</v>
       </c>
-      <c r="P4" s="27"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7167,31 +7176,31 @@
       <c r="I5" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="27">
-        <f>(B5+B9+B13)</f>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
         <v>245444</v>
       </c>
-      <c r="K5" s="27">
-        <f>(C5+C9+C13)</f>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
         <v>245832</v>
       </c>
-      <c r="L5" s="27">
-        <f>(D5+D9+D13)</f>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
         <v>632726</v>
       </c>
-      <c r="M5" s="27">
-        <f>(E5+E9+E13)</f>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
         <v>661457</v>
       </c>
-      <c r="N5" s="27">
-        <f>(F5+F9+F13)</f>
+      <c r="N5" s="22">
+        <f t="shared" si="0"/>
         <v>1342568</v>
       </c>
-      <c r="O5" s="27">
-        <f>(G5+G9+G13)</f>
+      <c r="O5" s="22">
+        <f t="shared" si="0"/>
         <v>1455938</v>
       </c>
-      <c r="P5" s="27"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,7 +581,108 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋強度</t>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2028W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1966W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1968W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1454W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0890W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0648W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0629W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -590,6 +691,249 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋號數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>反應譜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> kgf/cm2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,10 +941,54 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>柱底</t>
@@ -610,26 +998,348 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>假設</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一樓樓高</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.3~1.6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1~1.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構設計變數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跨距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋直徑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響疊加的彎矩圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>影響最佳化效果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箍筋效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋效益</t>
     </r>
     <r>
       <rPr>
@@ -638,20 +1348,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>二樓以上樓高</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -660,20 +1370,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -682,20 +1389,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -704,121 +1411,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2028W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1966W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1968W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1454W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1454W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1454W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0890W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0648W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0629W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設計地震力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -827,50 +1430,14 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋號數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -880,602 +1447,6 @@
         <charset val="136"/>
       </rPr>
       <t>總體效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘆竹鄉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>結構設計變數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>假設</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>反應譜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跨距</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>柱底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響最佳化效果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.3~1.6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.1~1.3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>結構設計變數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跨距</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響最佳化效果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跨距</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋直徑</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響疊加的彎矩圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>影響最佳化效果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箍筋效益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋效益</t>
     </r>
     <r>
       <rPr>
@@ -1497,7 +1468,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>工址</t>
+      <t>鋼筋號數</t>
     </r>
     <r>
       <rPr>
@@ -1516,7 +1487,85 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>梁長</t>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7EI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
     </r>
     <r>
       <rPr>
@@ -1538,46 +1587,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>上層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>二樓以上樓高</t>
     </r>
     <r>
       <rPr>
@@ -1586,17 +1596,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
     </r>
     <r>
       <rPr>
@@ -1605,20 +1618,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
     </r>
     <r>
       <rPr>
@@ -1627,17 +1640,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
@@ -1646,39 +1662,114 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>數值分析模型之假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁、柱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版、牆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不考慮勁度與強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>280 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
     </r>
     <r>
       <rPr>
@@ -1687,45 +1778,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4200 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層筋效益</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
@@ -1734,20 +1816,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜載重</t>
     </r>
     <r>
       <rPr>
@@ -1756,52 +1838,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1200 kgf/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活載重</t>
     </r>
     <r>
       <rPr>
@@ -1810,28 +1876,162 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋號數</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300 kgf/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>接頭之剛性區域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>韌性容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層鋼筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>\</t>
     </r>
     <r>
@@ -1847,47 +2047,558 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/4 與 2h 之距離(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottom</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1898,7 +2609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1974,6 +2685,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2038,7 +2756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2108,7 +2826,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,14 +2844,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2171,7 +2904,7 @@
       <sheetData sheetId="3">
         <row r="1">
           <cell r="B1">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="2">
@@ -4272,41 +5005,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="G1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>51</v>
@@ -4318,10 +5051,10 @@
         <v>18</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>31</v>
@@ -4329,11 +5062,11 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G3" s="15">
         <v>280</v>
@@ -4365,7 +5098,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" s="26">
         <v>4</v>
@@ -4374,46 +5107,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="C6" s="27"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -4423,18 +5156,18 @@
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,44 +5180,44 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
@@ -4493,40 +5226,40 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B20" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="27">
         <v>4</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -4536,30 +5269,30 @@
         <v>33</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="24">
+      <c r="B28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="27">
         <v>4</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -4567,21 +5300,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:D1"/>
@@ -4589,13 +5329,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4608,7 +5341,7 @@
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4842,120 +5575,241 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="B2:M4"/>
+  <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="13" t="s">
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="12">
         <v>4.5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="G4" s="12">
         <v>4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="H4" s="12">
         <v>280</v>
       </c>
-      <c r="E4" s="12">
+      <c r="I4" s="12">
         <v>4200</v>
       </c>
-      <c r="F4" s="12">
+      <c r="J4" s="12">
         <v>4200</v>
       </c>
-      <c r="G4" s="12">
+      <c r="K4" s="12">
         <v>1200</v>
       </c>
-      <c r="H4" s="12">
+      <c r="L4" s="12">
         <v>300</v>
       </c>
-      <c r="I4" s="12">
+      <c r="M4" s="12">
         <v>0.75</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12">
+      <c r="O4" s="12">
         <v>1.2</v>
       </c>
-      <c r="L4" s="12">
+      <c r="P4" s="12">
         <v>4</v>
       </c>
-      <c r="M4" s="12">
+      <c r="Q4" s="12">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5116,7 +5970,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5137,50 +5991,50 @@
     <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="C2" s="12">
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" s="12">
         <v>6</v>
@@ -5213,7 +6067,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" s="12">
         <v>9</v>
@@ -5246,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12">
         <v>12</v>
@@ -5270,16 +6124,16 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" s="12">
         <v>6</v>
@@ -5312,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12">
         <v>9</v>
@@ -5345,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12">
         <v>12</v>
@@ -5369,16 +6223,16 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -5411,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E9" s="12">
         <v>9</v>
@@ -5434,25 +6288,25 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="24">
         <v>12</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="24">
         <v>4</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="18">
@@ -5468,85 +6322,85 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C11" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E11" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" s="12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="18">
-        <v>0.9528993293071234</v>
+        <v>0.97683621337292725</v>
       </c>
       <c r="I11" s="18">
-        <v>0.91488753032343617</v>
+        <v>0.99583333370126281</v>
       </c>
       <c r="J11" s="18">
-        <v>0.93845389777708454</v>
+        <v>0.98440485723765936</v>
       </c>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E12" s="12">
         <v>9</v>
       </c>
       <c r="F12" s="12">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" s="18">
-        <v>0.99226020155070471</v>
+        <v>0.97880850432860123</v>
       </c>
       <c r="I12" s="18">
-        <v>0.93593454952384891</v>
+        <v>0.93719992692330101</v>
       </c>
       <c r="J12" s="18">
-        <v>0.96975909457752896</v>
+        <v>0.96281166478125579</v>
       </c>
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" s="12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F13" s="12">
         <v>4</v>
@@ -5555,31 +6409,30 @@
         <v>38</v>
       </c>
       <c r="H13" s="18">
-        <v>0.97683621337292725</v>
+        <v>0.90568348791952125</v>
       </c>
       <c r="I13" s="18">
-        <v>0.99583333370126281</v>
+        <v>0.93038123815291496</v>
       </c>
       <c r="J13" s="18">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="K13" s="18"/>
+        <v>0.91521741816882973</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14" s="12">
         <v>4</v>
@@ -5588,31 +6441,30 @@
         <v>38</v>
       </c>
       <c r="H14" s="18">
-        <v>0.97880850432860123</v>
+        <v>0.98982648139335327</v>
       </c>
       <c r="I14" s="18">
-        <v>0.93719992692330101</v>
+        <v>0.9365079371211531</v>
       </c>
       <c r="J14" s="18">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="K14" s="18"/>
+        <v>0.97065645875260842</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E15" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" s="12">
         <v>4</v>
@@ -5621,30 +6473,30 @@
         <v>38</v>
       </c>
       <c r="H15" s="18">
-        <v>0.90568348791952125</v>
+        <v>0.93165903250304649</v>
       </c>
       <c r="I15" s="18">
-        <v>0.93038123815291496</v>
+        <v>0.99593495727743075</v>
       </c>
       <c r="J15" s="18">
-        <v>0.91521741816882973</v>
+        <v>0.95801516520843055</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C16" s="12">
         <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" s="12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F16" s="12">
         <v>4</v>
@@ -5653,30 +6505,30 @@
         <v>38</v>
       </c>
       <c r="H16" s="18">
-        <v>0.98982648139335327</v>
+        <v>0.86196382675318783</v>
       </c>
       <c r="I16" s="18">
-        <v>0.9365079371211531</v>
+        <v>0.97357901239101086</v>
       </c>
       <c r="J16" s="18">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E17" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" s="12">
         <v>4</v>
@@ -5685,30 +6537,30 @@
         <v>38</v>
       </c>
       <c r="H17" s="18">
-        <v>0.93165903250304649</v>
+        <v>0.9372073047629168</v>
       </c>
       <c r="I17" s="18">
-        <v>0.99593495727743075</v>
+        <v>1</v>
       </c>
       <c r="J17" s="18">
-        <v>0.95801516520843055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E18" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="12">
         <v>4</v>
@@ -5717,112 +6569,114 @@
         <v>38</v>
       </c>
       <c r="H18" s="18">
-        <v>0.86196382675318783</v>
+        <v>0.96905867158805403</v>
       </c>
       <c r="I18" s="18">
-        <v>0.97357901239101086</v>
+        <v>0.94961240732685592</v>
       </c>
       <c r="J18" s="18">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12">
+        <v>0.96147227615551067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="24">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="D19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="24">
+        <v>12</v>
+      </c>
+      <c r="F19" s="24">
         <v>4</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="18">
-        <v>0.9372073047629168</v>
+        <v>0.87802789344330667</v>
       </c>
       <c r="I19" s="18">
-        <v>1</v>
+        <v>0.96850763718630439</v>
       </c>
       <c r="J19" s="18">
-        <v>0.95974259319363719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" s="12">
         <v>9</v>
       </c>
       <c r="F20" s="12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20" s="18">
-        <v>0.96905867158805403</v>
+        <v>0.9528993293071234</v>
       </c>
       <c r="I20" s="18">
-        <v>0.94961240732685592</v>
+        <v>0.91488753032343617</v>
       </c>
       <c r="J20" s="18">
-        <v>0.96147227615551067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E21" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" s="12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21" s="18">
-        <v>0.87802789344330667</v>
+        <v>0.99226020155070471</v>
       </c>
       <c r="I21" s="18">
-        <v>0.96850763718630439</v>
+        <v>0.93593454952384891</v>
       </c>
       <c r="J21" s="18">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -5833,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E22" s="12">
         <v>9</v>
@@ -5854,7 +6708,7 @@
         <v>0.95431611009417394</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
@@ -5865,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E23" s="12">
         <v>9</v>
@@ -5931,30 +6785,30 @@
         <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C2" s="12">
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" s="12">
         <v>6</v>
@@ -5980,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" s="12">
         <v>9</v>
@@ -6006,7 +6860,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12">
         <v>12</v>
@@ -6023,16 +6877,16 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" s="12">
         <v>6</v>
@@ -6058,7 +6912,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12">
         <v>9</v>
@@ -6084,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12">
         <v>12</v>
@@ -6101,16 +6955,16 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -6136,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E9" s="12">
         <v>9</v>
@@ -6162,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E10" s="12">
         <v>12</v>
@@ -6188,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E11" s="12">
         <v>9</v>
@@ -6214,7 +7068,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E12" s="12">
         <v>9</v>
@@ -6299,47 +7153,47 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K1" sqref="K1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="12.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="16"/>
     <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.625" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="K1" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B2" s="12">
         <v>6</v>
@@ -6352,20 +7206,20 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L2" s="12">
         <v>6</v>
@@ -6379,7 +7233,7 @@
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B3" s="18">
         <v>1.0129198894890106</v>
@@ -6405,7 +7259,7 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="L3" s="18">
         <v>1.0144026135167818</v>
@@ -6419,7 +7273,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B4" s="19">
         <v>1.0441176371571805</v>
@@ -6445,7 +7299,7 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="L4" s="20">
         <v>0.96580407717300698</v>
@@ -6459,7 +7313,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B5" s="18">
         <v>0.99467084587180876</v>
@@ -6485,7 +7339,7 @@
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="L5" s="18">
         <v>0.9325048570767529</v>
@@ -6514,20 +7368,20 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="17" t="s">
-        <v>134</v>
+      <c r="K7" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -6535,7 +7389,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
@@ -6553,7 +7407,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="L8" s="12">
         <v>6</v>
@@ -6567,7 +7421,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B9" s="18">
         <v>0.97176684744885755</v>
@@ -6585,7 +7439,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="L9" s="12">
         <f>540/4-2*70</f>
@@ -6602,7 +7456,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B10" s="19">
         <v>0.91927082493993217</v>
@@ -6620,7 +7474,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="L10" s="12">
         <f>540/4-2*50</f>
@@ -6637,7 +7491,7 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B11" s="18">
         <v>0.96034816489690034</v>
@@ -6655,7 +7509,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L11" s="12">
         <f>550/4-2*50</f>
@@ -6684,12 +7538,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6699,7 +7553,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B14" s="12">
         <v>6</v>
@@ -6719,7 +7573,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B15" s="18">
         <v>0.99584277680568178</v>
@@ -6739,7 +7593,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B16" s="19">
         <v>0.99598392642281919</v>
@@ -6759,7 +7613,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B17" s="18">
         <v>0.98117154875196999</v>
@@ -6778,16 +7632,16 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B20" s="12">
         <v>6</v>
@@ -6801,7 +7655,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B21" s="18">
         <v>0.98440485723765936</v>
@@ -6815,7 +7669,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B22" s="18">
         <v>0.97065645875260842</v>
@@ -6829,7 +7683,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B23" s="18">
         <v>0.95974259319363719</v>
@@ -6843,7 +7697,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -6851,7 +7705,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B26" s="12">
         <v>6</v>
@@ -6865,7 +7719,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="B27" s="18">
         <f>B21/B15</f>
@@ -6882,7 +7736,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B28" s="18">
         <f t="shared" ref="B28:D29" si="1">B22/B16</f>
@@ -6899,7 +7753,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B29" s="18">
         <f t="shared" si="1"/>
@@ -6915,11 +7769,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6970,7 +7825,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>48440</v>
@@ -6991,7 +7846,7 @@
         <v>380518</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J2" s="22">
         <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
@@ -7019,7 +7874,7 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="R2" s="21">
         <f>(J2+J3)/(K2+K3)</f>
@@ -7036,7 +7891,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>60195</v>
@@ -7057,7 +7912,7 @@
         <v>437923</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J3" s="22">
         <f t="shared" si="0"/>
@@ -7085,7 +7940,7 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="R3" s="21">
         <f>(J4+J5)/(K4+K5)</f>
@@ -7102,7 +7957,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>73978</v>
@@ -7123,7 +7978,7 @@
         <v>513520</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J4" s="22">
         <f t="shared" si="0"/>
@@ -7153,7 +8008,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>84416</v>
@@ -7174,7 +8029,7 @@
         <v>519518</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" si="0"/>
@@ -7204,7 +8059,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>59689</v>
@@ -7227,7 +8082,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>72356</v>
@@ -7250,7 +8105,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>84010</v>
@@ -7273,7 +8128,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>85530</v>
@@ -7296,7 +8151,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <v>51936</v>
@@ -7319,7 +8174,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>63286</v>
@@ -7342,7 +8197,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>70684</v>
@@ -7365,7 +8220,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>75498</v>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Word 假設" sheetId="7" r:id="rId3"/>
     <sheet name="地震力" sheetId="2" r:id="rId4"/>
     <sheet name="Word 撓曲統計" sheetId="5" r:id="rId5"/>
-    <sheet name="Word 剪力統計" sheetId="8" r:id="rId6"/>
-    <sheet name="Word 整理統計" sheetId="6" r:id="rId7"/>
-    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId8"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId9"/>
+    <sheet name="Word 載重組合" sheetId="10" r:id="rId6"/>
+    <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
+    <sheet name="Word 整理統計" sheetId="6" r:id="rId8"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId9"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,32 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.2028W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,19 +607,6 @@
   </si>
   <si>
     <t>0.0629W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -717,19 +679,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋號數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>上層筋效益</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,45 +758,6 @@
         <charset val="136"/>
       </rPr>
       <t>蘆竹鄉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1552,20 +1462,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>假設</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一樓樓高</t>
+      <t>下層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -1574,20 +1471,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>二樓以上樓高</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -1596,20 +1493,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
     </r>
     <r>
       <rPr>
@@ -1618,20 +1515,43 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋強度</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -1640,20 +1560,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -1662,114 +1579,39 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>柱底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>數值分析模型之假設</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁、柱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>版、牆</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不考慮勁度與強度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>280 kgf/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋強度</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -1778,36 +1620,39 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4200 kgf/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -1816,20 +1661,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜載重</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -1838,36 +1683,39 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1200 kgf/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>活載重</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -1876,62 +1724,39 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>300 kgf/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>接頭之剛性區域</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>韌性容量</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -1940,46 +1765,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> R</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一樓樓高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>二樓以上樓高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層鋼筋效益</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -1988,20 +1784,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層鋼筋效益</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
     </r>
     <r>
       <rPr>
@@ -2010,20 +1809,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
+      <t xml:space="preserve"> 2h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之距離</t>
     </r>
     <r>
       <rPr>
@@ -2032,43 +1828,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(cm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -2077,17 +1850,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -2096,20 +1869,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -2128,7 +1901,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力較大之工址</t>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -2150,7 +1923,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -2159,17 +1932,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -2178,20 +1954,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -2200,17 +1973,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -2219,20 +1995,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -2241,17 +2014,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -2260,20 +2039,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -2292,7 +2071,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力較小之工址</t>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -2306,18 +2085,388 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1/4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>與</t>
+    <t>Comb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS02</t>
+  </si>
+  <si>
+    <t>USS03</t>
+  </si>
+  <si>
+    <t>USS04</t>
+  </si>
+  <si>
+    <t>USS05</t>
+  </si>
+  <si>
+    <t>USS06</t>
+  </si>
+  <si>
+    <t>USS07</t>
+  </si>
+  <si>
+    <t>USS08</t>
+  </si>
+  <si>
+    <t>USS09</t>
+  </si>
+  <si>
+    <t>USS10</t>
+  </si>
+  <si>
+    <t>USS11</t>
+  </si>
+  <si>
+    <t>USS12</t>
+  </si>
+  <si>
+    <t>USS13</t>
+  </si>
+  <si>
+    <t>USS14</t>
+  </si>
+  <si>
+    <t>USS15</t>
+  </si>
+  <si>
+    <t>USS16</t>
+  </si>
+  <si>
+    <t>USS17</t>
+  </si>
+  <si>
+    <t>USS18</t>
+  </si>
+  <si>
+    <t>USS01S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS02S</t>
+  </si>
+  <si>
+    <t>USS03S</t>
+  </si>
+  <si>
+    <t>USS04S</t>
+  </si>
+  <si>
+    <t>USS05S</t>
+  </si>
+  <si>
+    <t>USS06S</t>
+  </si>
+  <si>
+    <t>USS07S</t>
+  </si>
+  <si>
+    <t>USS08S</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜載重</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活載重</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>垂直地震力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動態地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜力分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動力反應譜分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜態地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁之主筋號數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
     </r>
     <r>
       <rPr>
@@ -2326,17 +2475,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之距離</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
     </r>
     <r>
       <rPr>
@@ -2345,20 +2497,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(cm)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
     </r>
     <r>
       <rPr>
@@ -2367,17 +2519,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
     </r>
     <r>
       <rPr>
@@ -2386,20 +2541,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
@@ -2408,39 +2563,127 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>數值分析模型之假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁、柱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版、牆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不考慮勁度與強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>280 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
     </r>
     <r>
       <rPr>
@@ -2449,39 +2692,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4200 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
@@ -2490,39 +2730,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4200 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜載重</t>
     </r>
     <r>
       <rPr>
@@ -2531,45 +2768,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1200 kgf/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活載重</t>
     </r>
     <r>
       <rPr>
@@ -2578,26 +2806,123 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300 kgf/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>接頭之剛性區域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>韌性容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁承受重力之帶寬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與梁長相同</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2609,7 +2934,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2692,6 +3017,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2756,7 +3092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2832,10 +3168,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2844,20 +3186,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5005,41 +5356,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>51</v>
@@ -5051,10 +5402,10 @@
         <v>18</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>31</v>
@@ -5062,11 +5413,11 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G3" s="15">
         <v>280</v>
@@ -5098,55 +5449,55 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="26">
+        <v>86</v>
+      </c>
+      <c r="C4" s="31">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="C6" s="29"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -5156,68 +5507,68 @@
         <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
@@ -5226,40 +5577,40 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="27">
+      <c r="B20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="29">
         <v>4</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="29" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -5269,30 +5620,30 @@
         <v>33</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="27">
+      <c r="B28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="29">
         <v>4</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -5300,21 +5651,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -5322,13 +5680,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5336,2918 +5687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>6</v>
-      </c>
-      <c r="E8" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="B2:Q19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F4" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" s="12">
-        <v>280</v>
-      </c>
-      <c r="I4" s="12">
-        <v>4200</v>
-      </c>
-      <c r="J4" s="12">
-        <v>4200</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1200</v>
-      </c>
-      <c r="L4" s="12">
-        <v>300</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="P4" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="33">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="33">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="B1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2">
-        <v>1</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="12"/>
-    <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="12"/>
-    <col min="15" max="15" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="12"/>
-    <col min="20" max="20" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="12">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="24">
-        <v>12</v>
-      </c>
-      <c r="F10" s="24">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="12">
-        <v>6</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.97683621337292725</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0.99583333370126281</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="12">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.97880850432860123</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.93719992692330101</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.90568348791952125</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0.93038123815291496</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.98982648139335327</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.9365079371211531</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="12">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.93165903250304649</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0.99593495727743075</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0.95801516520843055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="12">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.86196382675318783</v>
-      </c>
-      <c r="I16" s="18">
-        <v>0.97357901239101086</v>
-      </c>
-      <c r="J16" s="18">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="12">
-        <v>6</v>
-      </c>
-      <c r="F17" s="12">
-        <v>4</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.9372073047629168</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0.95974259319363719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="12">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12">
-        <v>4</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.96905867158805403</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0.94961240732685592</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0.96147227615551067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="24">
-        <v>12</v>
-      </c>
-      <c r="F19" s="24">
-        <v>4</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.87802789344330667</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0.96850763718630439</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="12">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="12">
-        <v>9</v>
-      </c>
-      <c r="F21" s="12">
-        <v>20</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="12">
-        <v>9</v>
-      </c>
-      <c r="F22" s="12">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.97418106672431659</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0.92157689209957483</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0.95431611009417394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="12">
-        <v>9</v>
-      </c>
-      <c r="F23" s="12">
-        <v>20</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1.0169398406633805</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0.94750914859707136</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0.98914904350968524</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="12"/>
-    <col min="14" max="14" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="12"/>
-    <col min="19" max="19" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="12">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="G2" s="18">
-        <v>1.0144026135167818</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.90191491074006924</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.86975819949198241</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="12">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.94484837694979296</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="12">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12">
-        <v>20</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="16"/>
-    <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="12">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="12">
-        <v>6</v>
-      </c>
-      <c r="M2" s="12">
-        <v>9</v>
-      </c>
-      <c r="N2" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1.0144026135167818</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0.90191491074006924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
-        <v>12</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0.86975819949198241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
-        <v>20</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0.94484837694979296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L8" s="12">
-        <v>6</v>
-      </c>
-      <c r="M8" s="12">
-        <v>9</v>
-      </c>
-      <c r="N8" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L9" s="12">
-        <f>540/4-2*70</f>
-        <v>-5</v>
-      </c>
-      <c r="M9" s="12">
-        <f>820/4-2*80</f>
-        <v>45</v>
-      </c>
-      <c r="N9" s="12">
-        <f>1100/4-2*100</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L10" s="12">
-        <f>540/4-2*50</f>
-        <v>35</v>
-      </c>
-      <c r="M10" s="12">
-        <f>820/4-2*70</f>
-        <v>65</v>
-      </c>
-      <c r="N10" s="12">
-        <f>1110/4-2*100</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="12">
-        <f>550/4-2*50</f>
-        <v>37.5</v>
-      </c>
-      <c r="M11" s="12">
-        <f>820/4-2*70</f>
-        <v>65</v>
-      </c>
-      <c r="N11" s="12">
-        <f>1110/4-2*90</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="12">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="18">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="18">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="12">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="18">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="18">
-        <v>0.97065645875260842</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0.95801516520843055</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="18">
-        <v>0.95974259319363719</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.96147227615551067</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="12">
-        <v>6</v>
-      </c>
-      <c r="C26" s="12">
-        <v>9</v>
-      </c>
-      <c r="D26" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="18">
-        <f>B21/B15</f>
-        <v>0.98851433194634264</v>
-      </c>
-      <c r="C27" s="18">
-        <f t="shared" ref="C27:D27" si="0">C21/C15</f>
-        <v>1.0217116065423451</v>
-      </c>
-      <c r="D27" s="18">
-        <f t="shared" si="0"/>
-        <v>0.99391485342092678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="18">
-        <f t="shared" ref="B28:D29" si="1">B22/B16</f>
-        <v>0.97457040520605887</v>
-      </c>
-      <c r="C28" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0048644996536917</v>
-      </c>
-      <c r="D28" s="18">
-        <f t="shared" si="1"/>
-        <v>0.99972423658126308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="18">
-        <f t="shared" si="1"/>
-        <v>0.97815982782461441</v>
-      </c>
-      <c r="C29" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0174911887688061</v>
-      </c>
-      <c r="D29" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0116158290360864</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="F1">
-        <v>12</v>
-      </c>
-      <c r="J1">
-        <v>6</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="R1">
-        <v>6</v>
-      </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
-      <c r="T1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2">
-        <v>48440</v>
-      </c>
-      <c r="C2">
-        <v>50163</v>
-      </c>
-      <c r="D2">
-        <v>153428</v>
-      </c>
-      <c r="E2">
-        <v>165643</v>
-      </c>
-      <c r="F2">
-        <v>338577</v>
-      </c>
-      <c r="G2">
-        <v>380518</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="22">
-        <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
-        <v>160065</v>
-      </c>
-      <c r="K2" s="22">
-        <f t="shared" si="0"/>
-        <v>166822</v>
-      </c>
-      <c r="L2" s="22">
-        <f t="shared" si="0"/>
-        <v>481414</v>
-      </c>
-      <c r="M2" s="22">
-        <f t="shared" si="0"/>
-        <v>523521</v>
-      </c>
-      <c r="N2" s="22">
-        <f t="shared" si="0"/>
-        <v>1007985</v>
-      </c>
-      <c r="O2" s="22">
-        <f t="shared" si="0"/>
-        <v>1145830</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="21">
-        <f>(J2+J3)/(K2+K3)</f>
-        <v>0.97754327369409855</v>
-      </c>
-      <c r="S2" s="21">
-        <f>(L2+L3)/(M2+M3)</f>
-        <v>0.93714191857466811</v>
-      </c>
-      <c r="T2" s="21">
-        <f>(N2+N3)/(O2+O3)</f>
-        <v>0.89782841703876393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3">
-        <v>60195</v>
-      </c>
-      <c r="C3">
-        <v>59283</v>
-      </c>
-      <c r="D3">
-        <v>198866</v>
-      </c>
-      <c r="E3">
-        <v>206949</v>
-      </c>
-      <c r="F3">
-        <v>408185</v>
-      </c>
-      <c r="G3">
-        <v>437923</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="22">
-        <f t="shared" si="0"/>
-        <v>195837</v>
-      </c>
-      <c r="K3" s="22">
-        <f t="shared" si="0"/>
-        <v>197256</v>
-      </c>
-      <c r="L3" s="22">
-        <f t="shared" si="0"/>
-        <v>579828</v>
-      </c>
-      <c r="M3" s="22">
-        <f t="shared" si="0"/>
-        <v>608903</v>
-      </c>
-      <c r="N3" s="22">
-        <f t="shared" si="0"/>
-        <v>1173264</v>
-      </c>
-      <c r="O3" s="22">
-        <f t="shared" si="0"/>
-        <v>1283642</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="21">
-        <f>(J4+J5)/(K4+K5)</f>
-        <v>1.0017494633288822</v>
-      </c>
-      <c r="S3" s="21">
-        <f>(L4+L5)/(M4+M5)</f>
-        <v>0.95535509551992304</v>
-      </c>
-      <c r="T3" s="21">
-        <f>(N4+N5)/(O4+O5)</f>
-        <v>0.9231367626082253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>73978</v>
-      </c>
-      <c r="C4">
-        <v>74788</v>
-      </c>
-      <c r="D4">
-        <v>228478</v>
-      </c>
-      <c r="E4">
-        <v>243600</v>
-      </c>
-      <c r="F4">
-        <v>475495</v>
-      </c>
-      <c r="G4">
-        <v>513520</v>
-      </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="22">
-        <f t="shared" si="0"/>
-        <v>228672</v>
-      </c>
-      <c r="K4" s="22">
-        <f t="shared" si="0"/>
-        <v>227456</v>
-      </c>
-      <c r="L4" s="22">
-        <f t="shared" si="0"/>
-        <v>642182</v>
-      </c>
-      <c r="M4" s="22">
-        <f t="shared" si="0"/>
-        <v>673029</v>
-      </c>
-      <c r="N4" s="22">
-        <f t="shared" si="0"/>
-        <v>1317974</v>
-      </c>
-      <c r="O4" s="22">
-        <f t="shared" si="0"/>
-        <v>1426129</v>
-      </c>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5">
-        <v>84416</v>
-      </c>
-      <c r="C5">
-        <v>83909</v>
-      </c>
-      <c r="D5">
-        <v>229455</v>
-      </c>
-      <c r="E5">
-        <v>243600</v>
-      </c>
-      <c r="F5">
-        <v>482622</v>
-      </c>
-      <c r="G5">
-        <v>519518</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="22">
-        <f t="shared" si="0"/>
-        <v>245444</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" si="0"/>
-        <v>245832</v>
-      </c>
-      <c r="L5" s="22">
-        <f t="shared" si="0"/>
-        <v>632726</v>
-      </c>
-      <c r="M5" s="22">
-        <f t="shared" si="0"/>
-        <v>661457</v>
-      </c>
-      <c r="N5" s="22">
-        <f t="shared" si="0"/>
-        <v>1342568</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" si="0"/>
-        <v>1455938</v>
-      </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6">
-        <v>59689</v>
-      </c>
-      <c r="C6">
-        <v>61108</v>
-      </c>
-      <c r="D6">
-        <v>173240</v>
-      </c>
-      <c r="E6">
-        <v>187526</v>
-      </c>
-      <c r="F6">
-        <v>314204</v>
-      </c>
-      <c r="G6">
-        <v>359584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7">
-        <v>72356</v>
-      </c>
-      <c r="C7">
-        <v>73876</v>
-      </c>
-      <c r="D7">
-        <v>207975</v>
-      </c>
-      <c r="E7">
-        <v>216644</v>
-      </c>
-      <c r="F7">
-        <v>365381</v>
-      </c>
-      <c r="G7">
-        <v>403829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8">
-        <v>84010</v>
-      </c>
-      <c r="C8">
-        <v>82997</v>
-      </c>
-      <c r="D8">
-        <v>225076</v>
-      </c>
-      <c r="E8">
-        <v>234450</v>
-      </c>
-      <c r="F8">
-        <v>415696</v>
-      </c>
-      <c r="G8">
-        <v>448074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9">
-        <v>85530</v>
-      </c>
-      <c r="C9">
-        <v>84821</v>
-      </c>
-      <c r="D9">
-        <v>217584</v>
-      </c>
-      <c r="E9">
-        <v>225547</v>
-      </c>
-      <c r="F9">
-        <v>431754</v>
-      </c>
-      <c r="G9">
-        <v>466947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10">
-        <v>51936</v>
-      </c>
-      <c r="C10">
-        <v>55551</v>
-      </c>
-      <c r="D10">
-        <v>154746</v>
-      </c>
-      <c r="E10">
-        <v>170352</v>
-      </c>
-      <c r="F10">
-        <v>355204</v>
-      </c>
-      <c r="G10">
-        <v>405728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11">
-        <v>63286</v>
-      </c>
-      <c r="C11">
-        <v>64097</v>
-      </c>
-      <c r="D11">
-        <v>172987</v>
-      </c>
-      <c r="E11">
-        <v>185310</v>
-      </c>
-      <c r="F11">
-        <v>399698</v>
-      </c>
-      <c r="G11">
-        <v>441890</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>70684</v>
-      </c>
-      <c r="C12">
-        <v>69671</v>
-      </c>
-      <c r="D12">
-        <v>188628</v>
-      </c>
-      <c r="E12">
-        <v>194979</v>
-      </c>
-      <c r="F12">
-        <v>426783</v>
-      </c>
-      <c r="G12">
-        <v>464535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13">
-        <v>75498</v>
-      </c>
-      <c r="C13">
-        <v>77102</v>
-      </c>
-      <c r="D13">
-        <v>185687</v>
-      </c>
-      <c r="E13">
-        <v>192310</v>
-      </c>
-      <c r="F13">
-        <v>428192</v>
-      </c>
-      <c r="G13">
-        <v>469473</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -8530,4 +5970,3377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
+  <dimension ref="B2:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <v>280</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4200</v>
+      </c>
+      <c r="J4" s="12">
+        <v>4200</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="L4" s="12">
+        <v>300</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="B1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5"/>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="12"/>
+    <col min="15" max="15" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="12"/>
+    <col min="20" max="20" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="24">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.97880850432860123</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.93719992692330101</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="12">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.90568348791952125</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.93038123815291496</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.93165903250304649</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.99593495727743075</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0.95801516520843055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="12">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.86196382675318783</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0.97357901239101086</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="12">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="12">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.96905867158805403</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.94961240732685592</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.96147227615551067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="24">
+        <v>12</v>
+      </c>
+      <c r="F19" s="24">
+        <v>4</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.87802789344330667</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.96850763718630439</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="12">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="12">
+        <v>9</v>
+      </c>
+      <c r="F21" s="12">
+        <v>20</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12">
+        <v>12</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.97418106672431659</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0.92157689209957483</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.95431611009417394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="12">
+        <v>9</v>
+      </c>
+      <c r="F23" s="12">
+        <v>20</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1.0169398406633805</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.94750914859707136</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0.98914904350968524</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="34"/>
+    <col min="7" max="7" width="8.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="34">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1.6</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="34">
+        <v>1</v>
+      </c>
+      <c r="K4" s="34">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="34">
+        <v>1</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="34">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J8" s="34">
+        <v>1</v>
+      </c>
+      <c r="K8" s="34">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="34">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="34">
+        <v>-0.3</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="34">
+        <v>-0.3</v>
+      </c>
+      <c r="E12" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="34">
+        <v>1</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="34">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="34">
+        <v>-0.3</v>
+      </c>
+      <c r="E18" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="34">
+        <v>-0.3</v>
+      </c>
+      <c r="E20" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="12"/>
+    <col min="14" max="14" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="12"/>
+    <col min="19" max="19" width="14.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.90191491074006924</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.86975819949198241</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.94484837694979296</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="12">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="12">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0.90191491074006924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <v>12</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.86975819949198241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>20</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.94484837694979296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="12">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12">
+        <v>9</v>
+      </c>
+      <c r="N8" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="12">
+        <f>540/4-2*70</f>
+        <v>-5</v>
+      </c>
+      <c r="M9" s="12">
+        <f>820/4-2*80</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="12">
+        <f>1100/4-2*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="12">
+        <f>540/4-2*50</f>
+        <v>35</v>
+      </c>
+      <c r="M10" s="12">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N10" s="12">
+        <f>1110/4-2*100</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="12">
+        <f>550/4-2*50</f>
+        <v>37.5</v>
+      </c>
+      <c r="M11" s="12">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N11" s="12">
+        <f>1110/4-2*90</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="12">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.97065645875260842</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.95801516520843055</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.95974259319363719</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.96147227615551067</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="12">
+        <v>6</v>
+      </c>
+      <c r="C26" s="12">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="18">
+        <f>B21/B15</f>
+        <v>0.98851433194634264</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" ref="C27:D27" si="0">C21/C15</f>
+        <v>1.0217116065423451</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99391485342092678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="18">
+        <f t="shared" ref="B28:D29" si="1">B22/B16</f>
+        <v>0.97457040520605887</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0048644996536917</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99972423658126308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="18">
+        <f t="shared" si="1"/>
+        <v>0.97815982782461441</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0174911887688061</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0116158290360864</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>48440</v>
+      </c>
+      <c r="C2">
+        <v>50163</v>
+      </c>
+      <c r="D2">
+        <v>153428</v>
+      </c>
+      <c r="E2">
+        <v>165643</v>
+      </c>
+      <c r="F2">
+        <v>338577</v>
+      </c>
+      <c r="G2">
+        <v>380518</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="22">
+        <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
+        <v>160065</v>
+      </c>
+      <c r="K2" s="22">
+        <f t="shared" si="0"/>
+        <v>166822</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" si="0"/>
+        <v>481414</v>
+      </c>
+      <c r="M2" s="22">
+        <f t="shared" si="0"/>
+        <v>523521</v>
+      </c>
+      <c r="N2" s="22">
+        <f t="shared" si="0"/>
+        <v>1007985</v>
+      </c>
+      <c r="O2" s="22">
+        <f t="shared" si="0"/>
+        <v>1145830</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="21">
+        <f>(J2+J3)/(K2+K3)</f>
+        <v>0.97754327369409855</v>
+      </c>
+      <c r="S2" s="21">
+        <f>(L2+L3)/(M2+M3)</f>
+        <v>0.93714191857466811</v>
+      </c>
+      <c r="T2" s="21">
+        <f>(N2+N3)/(O2+O3)</f>
+        <v>0.89782841703876393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>60195</v>
+      </c>
+      <c r="C3">
+        <v>59283</v>
+      </c>
+      <c r="D3">
+        <v>198866</v>
+      </c>
+      <c r="E3">
+        <v>206949</v>
+      </c>
+      <c r="F3">
+        <v>408185</v>
+      </c>
+      <c r="G3">
+        <v>437923</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
+        <v>195837</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" si="0"/>
+        <v>197256</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" si="0"/>
+        <v>579828</v>
+      </c>
+      <c r="M3" s="22">
+        <f t="shared" si="0"/>
+        <v>608903</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" si="0"/>
+        <v>1173264</v>
+      </c>
+      <c r="O3" s="22">
+        <f t="shared" si="0"/>
+        <v>1283642</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="21">
+        <f>(J4+J5)/(K4+K5)</f>
+        <v>1.0017494633288822</v>
+      </c>
+      <c r="S3" s="21">
+        <f>(L4+L5)/(M4+M5)</f>
+        <v>0.95535509551992304</v>
+      </c>
+      <c r="T3" s="21">
+        <f>(N4+N5)/(O4+O5)</f>
+        <v>0.9231367626082253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>73978</v>
+      </c>
+      <c r="C4">
+        <v>74788</v>
+      </c>
+      <c r="D4">
+        <v>228478</v>
+      </c>
+      <c r="E4">
+        <v>243600</v>
+      </c>
+      <c r="F4">
+        <v>475495</v>
+      </c>
+      <c r="G4">
+        <v>513520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
+        <v>228672</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="0"/>
+        <v>227456</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
+        <v>642182</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="0"/>
+        <v>673029</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="0"/>
+        <v>1317974</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="0"/>
+        <v>1426129</v>
+      </c>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>84416</v>
+      </c>
+      <c r="C5">
+        <v>83909</v>
+      </c>
+      <c r="D5">
+        <v>229455</v>
+      </c>
+      <c r="E5">
+        <v>243600</v>
+      </c>
+      <c r="F5">
+        <v>482622</v>
+      </c>
+      <c r="G5">
+        <v>519518</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
+        <v>245444</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>245832</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>632726</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>661457</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="0"/>
+        <v>1342568</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="0"/>
+        <v>1455938</v>
+      </c>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>59689</v>
+      </c>
+      <c r="C6">
+        <v>61108</v>
+      </c>
+      <c r="D6">
+        <v>173240</v>
+      </c>
+      <c r="E6">
+        <v>187526</v>
+      </c>
+      <c r="F6">
+        <v>314204</v>
+      </c>
+      <c r="G6">
+        <v>359584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>72356</v>
+      </c>
+      <c r="C7">
+        <v>73876</v>
+      </c>
+      <c r="D7">
+        <v>207975</v>
+      </c>
+      <c r="E7">
+        <v>216644</v>
+      </c>
+      <c r="F7">
+        <v>365381</v>
+      </c>
+      <c r="G7">
+        <v>403829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>84010</v>
+      </c>
+      <c r="C8">
+        <v>82997</v>
+      </c>
+      <c r="D8">
+        <v>225076</v>
+      </c>
+      <c r="E8">
+        <v>234450</v>
+      </c>
+      <c r="F8">
+        <v>415696</v>
+      </c>
+      <c r="G8">
+        <v>448074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>85530</v>
+      </c>
+      <c r="C9">
+        <v>84821</v>
+      </c>
+      <c r="D9">
+        <v>217584</v>
+      </c>
+      <c r="E9">
+        <v>225547</v>
+      </c>
+      <c r="F9">
+        <v>431754</v>
+      </c>
+      <c r="G9">
+        <v>466947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>51936</v>
+      </c>
+      <c r="C10">
+        <v>55551</v>
+      </c>
+      <c r="D10">
+        <v>154746</v>
+      </c>
+      <c r="E10">
+        <v>170352</v>
+      </c>
+      <c r="F10">
+        <v>355204</v>
+      </c>
+      <c r="G10">
+        <v>405728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>63286</v>
+      </c>
+      <c r="C11">
+        <v>64097</v>
+      </c>
+      <c r="D11">
+        <v>172987</v>
+      </c>
+      <c r="E11">
+        <v>185310</v>
+      </c>
+      <c r="F11">
+        <v>399698</v>
+      </c>
+      <c r="G11">
+        <v>441890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>70684</v>
+      </c>
+      <c r="C12">
+        <v>69671</v>
+      </c>
+      <c r="D12">
+        <v>188628</v>
+      </c>
+      <c r="E12">
+        <v>194979</v>
+      </c>
+      <c r="F12">
+        <v>426783</v>
+      </c>
+      <c r="G12">
+        <v>464535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>75498</v>
+      </c>
+      <c r="C13">
+        <v>77102</v>
+      </c>
+      <c r="D13">
+        <v>185687</v>
+      </c>
+      <c r="E13">
+        <v>192310</v>
+      </c>
+      <c r="F13">
+        <v>428192</v>
+      </c>
+      <c r="G13">
+        <v>469473</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="220">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3092,7 +3092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3177,18 +3177,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3207,7 +3195,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5356,22 +5365,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -5451,7 +5460,7 @@
       <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="35">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -5468,7 +5477,7 @@
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -5483,7 +5492,7 @@
       <c r="B6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
@@ -5493,11 +5502,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -5522,35 +5531,35 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -5577,40 +5586,40 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="36">
         <v>4</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="36" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -5637,13 +5646,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="36">
         <v>4</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -5651,21 +5660,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:D1"/>
@@ -5673,13 +5689,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6213,7 +6222,7 @@
   <sheetPr codeName="工作表6"/>
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C20"/>
     </sheetView>
   </sheetViews>
@@ -6237,20 +6246,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="13" t="s">
@@ -6333,10 +6342,10 @@
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
@@ -6611,10 +6620,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6625,18 +6634,19 @@
     <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="12"/>
-    <col min="15" max="15" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="12"/>
-    <col min="20" max="20" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
+    <col min="12" max="12" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
@@ -6658,17 +6668,44 @@
       <c r="G1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>181</v>
       </c>
@@ -6700,8 +6737,35 @@
         <v>0.99584277680568178</v>
       </c>
       <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="12">
+        <v>3</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>4</v>
+      </c>
+      <c r="R2" s="18">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0.99584277680568178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
@@ -6733,8 +6797,35 @@
         <v>0.94235169554311193</v>
       </c>
       <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>4</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -6766,8 +6857,35 @@
         <v>0.92082074738974806</v>
       </c>
       <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="29">
+        <v>1</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>4</v>
+      </c>
+      <c r="R4" s="41">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="S4" s="41">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="T4" s="41">
+        <v>0.90359829906310252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>182</v>
       </c>
@@ -6799,8 +6917,35 @@
         <v>0.99598392642281919</v>
       </c>
       <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="12">
+        <v>2</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>12</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0.93845389777708454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -6832,8 +6977,35 @@
         <v>0.95337746088014153</v>
       </c>
       <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="29">
+        <v>2</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>20</v>
+      </c>
+      <c r="R6" s="41">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="S6" s="41">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="T6" s="41">
+        <v>0.96975909457752896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
@@ -6866,7 +7038,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>184</v>
       </c>
@@ -6899,7 +7071,7 @@
       </c>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
@@ -6932,7 +7104,7 @@
       </c>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>47</v>
       </c>
@@ -6954,18 +7126,18 @@
       <c r="G10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="41">
         <v>0.85955102613220613</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="41">
         <v>0.96525299905055362</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="41">
         <v>0.90359829906310252</v>
       </c>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>181</v>
       </c>
@@ -6998,7 +7170,7 @@
       </c>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>45</v>
       </c>
@@ -7031,7 +7203,7 @@
       </c>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -7063,7 +7235,7 @@
         <v>0.91521741816882973</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>187</v>
       </c>
@@ -7095,7 +7267,7 @@
         <v>0.97065645875260842</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -7127,7 +7299,7 @@
         <v>0.95801516520843055</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
@@ -7245,13 +7417,13 @@
       <c r="G19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="41">
         <v>0.87802789344330667</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="41">
         <v>0.96850763718630439</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="41">
         <v>0.91409434242231791</v>
       </c>
     </row>
@@ -7289,34 +7461,34 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="29">
         <v>2</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="29">
         <v>9</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="29">
         <v>20</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="41">
         <v>0.99226020155070471</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="41">
         <v>0.93593454952384891</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="41">
         <v>0.96975909457752896</v>
       </c>
       <c r="K21" s="18"/>
@@ -7401,436 +7573,436 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="34"/>
-    <col min="7" max="7" width="8.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="7.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="30"/>
+    <col min="7" max="7" width="8.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="30">
         <v>1.4</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="30">
         <v>1.2</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="30">
         <v>0.5</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="30">
         <v>1</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="30">
         <v>1.2</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="30">
         <v>1.6</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="30">
         <v>1.2</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="30">
         <v>0.5</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="30">
         <v>1</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="30">
         <v>-0.3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="30">
         <v>1.2</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="30">
         <v>0.5</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="30">
         <v>0.3</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="30">
         <v>1.2</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="30">
         <v>0.5</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="30">
         <v>0.3</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="30">
         <v>1.2</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>0.5</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="30">
         <v>-1</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>0.3</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="30">
         <v>1.2</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="30">
         <v>0.5</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="30">
         <v>0.3</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="30">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <v>1.2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="30">
         <v>0.5</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>-0.3</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <v>0.9</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="30">
         <v>1</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <v>1.2</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <v>0.5</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="30">
         <v>-1</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="30">
         <v>-0.3</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>0.9</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="30">
         <v>1</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="30">
         <v>-0.3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <v>1.2</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>0.5</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="30">
         <v>0.3</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="30">
         <v>0.9</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="30">
         <v>0.3</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <v>1.2</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <v>0.5</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="30">
         <v>-0.3</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>0.9</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="30">
         <v>0.3</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="30">
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <v>1.2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <v>0.5</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="30">
         <v>0.3</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="30">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <v>1.2</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <v>0.5</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="30">
         <v>-0.3</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="30">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="30">
         <v>0.9</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <v>1</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <v>0.9</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="30">
         <v>-1</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="30">
         <v>0.9</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="30">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="30">
         <v>-0.3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="30">
         <v>0.9</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="30">
         <v>-1</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="30">
         <v>-0.3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="30">
         <v>0.9</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="30">
         <v>0.3</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="30">
         <v>0.9</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="30">
         <v>-0.3</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="30">
         <v>0.9</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="30">
         <v>0.3</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="30">
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="30">
         <v>0.9</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="30">
         <v>-0.3</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="30">
         <v>-1</v>
       </c>
     </row>
@@ -8270,24 +8442,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -8466,12 +8638,12 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -8636,12 +8808,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8730,12 +8902,12 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Word 載重組合" sheetId="10" r:id="rId6"/>
     <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
     <sheet name="Word 整理統計" sheetId="6" r:id="rId8"/>
-    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId9"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId10"/>
+    <sheet name="Word 非線性容量" sheetId="11" r:id="rId9"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId10"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="237">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2923,6 +2924,550 @@
         <charset val="136"/>
       </rPr>
       <t>與梁長相同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal Pushover Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Modes Combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2934,7 +3479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3028,6 +3573,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3092,7 +3644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3195,16 +3747,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3216,7 +3771,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5365,22 +5920,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -5460,7 +6015,7 @@
       <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="38">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -5502,11 +6057,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -5531,11 +6086,11 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="38" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5554,12 +6109,12 @@
       <c r="D14" s="37"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -5614,12 +6169,12 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -5675,6 +6230,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -5682,13 +6244,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5697,6 +6252,473 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表11"/>
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>48440</v>
+      </c>
+      <c r="C2">
+        <v>50163</v>
+      </c>
+      <c r="D2">
+        <v>153428</v>
+      </c>
+      <c r="E2">
+        <v>165643</v>
+      </c>
+      <c r="F2">
+        <v>338577</v>
+      </c>
+      <c r="G2">
+        <v>380518</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="22">
+        <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
+        <v>160065</v>
+      </c>
+      <c r="K2" s="22">
+        <f t="shared" si="0"/>
+        <v>166822</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" si="0"/>
+        <v>481414</v>
+      </c>
+      <c r="M2" s="22">
+        <f t="shared" si="0"/>
+        <v>523521</v>
+      </c>
+      <c r="N2" s="22">
+        <f t="shared" si="0"/>
+        <v>1007985</v>
+      </c>
+      <c r="O2" s="22">
+        <f t="shared" si="0"/>
+        <v>1145830</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="21">
+        <f>(J2+J3)/(K2+K3)</f>
+        <v>0.97754327369409855</v>
+      </c>
+      <c r="S2" s="21">
+        <f>(L2+L3)/(M2+M3)</f>
+        <v>0.93714191857466811</v>
+      </c>
+      <c r="T2" s="21">
+        <f>(N2+N3)/(O2+O3)</f>
+        <v>0.89782841703876393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>60195</v>
+      </c>
+      <c r="C3">
+        <v>59283</v>
+      </c>
+      <c r="D3">
+        <v>198866</v>
+      </c>
+      <c r="E3">
+        <v>206949</v>
+      </c>
+      <c r="F3">
+        <v>408185</v>
+      </c>
+      <c r="G3">
+        <v>437923</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
+        <v>195837</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" si="0"/>
+        <v>197256</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" si="0"/>
+        <v>579828</v>
+      </c>
+      <c r="M3" s="22">
+        <f t="shared" si="0"/>
+        <v>608903</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" si="0"/>
+        <v>1173264</v>
+      </c>
+      <c r="O3" s="22">
+        <f t="shared" si="0"/>
+        <v>1283642</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="21">
+        <f>(J4+J5)/(K4+K5)</f>
+        <v>1.0017494633288822</v>
+      </c>
+      <c r="S3" s="21">
+        <f>(L4+L5)/(M4+M5)</f>
+        <v>0.95535509551992304</v>
+      </c>
+      <c r="T3" s="21">
+        <f>(N4+N5)/(O4+O5)</f>
+        <v>0.9231367626082253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>73978</v>
+      </c>
+      <c r="C4">
+        <v>74788</v>
+      </c>
+      <c r="D4">
+        <v>228478</v>
+      </c>
+      <c r="E4">
+        <v>243600</v>
+      </c>
+      <c r="F4">
+        <v>475495</v>
+      </c>
+      <c r="G4">
+        <v>513520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
+        <v>228672</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="0"/>
+        <v>227456</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
+        <v>642182</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="0"/>
+        <v>673029</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="0"/>
+        <v>1317974</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="0"/>
+        <v>1426129</v>
+      </c>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>84416</v>
+      </c>
+      <c r="C5">
+        <v>83909</v>
+      </c>
+      <c r="D5">
+        <v>229455</v>
+      </c>
+      <c r="E5">
+        <v>243600</v>
+      </c>
+      <c r="F5">
+        <v>482622</v>
+      </c>
+      <c r="G5">
+        <v>519518</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
+        <v>245444</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>245832</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>632726</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>661457</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="0"/>
+        <v>1342568</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="0"/>
+        <v>1455938</v>
+      </c>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>59689</v>
+      </c>
+      <c r="C6">
+        <v>61108</v>
+      </c>
+      <c r="D6">
+        <v>173240</v>
+      </c>
+      <c r="E6">
+        <v>187526</v>
+      </c>
+      <c r="F6">
+        <v>314204</v>
+      </c>
+      <c r="G6">
+        <v>359584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>72356</v>
+      </c>
+      <c r="C7">
+        <v>73876</v>
+      </c>
+      <c r="D7">
+        <v>207975</v>
+      </c>
+      <c r="E7">
+        <v>216644</v>
+      </c>
+      <c r="F7">
+        <v>365381</v>
+      </c>
+      <c r="G7">
+        <v>403829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>84010</v>
+      </c>
+      <c r="C8">
+        <v>82997</v>
+      </c>
+      <c r="D8">
+        <v>225076</v>
+      </c>
+      <c r="E8">
+        <v>234450</v>
+      </c>
+      <c r="F8">
+        <v>415696</v>
+      </c>
+      <c r="G8">
+        <v>448074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>85530</v>
+      </c>
+      <c r="C9">
+        <v>84821</v>
+      </c>
+      <c r="D9">
+        <v>217584</v>
+      </c>
+      <c r="E9">
+        <v>225547</v>
+      </c>
+      <c r="F9">
+        <v>431754</v>
+      </c>
+      <c r="G9">
+        <v>466947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>51936</v>
+      </c>
+      <c r="C10">
+        <v>55551</v>
+      </c>
+      <c r="D10">
+        <v>154746</v>
+      </c>
+      <c r="E10">
+        <v>170352</v>
+      </c>
+      <c r="F10">
+        <v>355204</v>
+      </c>
+      <c r="G10">
+        <v>405728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>63286</v>
+      </c>
+      <c r="C11">
+        <v>64097</v>
+      </c>
+      <c r="D11">
+        <v>172987</v>
+      </c>
+      <c r="E11">
+        <v>185310</v>
+      </c>
+      <c r="F11">
+        <v>399698</v>
+      </c>
+      <c r="G11">
+        <v>441890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>70684</v>
+      </c>
+      <c r="C12">
+        <v>69671</v>
+      </c>
+      <c r="D12">
+        <v>188628</v>
+      </c>
+      <c r="E12">
+        <v>194979</v>
+      </c>
+      <c r="F12">
+        <v>426783</v>
+      </c>
+      <c r="G12">
+        <v>464535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>75498</v>
+      </c>
+      <c r="C13">
+        <v>77102</v>
+      </c>
+      <c r="D13">
+        <v>185687</v>
+      </c>
+      <c r="E13">
+        <v>192310</v>
+      </c>
+      <c r="F13">
+        <v>428192</v>
+      </c>
+      <c r="G13">
+        <v>469473</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -6246,20 +7268,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="13" t="s">
@@ -6342,10 +7364,10 @@
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
@@ -6622,7 +7644,7 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:T6"/>
     </sheetView>
   </sheetViews>
@@ -6875,13 +7897,13 @@
       <c r="Q4" s="29">
         <v>4</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="34">
         <v>0.85955102613220613</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="34">
         <v>0.96525299905055362</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="34">
         <v>0.90359829906310252</v>
       </c>
     </row>
@@ -6995,13 +8017,13 @@
       <c r="Q6" s="29">
         <v>20</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="34">
         <v>0.99226020155070471</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="34">
         <v>0.93593454952384891</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="34">
         <v>0.96975909457752896</v>
       </c>
     </row>
@@ -7126,13 +8148,13 @@
       <c r="G10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="34">
         <v>0.85955102613220613</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="34">
         <v>0.96525299905055362</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="34">
         <v>0.90359829906310252</v>
       </c>
       <c r="K10" s="18"/>
@@ -7417,13 +8439,13 @@
       <c r="G19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="34">
         <v>0.87802789344330667</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="34">
         <v>0.96850763718630439</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="34">
         <v>0.91409434242231791</v>
       </c>
     </row>
@@ -7482,13 +8504,13 @@
       <c r="G21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="34">
         <v>0.99226020155070471</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="34">
         <v>0.93593454952384891</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="34">
         <v>0.96975909457752896</v>
       </c>
       <c r="K21" s="18"/>
@@ -7565,6 +8587,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表9"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7584,20 +8607,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -8423,7 +9446,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8442,24 +9465,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -8638,12 +9661,12 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -8808,12 +9831,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8902,12 +9925,12 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -9053,466 +10076,322 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <sheetPr codeName="工作表10"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="F1">
-        <v>12</v>
-      </c>
-      <c r="J1">
-        <v>6</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="R1">
-        <v>6</v>
-      </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
-      <c r="T1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>48440</v>
-      </c>
-      <c r="C2">
-        <v>50163</v>
-      </c>
-      <c r="D2">
-        <v>153428</v>
-      </c>
-      <c r="E2">
-        <v>165643</v>
-      </c>
-      <c r="F2">
-        <v>338577</v>
-      </c>
-      <c r="G2">
-        <v>380518</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="22">
-        <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
-        <v>160065</v>
-      </c>
-      <c r="K2" s="22">
-        <f t="shared" si="0"/>
-        <v>166822</v>
-      </c>
-      <c r="L2" s="22">
-        <f t="shared" si="0"/>
-        <v>481414</v>
-      </c>
-      <c r="M2" s="22">
-        <f t="shared" si="0"/>
-        <v>523521</v>
-      </c>
-      <c r="N2" s="22">
-        <f t="shared" si="0"/>
-        <v>1007985</v>
-      </c>
-      <c r="O2" s="22">
-        <f t="shared" si="0"/>
-        <v>1145830</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="21">
-        <f>(J2+J3)/(K2+K3)</f>
-        <v>0.97754327369409855</v>
-      </c>
-      <c r="S2" s="21">
-        <f>(L2+L3)/(M2+M3)</f>
-        <v>0.93714191857466811</v>
-      </c>
-      <c r="T2" s="21">
-        <f>(N2+N3)/(O2+O3)</f>
-        <v>0.89782841703876393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3">
-        <v>60195</v>
-      </c>
-      <c r="C3">
-        <v>59283</v>
-      </c>
-      <c r="D3">
-        <v>198866</v>
-      </c>
-      <c r="E3">
-        <v>206949</v>
-      </c>
-      <c r="F3">
-        <v>408185</v>
-      </c>
-      <c r="G3">
-        <v>437923</v>
-      </c>
-      <c r="I3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="22">
-        <f t="shared" si="0"/>
-        <v>195837</v>
-      </c>
-      <c r="K3" s="22">
-        <f t="shared" si="0"/>
-        <v>197256</v>
-      </c>
-      <c r="L3" s="22">
-        <f t="shared" si="0"/>
-        <v>579828</v>
-      </c>
-      <c r="M3" s="22">
-        <f t="shared" si="0"/>
-        <v>608903</v>
-      </c>
-      <c r="N3" s="22">
-        <f t="shared" si="0"/>
-        <v>1173264</v>
-      </c>
-      <c r="O3" s="22">
-        <f t="shared" si="0"/>
-        <v>1283642</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" s="21">
-        <f>(J4+J5)/(K4+K5)</f>
-        <v>1.0017494633288822</v>
-      </c>
-      <c r="S3" s="21">
-        <f>(L4+L5)/(M4+M5)</f>
-        <v>0.95535509551992304</v>
-      </c>
-      <c r="T3" s="21">
-        <f>(N4+N5)/(O4+O5)</f>
-        <v>0.9231367626082253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4">
-        <v>73978</v>
-      </c>
-      <c r="C4">
-        <v>74788</v>
-      </c>
-      <c r="D4">
-        <v>228478</v>
-      </c>
-      <c r="E4">
-        <v>243600</v>
-      </c>
-      <c r="F4">
-        <v>475495</v>
-      </c>
-      <c r="G4">
-        <v>513520</v>
-      </c>
-      <c r="I4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="22">
-        <f t="shared" si="0"/>
-        <v>228672</v>
-      </c>
-      <c r="K4" s="22">
-        <f t="shared" si="0"/>
-        <v>227456</v>
-      </c>
-      <c r="L4" s="22">
-        <f t="shared" si="0"/>
-        <v>642182</v>
-      </c>
-      <c r="M4" s="22">
-        <f t="shared" si="0"/>
-        <v>673029</v>
-      </c>
-      <c r="N4" s="22">
-        <f t="shared" si="0"/>
-        <v>1317974</v>
-      </c>
-      <c r="O4" s="22">
-        <f t="shared" si="0"/>
-        <v>1426129</v>
-      </c>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>84416</v>
-      </c>
-      <c r="C5">
-        <v>83909</v>
-      </c>
-      <c r="D5">
-        <v>229455</v>
-      </c>
-      <c r="E5">
-        <v>243600</v>
-      </c>
-      <c r="F5">
-        <v>482622</v>
-      </c>
-      <c r="G5">
-        <v>519518</v>
-      </c>
-      <c r="I5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="22">
-        <f t="shared" si="0"/>
-        <v>245444</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" si="0"/>
-        <v>245832</v>
-      </c>
-      <c r="L5" s="22">
-        <f t="shared" si="0"/>
-        <v>632726</v>
-      </c>
-      <c r="M5" s="22">
-        <f t="shared" si="0"/>
-        <v>661457</v>
-      </c>
-      <c r="N5" s="22">
-        <f t="shared" si="0"/>
-        <v>1342568</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" si="0"/>
-        <v>1455938</v>
-      </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6">
-        <v>59689</v>
-      </c>
-      <c r="C6">
-        <v>61108</v>
-      </c>
-      <c r="D6">
-        <v>173240</v>
-      </c>
-      <c r="E6">
-        <v>187526</v>
-      </c>
-      <c r="F6">
-        <v>314204</v>
-      </c>
-      <c r="G6">
-        <v>359584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7">
-        <v>72356</v>
-      </c>
-      <c r="C7">
-        <v>73876</v>
-      </c>
-      <c r="D7">
-        <v>207975</v>
-      </c>
-      <c r="E7">
-        <v>216644</v>
-      </c>
-      <c r="F7">
-        <v>365381</v>
-      </c>
-      <c r="G7">
-        <v>403829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8">
-        <v>84010</v>
-      </c>
-      <c r="C8">
-        <v>82997</v>
-      </c>
-      <c r="D8">
-        <v>225076</v>
-      </c>
-      <c r="E8">
-        <v>234450</v>
-      </c>
-      <c r="F8">
-        <v>415696</v>
-      </c>
-      <c r="G8">
-        <v>448074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9">
-        <v>85530</v>
-      </c>
-      <c r="C9">
-        <v>84821</v>
-      </c>
-      <c r="D9">
-        <v>217584</v>
-      </c>
-      <c r="E9">
-        <v>225547</v>
-      </c>
-      <c r="F9">
-        <v>431754</v>
-      </c>
-      <c r="G9">
-        <v>466947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10">
-        <v>51936</v>
-      </c>
-      <c r="C10">
-        <v>55551</v>
-      </c>
-      <c r="D10">
-        <v>154746</v>
-      </c>
-      <c r="E10">
-        <v>170352</v>
-      </c>
-      <c r="F10">
-        <v>355204</v>
-      </c>
-      <c r="G10">
-        <v>405728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11">
-        <v>63286</v>
-      </c>
-      <c r="C11">
-        <v>64097</v>
-      </c>
-      <c r="D11">
-        <v>172987</v>
-      </c>
-      <c r="E11">
-        <v>185310</v>
-      </c>
-      <c r="F11">
-        <v>399698</v>
-      </c>
-      <c r="G11">
-        <v>441890</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12">
-        <v>70684</v>
-      </c>
-      <c r="C12">
-        <v>69671</v>
-      </c>
-      <c r="D12">
-        <v>188628</v>
-      </c>
-      <c r="E12">
-        <v>194979</v>
-      </c>
-      <c r="F12">
-        <v>426783</v>
-      </c>
-      <c r="G12">
-        <v>464535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13">
-        <v>75498</v>
-      </c>
-      <c r="C13">
-        <v>77102</v>
-      </c>
-      <c r="D13">
-        <v>185687</v>
-      </c>
-      <c r="E13">
-        <v>192310</v>
-      </c>
-      <c r="F13">
-        <v>428192</v>
-      </c>
-      <c r="G13">
-        <v>469473</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2.73</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3.42</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3.57</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2.74</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3.44</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2.86</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3.58</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2.71</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2.77</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.51</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1.95</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.58</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2.34</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2.11</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -3753,13 +3753,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6015,7 +6015,7 @@
       <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6032,7 +6032,7 @@
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -6047,7 +6047,7 @@
       <c r="B6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
@@ -6086,27 +6086,27 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
@@ -6141,29 +6141,29 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="37">
         <v>4</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
@@ -6201,13 +6201,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="37">
         <v>4</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="37" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -6215,21 +6215,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:D1"/>
@@ -6237,13 +6244,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10080,7 +10080,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -20,12 +20,13 @@
     <sheet name="Word 載重組合" sheetId="10" r:id="rId6"/>
     <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
     <sheet name="Word 整理統計" sheetId="6" r:id="rId8"/>
-    <sheet name="Word 非線性容量" sheetId="11" r:id="rId9"/>
-    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId10"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId11"/>
+    <sheet name="Word 整理統計 新方法" sheetId="12" r:id="rId9"/>
+    <sheet name="Word 非線性容量" sheetId="11" r:id="rId10"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId11"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="237">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3644,7 +3645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3750,16 +3751,19 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5920,22 +5924,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6015,7 +6019,7 @@
       <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="39">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6057,11 +6061,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -6086,11 +6090,11 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="39" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6109,12 +6113,12 @@
       <c r="D14" s="38"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -6169,12 +6173,12 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -6230,6 +6234,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -6237,13 +6248,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6252,6 +6256,328 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表10"/>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2.73</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3.42</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3.57</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2.74</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3.44</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2.86</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3.58</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2.71</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2.77</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.51</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1.95</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.58</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2.34</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2.11</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表11"/>
   <dimension ref="A1:T13"/>
@@ -6718,7 +7044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -7268,20 +7594,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="13" t="s">
@@ -7364,10 +7690,10 @@
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
@@ -8607,20 +8933,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -9465,24 +9791,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -9661,12 +9987,12 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -9831,12 +10157,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -9925,12 +10251,12 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -10076,322 +10402,634 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表10"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="A3" sqref="A3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
-        <v>224</v>
-      </c>
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="42"/>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="42"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="42" t="s">
+        <v>106</v>
+      </c>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2.73</v>
-      </c>
-      <c r="C4" s="16">
-        <v>3.42</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2.85</v>
-      </c>
-      <c r="E4" s="16">
-        <v>3.57</v>
-      </c>
-      <c r="F4" s="16">
-        <v>2.74</v>
-      </c>
-      <c r="G4" s="16">
-        <v>3.44</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2.86</v>
-      </c>
-      <c r="I4" s="16">
-        <v>3.58</v>
-      </c>
-      <c r="J4" s="16">
-        <v>2.71</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="16">
-        <v>2.77</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1.35</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1.52</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1.34</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1.51</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1.41</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1.59</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1.58</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1.65</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1.24</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1.64</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1.28</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1.7</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1.28</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1.69</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1.62</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1.95</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2.1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2.48</v>
-      </c>
-      <c r="F7" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2.58</v>
-      </c>
-      <c r="H7" s="16">
-        <v>2.34</v>
-      </c>
-      <c r="I7" s="16">
-        <v>2.76</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1.44</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1.63</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1.71</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1.88</v>
-      </c>
-      <c r="G8" s="16">
-        <v>2.11</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1.87</v>
-      </c>
-      <c r="I8" s="16">
-        <v>2.1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2</v>
-      </c>
-      <c r="K8" s="16">
-        <v>2.33</v>
-      </c>
-      <c r="L8" s="16">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M8" s="16">
-        <v>2.37</v>
+      <c r="N1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="35">
+        <v>6</v>
+      </c>
+      <c r="C2" s="35">
+        <v>9</v>
+      </c>
+      <c r="D2" s="35">
+        <v>12</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="35">
+        <v>6</v>
+      </c>
+      <c r="M2" s="35">
+        <v>9</v>
+      </c>
+      <c r="N2" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0.90191491074006924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.879</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
+        <v>12</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.86975819949198241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35">
+        <v>20</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.94484837694979296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="35">
+        <v>6</v>
+      </c>
+      <c r="C8" s="35">
+        <v>9</v>
+      </c>
+      <c r="D8" s="35">
+        <v>12</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="35">
+        <v>6</v>
+      </c>
+      <c r="M8" s="35">
+        <v>9</v>
+      </c>
+      <c r="N8" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="35">
+        <f>540/4-2*70</f>
+        <v>-5</v>
+      </c>
+      <c r="M9" s="35">
+        <f>820/4-2*80</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="35">
+        <f>1100/4-2*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="35">
+        <f>540/4-2*50</f>
+        <v>35</v>
+      </c>
+      <c r="M10" s="35">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N10" s="35">
+        <f>1110/4-2*100</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="35">
+        <f>550/4-2*50</f>
+        <v>37.5</v>
+      </c>
+      <c r="M11" s="35">
+        <f>820/4-2*70</f>
+        <v>65</v>
+      </c>
+      <c r="N11" s="35">
+        <f>1110/4-2*90</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="35">
+        <v>6</v>
+      </c>
+      <c r="C14" s="35">
+        <v>9</v>
+      </c>
+      <c r="D14" s="35">
+        <v>12</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="35">
+        <v>6</v>
+      </c>
+      <c r="C20" s="35">
+        <v>9</v>
+      </c>
+      <c r="D20" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.97065645875260842</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.95801516520843055</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.95974259319363719</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.96147227615551067</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="35">
+        <v>6</v>
+      </c>
+      <c r="C26" s="35">
+        <v>9</v>
+      </c>
+      <c r="D26" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="18">
+        <f>B21/B15</f>
+        <v>1.0127621988041764</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" ref="C27:D27" si="0">C21/C15</f>
+        <v>1.0397534176903409</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
+        <v>0.9872895557376804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="18">
+        <f t="shared" ref="B28:D29" si="1">B22/B16</f>
+        <v>1.0437166223146326</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0493046716412164</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="1"/>
+        <v>0.99079127777726184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0546621903226783</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0647533512242642</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0340433737809025</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -3645,7 +3645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3754,16 +3754,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5924,22 +5927,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6019,7 +6022,7 @@
       <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6036,7 +6039,7 @@
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
@@ -6051,7 +6054,7 @@
       <c r="B6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
@@ -6061,11 +6064,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -6090,35 +6093,35 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="15">
         <v>12</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="15">
         <v>20</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -6145,40 +6148,40 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="39">
         <v>4</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="15">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="15">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -6205,13 +6208,13 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="39">
         <v>4</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="39" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -6219,21 +6222,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:D1"/>
@@ -6241,13 +6251,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6271,50 +6274,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="M2" s="43"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -7594,20 +7597,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="13" t="s">
@@ -7690,10 +7693,10 @@
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
@@ -7968,10 +7971,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7982,19 +7985,20 @@
     <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
+    <col min="12" max="14" width="9.5" style="36" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
@@ -8025,35 +8029,35 @@
       <c r="J1" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>181</v>
       </c>
@@ -8085,35 +8089,38 @@
         <v>0.99584277680568178</v>
       </c>
       <c r="K2" s="18"/>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="12">
+      <c r="Q2" s="12">
         <v>3</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="12">
+      <c r="S2" s="12">
         <v>6</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="T2" s="12">
         <v>4</v>
       </c>
-      <c r="R2" s="18">
+      <c r="U2" s="18">
         <v>1.0129198894890106</v>
       </c>
-      <c r="S2" s="18">
+      <c r="V2" s="18">
         <v>0.97176684744885755</v>
       </c>
-      <c r="T2" s="18">
+      <c r="W2" s="18">
         <v>0.99584277680568178</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
@@ -8145,35 +8152,38 @@
         <v>0.94235169554311193</v>
       </c>
       <c r="K3" s="18"/>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="12">
+      <c r="Q3" s="12">
         <v>2</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="12">
+      <c r="S3" s="12">
         <v>9</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="T3" s="12">
         <v>4</v>
       </c>
-      <c r="R3" s="18">
+      <c r="U3" s="18">
         <v>0.95992351770881768</v>
       </c>
-      <c r="S3" s="18">
+      <c r="V3" s="18">
         <v>0.94264578934699639</v>
       </c>
-      <c r="T3" s="18">
+      <c r="W3" s="18">
         <v>0.95337746088014153</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -8205,35 +8215,38 @@
         <v>0.92082074738974806</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="P4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="29">
+      <c r="Q4" s="29">
         <v>1</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="R4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="29">
+      <c r="S4" s="29">
         <v>12</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="T4" s="29">
         <v>4</v>
       </c>
-      <c r="R4" s="34">
+      <c r="U4" s="34">
         <v>0.85955102613220613</v>
       </c>
-      <c r="S4" s="34">
+      <c r="V4" s="34">
         <v>0.96525299905055362</v>
       </c>
-      <c r="T4" s="34">
+      <c r="W4" s="34">
         <v>0.90359829906310252</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>182</v>
       </c>
@@ -8265,35 +8278,38 @@
         <v>0.99598392642281919</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="12">
+      <c r="Q5" s="12">
         <v>2</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="12">
+      <c r="S5" s="12">
         <v>9</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="T5" s="12">
         <v>12</v>
       </c>
-      <c r="R5" s="18">
+      <c r="U5" s="18">
         <v>0.9528993293071234</v>
       </c>
-      <c r="S5" s="18">
+      <c r="V5" s="18">
         <v>0.91488753032343617</v>
       </c>
-      <c r="T5" s="18">
+      <c r="W5" s="18">
         <v>0.93845389777708454</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -8325,35 +8341,38 @@
         <v>0.95337746088014153</v>
       </c>
       <c r="K6" s="18"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="P6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="29">
+      <c r="Q6" s="29">
         <v>2</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="R6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="29">
+      <c r="S6" s="29">
         <v>9</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="T6" s="29">
         <v>20</v>
       </c>
-      <c r="R6" s="34">
+      <c r="U6" s="34">
         <v>0.99226020155070471</v>
       </c>
-      <c r="S6" s="34">
+      <c r="V6" s="34">
         <v>0.93593454952384891</v>
       </c>
-      <c r="T6" s="34">
+      <c r="W6" s="34">
         <v>0.96975909457752896</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
@@ -8385,8 +8404,11 @@
         <v>0.90979728180831543</v>
       </c>
       <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>184</v>
       </c>
@@ -8418,8 +8440,11 @@
         <v>0.98117154875196999</v>
       </c>
       <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
@@ -8451,8 +8476,11 @@
         <v>0.94494408086120152</v>
       </c>
       <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>47</v>
       </c>
@@ -8484,8 +8512,11 @@
         <v>0.90359829906310252</v>
       </c>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>181</v>
       </c>
@@ -8517,8 +8548,11 @@
         <v>0.98440485723765936</v>
       </c>
       <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>45</v>
       </c>
@@ -8550,8 +8584,11 @@
         <v>0.96281166478125579</v>
       </c>
       <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -8583,7 +8620,7 @@
         <v>0.91521741816882973</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>187</v>
       </c>
@@ -8615,7 +8652,7 @@
         <v>0.97065645875260842</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -8647,7 +8684,7 @@
         <v>0.95801516520843055</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
@@ -8679,7 +8716,7 @@
         <v>0.90954639299952644</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>189</v>
       </c>
@@ -8711,7 +8748,7 @@
         <v>0.95974259319363719</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
@@ -8743,7 +8780,7 @@
         <v>0.96147227615551067</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>47</v>
       </c>
@@ -8775,7 +8812,7 @@
         <v>0.91409434242231791</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
@@ -8807,8 +8844,11 @@
         <v>0.93845389777708454</v>
       </c>
       <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>47</v>
       </c>
@@ -8840,8 +8880,11 @@
         <v>0.96975909457752896</v>
       </c>
       <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -8873,7 +8916,7 @@
         <v>0.95431611009417394</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
@@ -8933,20 +8976,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -9791,24 +9834,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -9987,12 +10030,12 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -10157,12 +10200,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10251,12 +10294,12 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -10404,7 +10447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D17"/>
     </sheetView>
   </sheetViews>
@@ -10424,24 +10467,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10620,12 +10663,12 @@
       <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -10790,12 +10833,12 @@
       <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -10884,12 +10927,12 @@
       <c r="J17" s="35"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
     <sheet name="Word 整理統計" sheetId="6" r:id="rId8"/>
     <sheet name="Word 整理統計 新方法" sheetId="12" r:id="rId9"/>
-    <sheet name="Word 非線性容量" sheetId="11" r:id="rId10"/>
-    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId11"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId12"/>
+    <sheet name="比較" sheetId="13" r:id="rId10"/>
+    <sheet name="Word 非線性容量" sheetId="11" r:id="rId11"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId12"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="246">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3469,6 +3470,262 @@
         <charset val="136"/>
       </rPr>
       <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>舊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層鋼筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3645,7 +3902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3757,16 +4014,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3780,6 +4040,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5927,22 +6190,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6022,7 +6285,7 @@
       <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="41">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6064,11 +6327,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -6093,11 +6356,11 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6116,12 +6379,12 @@
       <c r="D14" s="40"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -6176,12 +6439,12 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -6237,6 +6500,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -6244,13 +6514,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6259,6 +6522,501 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
+    <col min="6" max="6" width="37.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="F1" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="F2" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3" s="37">
+        <v>9</v>
+      </c>
+      <c r="D3" s="37">
+        <v>12</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="37">
+        <v>6</v>
+      </c>
+      <c r="H3" s="37">
+        <v>9</v>
+      </c>
+      <c r="I3" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.875</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="F8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="37">
+        <v>6</v>
+      </c>
+      <c r="C9" s="37">
+        <v>9</v>
+      </c>
+      <c r="D9" s="37">
+        <v>12</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="37">
+        <v>6</v>
+      </c>
+      <c r="H9" s="37">
+        <v>9</v>
+      </c>
+      <c r="I9" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="F14" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37">
+        <v>9</v>
+      </c>
+      <c r="D15" s="37">
+        <v>12</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="37">
+        <v>6</v>
+      </c>
+      <c r="H15" s="37">
+        <v>9</v>
+      </c>
+      <c r="I15" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F14:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B4:D6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:D12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:D18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表10"/>
   <dimension ref="A1:M8"/>
@@ -6274,50 +7032,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -6580,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表11"/>
   <dimension ref="A1:T13"/>
@@ -7047,7 +7805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -7597,20 +8355,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="13" t="s">
@@ -7693,10 +8451,10 @@
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
@@ -7973,7 +8731,7 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -8976,20 +9734,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -9815,7 +10573,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9834,24 +10592,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -10030,12 +10788,12 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -10200,12 +10958,12 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10294,12 +11052,12 @@
       <c r="J17" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -10448,7 +11206,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D17"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10467,24 +11225,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10663,12 +11421,12 @@
       <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -10833,12 +11591,12 @@
       <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -10927,12 +11685,12 @@
       <c r="J17" s="35"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="252">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,180 +80,6 @@
   </si>
   <si>
     <t>12m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>縣市</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄉鎮市區</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地盤類別</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘆竹鄉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選擇標準</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不選近斷層，因為沒有做近斷層地震。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地盤類別不同是為了放大地震力的差異。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2236,18 +2062,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>動力反應譜分析</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>靜態地震力</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2605,19 +2419,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>數值分析模型之假設</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>梁、柱</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3727,6 +3528,566 @@
       </rPr>
       <t>(%)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數效益比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之距離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋號數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選擇標準</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不選近斷層，因為沒有做近斷層地震。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地盤類別不同是為了放大地震力的差異。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動力反應譜分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層鋼筋效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值分析模型之假設</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3737,7 +4098,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3752,13 +4113,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3898,72 +4252,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -3972,77 +4314,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6172,330 +6529,330 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="21.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="23.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="21.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="23.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="G1" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="11">
+        <v>280</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4200</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4200</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="11">
+        <v>300</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="38">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="G1" s="38" t="s">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-    </row>
-    <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="11" t="s">
+    </row>
+    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="11" t="s">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="11" t="s">
+    </row>
+    <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="11">
+        <v>12</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="11">
+        <v>20</v>
+      </c>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="15">
-        <v>280</v>
-      </c>
-      <c r="H3" s="15">
-        <v>4200</v>
-      </c>
-      <c r="I3" s="15">
-        <v>4200</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1200</v>
-      </c>
-      <c r="K3" s="15">
-        <v>300</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="O3" s="15">
+      <c r="C20" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="D20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="41">
+      <c r="E26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="36">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D28" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="15">
-        <v>12</v>
-      </c>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="15">
-        <v>20</v>
-      </c>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="39">
-        <v>4</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="15">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="15">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="39">
-        <v>4</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>37</v>
+      <c r="E28" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="15" t="s">
-        <v>38</v>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6525,406 +6882,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="F1" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="F2" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="37">
+      <c r="A3" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="32">
         <v>6</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="32">
         <v>9</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="32">
         <v>12</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="37">
+      <c r="F3" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="32">
         <v>6</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="32">
         <v>9</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="A4" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="14">
         <v>1.0129198894890106</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>0.97350979414442429</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.90222315151508559</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="F4" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="14">
         <v>0.96799999999999997</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="15">
         <v>1.0441176371571805</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>0.95992351770881768</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.86890739851651788</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.92400000000000004</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>0.879</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="A6" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="14">
         <v>0.99467084587180876</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>0.91240717823153894</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>0.85955102613220613</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="F6" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="14">
         <v>0.875</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="F8" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="A8" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="37">
+      <c r="A9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="32">
         <v>6</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="32">
         <v>9</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="32">
         <v>12</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="37">
+      <c r="F9" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" s="32">
         <v>6</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="32">
         <v>9</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="14">
         <v>0.97176684744885755</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <v>0.88999116544880397</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>0.95095056774797182</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="F10" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="14">
         <v>0.97899999999999998</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="14">
         <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="15">
         <v>0.91927082493993217</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>0.94264578934699639</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>0.97196858936483677</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="F11" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="15">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="14">
         <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="14">
         <v>0.96034816489690034</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>0.99366398441956927</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>0.96525299905055362</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="14">
         <v>0.96499999999999997</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>0.98799999999999999</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="F14" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="A14" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="37">
+      <c r="A15" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="32">
         <v>6</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="32">
         <v>9</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="32">
         <v>12</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="37">
+      <c r="F15" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="32">
         <v>6</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="32">
         <v>9</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="A16" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="14">
         <v>0.99584277680568178</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>0.94235169554311193</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>0.92082074738974806</v>
       </c>
-      <c r="F16" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="F16" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="14">
         <v>0.97199999999999998</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <v>0.92600000000000005</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="14">
         <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="15">
         <v>0.99598392642281919</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>0.95337746088014153</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>0.90979728180831543</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="15">
         <v>0.93</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="14">
         <v>0.91300000000000003</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="14">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="14">
         <v>0.98117154875196999</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>0.94494408086120152</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>0.90359829906310252</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="F18" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="14">
         <v>0.91</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="14">
         <v>0.88400000000000001</v>
       </c>
     </row>
@@ -7027,296 +7384,296 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="56.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="M2" s="45"/>
+      <c r="B2" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>31</v>
+      <c r="B3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="12">
         <v>2.73</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>3.42</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>2.85</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>3.57</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <v>2.74</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
         <v>3.44</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="12">
         <v>2.86</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="12">
         <v>3.58</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="12">
         <v>2.71</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="K4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="12">
         <v>2.77</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>227</v>
+      <c r="M4" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="12">
         <v>1.35</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>1.52</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>1.34</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>1.51</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>1.41</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
         <v>1.59</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="12">
         <v>1.4</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="12">
         <v>1.58</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>229</v>
+      <c r="J5" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="12">
         <v>1.25</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>1.65</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>1.24</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>1.64</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>1.28</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
         <v>1.7</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="12">
         <v>1.28</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="12">
         <v>1.69</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="J6" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="12">
         <v>1.62</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="12">
         <v>2.36</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="12">
         <v>1.95</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>2.1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>2.48</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>2.58</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="12">
         <v>2.34</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="12">
         <v>2.76</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>229</v>
+      <c r="J7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="12">
         <v>1.44</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>1.63</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>1.5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>1.71</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>1.88</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>2.11</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="12">
         <v>1.87</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="12">
         <v>2.1</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="12">
         <v>2</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="12">
         <v>2.33</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="12">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="12">
         <v>2.37</v>
       </c>
     </row>
@@ -7383,7 +7740,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>48440</v>
@@ -7404,52 +7761,52 @@
         <v>380518</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="22">
+        <v>101</v>
+      </c>
+      <c r="J2" s="18">
         <f t="shared" ref="J2:O5" si="0">(B2+B6+B10)</f>
         <v>160065</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="18">
         <f t="shared" si="0"/>
         <v>166822</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="18">
         <f t="shared" si="0"/>
         <v>481414</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="18">
         <f t="shared" si="0"/>
         <v>523521</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="18">
         <f t="shared" si="0"/>
         <v>1007985</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="18">
         <f t="shared" si="0"/>
         <v>1145830</v>
       </c>
-      <c r="P2" s="22"/>
+      <c r="P2" s="18"/>
       <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="21">
+        <v>105</v>
+      </c>
+      <c r="R2" s="17">
         <f>(J2+J3)/(K2+K3)</f>
         <v>0.97754327369409855</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="17">
         <f>(L2+L3)/(M2+M3)</f>
         <v>0.93714191857466811</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="17">
         <f>(N2+N3)/(O2+O3)</f>
         <v>0.89782841703876393</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>60195</v>
@@ -7470,52 +7827,52 @@
         <v>437923</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="22">
+        <v>102</v>
+      </c>
+      <c r="J3" s="18">
         <f t="shared" si="0"/>
         <v>195837</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="18">
         <f t="shared" si="0"/>
         <v>197256</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="18">
         <f t="shared" si="0"/>
         <v>579828</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="18">
         <f t="shared" si="0"/>
         <v>608903</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="18">
         <f t="shared" si="0"/>
         <v>1173264</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="18">
         <f t="shared" si="0"/>
         <v>1283642</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="18"/>
       <c r="Q3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" s="21">
+        <v>106</v>
+      </c>
+      <c r="R3" s="17">
         <f>(J4+J5)/(K4+K5)</f>
         <v>1.0017494633288822</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="17">
         <f>(L4+L5)/(M4+M5)</f>
         <v>0.95535509551992304</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="17">
         <f>(N4+N5)/(O4+O5)</f>
         <v>0.9231367626082253</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>73978</v>
@@ -7536,37 +7893,37 @@
         <v>513520</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="22">
+        <v>103</v>
+      </c>
+      <c r="J4" s="18">
         <f t="shared" si="0"/>
         <v>228672</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <f t="shared" si="0"/>
         <v>227456</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="18">
         <f t="shared" si="0"/>
         <v>642182</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="18">
         <f t="shared" si="0"/>
         <v>673029</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="18">
         <f t="shared" si="0"/>
         <v>1317974</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="18">
         <f t="shared" si="0"/>
         <v>1426129</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>84416</v>
@@ -7587,37 +7944,37 @@
         <v>519518</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="22">
+        <v>104</v>
+      </c>
+      <c r="J5" s="18">
         <f t="shared" si="0"/>
         <v>245444</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="18">
         <f t="shared" si="0"/>
         <v>245832</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="18">
         <f t="shared" si="0"/>
         <v>632726</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="18">
         <f t="shared" si="0"/>
         <v>661457</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="18">
         <f t="shared" si="0"/>
         <v>1342568</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="18">
         <f t="shared" si="0"/>
         <v>1455938</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>59689</v>
@@ -7640,7 +7997,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>72356</v>
@@ -7663,7 +8020,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>84010</v>
@@ -7686,7 +8043,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>85530</v>
@@ -7709,7 +8066,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>51936</v>
@@ -7732,7 +8089,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>63286</v>
@@ -7755,7 +8112,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>70684</v>
@@ -7778,7 +8135,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>75498</v>
@@ -7820,8 +8177,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="1">
         <v>6</v>
@@ -7835,49 +8192,49 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.98117154875196999</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>0.94494408086120152</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <v>0.90359829906310252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.99598392642281919</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>0.95337746088014153</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
         <v>1.0061767298243838</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>0.94235169554311193</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -7891,49 +8248,49 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
         <v>0.99467084587180876</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>0.91240717823153894</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0.85955102613220613</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.0441176371571805</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>0.95992351770881768</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
         <v>1.0338409349771489</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>0.97350979414442429</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -7947,49 +8304,49 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
         <v>0.96034816489690034</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>0.99366398441956927</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>0.96525299905055362</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.91927082493993217</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>0.94264578934699639</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>0.97195217303784809</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
         <v>0.96060943538379284</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>0.88999116544880397</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -8003,43 +8360,43 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.9325048570767529</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>0.94067682504457073</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>0.94484837694979296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
         <v>0.96580407717300698</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>0.94409103821715123</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3">
         <v>0.98474203195811549</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>0.91995203321878605</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>0.90200000000000002</v>
       </c>
     </row>
@@ -8099,222 +8456,222 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="12.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="12"/>
+    <col min="1" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>53</v>
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>6</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>9</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>12</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>9</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>20</v>
       </c>
     </row>
@@ -8332,240 +8689,240 @@
   <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C20"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="16.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>280</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4200</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4200</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1200</v>
+      </c>
+      <c r="L4" s="8">
+        <v>300</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="13" t="s">
+      <c r="C11" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="13" t="s">
+    </row>
+    <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="C12" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="13" t="s">
+    </row>
+    <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="C13" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="13" t="s">
+    </row>
+    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="C14" s="23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F4" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="C16" s="23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="23">
         <v>4</v>
       </c>
-      <c r="H4" s="12">
-        <v>280</v>
-      </c>
-      <c r="I4" s="12">
-        <v>4200</v>
-      </c>
-      <c r="J4" s="12">
-        <v>4200</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1200</v>
-      </c>
-      <c r="L4" s="12">
-        <v>300</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="P4" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="42"/>
-    </row>
-    <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="C18" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C19" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="C20" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="27">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="27">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8581,148 +8938,153 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="B1:M4"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="34"/>
+    <col min="2" max="2" width="9.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="34"/>
+    <col min="11" max="11" width="9.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="34">
+        <v>1</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="34">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="34">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.66</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.49</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="34">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2">
+      <c r="F4" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="34">
         <v>1</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="I4" s="34">
         <v>0.77</v>
       </c>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M10" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8732,977 +9094,977 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.5" style="36" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="12"/>
+    <col min="1" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.99584277680568178</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>3</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="8">
+        <v>6</v>
+      </c>
+      <c r="T2" s="8">
+        <v>4</v>
+      </c>
+      <c r="U2" s="14">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0.99584277680568178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.97350979414442429</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.88999116544880397</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.94235169554311193</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="8">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8">
+        <v>4</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0.95337746088014153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="E4" s="8">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>1</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="25">
+        <v>12</v>
+      </c>
+      <c r="T4" s="25">
+        <v>4</v>
+      </c>
+      <c r="U4" s="30">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="V4" s="30">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="W4" s="30">
+        <v>0.90359829906310252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E5" s="8">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>2</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="8">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>12</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0.93845389777708454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="28" t="s">
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.95337746088014153</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>2</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="25">
+        <v>9</v>
+      </c>
+      <c r="T6" s="25">
+        <v>20</v>
+      </c>
+      <c r="U6" s="30">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="V6" s="30">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="W6" s="30">
+        <v>0.96975909457752896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.86890739851651788</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.97196858936483677</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.90979728180831543</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.99467084587180876</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.96034816489690034</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.98117154875196999</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.94494408086120152</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="20">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.97683621337292725</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.99583333370126281</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.97880850432860123</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.93719992692330101</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="E13" s="8">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.90568348791952125</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.93038123815291496</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.91521741816882973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="E14" s="8">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.98982648139335327</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.9365079371211531</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.97065645875260842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="E15" s="8">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.93165903250304649</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.99593495727743075</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.95801516520843055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.86196382675318783</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.97357901239101086</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.90954639299952644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>3</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="12">
-        <v>6</v>
-      </c>
-      <c r="T2" s="12">
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.95974259319363719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8">
+        <v>9</v>
+      </c>
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-      <c r="U2" s="18">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0.99584277680568178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.96905867158805403</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.94961240732685592</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.96147227615551067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="E19" s="20">
+        <v>12</v>
+      </c>
+      <c r="F19" s="20">
+        <v>4</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0.87802789344330667</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0.96850763718630439</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0.91409434242231791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="8">
         <v>9</v>
       </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.97350979414442429</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.88999116544880397</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0.94235169554311193</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="12" t="s">
+      <c r="F20" s="8">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.93845389777708454</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="25">
+        <v>9</v>
+      </c>
+      <c r="F21" s="25">
+        <v>20</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="30">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="E22" s="8">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.97418106672431659</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.92157689209957483</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.95431611009417394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="12">
-        <v>2</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="E23" s="8">
         <v>9</v>
       </c>
-      <c r="T3" s="12">
-        <v>4</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0.95337746088014153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="12">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.90222315151508559</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.95095056774797182</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0.92082074738974806</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="29">
-        <v>1</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="29">
-        <v>12</v>
-      </c>
-      <c r="T4" s="29">
-        <v>4</v>
-      </c>
-      <c r="U4" s="34">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="V4" s="34">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="W4" s="34">
-        <v>0.90359829906310252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>2</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="12">
-        <v>9</v>
-      </c>
-      <c r="T5" s="12">
-        <v>12</v>
-      </c>
-      <c r="U5" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="V5" s="18">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0.93845389777708454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>2</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="29">
-        <v>9</v>
-      </c>
-      <c r="T6" s="29">
+      <c r="F23" s="8">
         <v>20</v>
       </c>
-      <c r="U6" s="34">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="V6" s="34">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="W6" s="34">
-        <v>0.96975909457752896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.86890739851651788</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.97196858936483677</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.90979728180831543</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.99467084587180876</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0.96034816489690034</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.98117154875196999</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.91240717823153894</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.99366398441956927</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0.94494408086120152</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="24">
-        <v>12</v>
-      </c>
-      <c r="F10" s="24">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="I10" s="34">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0.90359829906310252</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="12">
-        <v>6</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.97683621337292725</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0.99583333370126281</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="12">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.97880850432860123</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.93719992692330101</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="12">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12">
-        <v>4</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.90568348791952125</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0.93038123815291496</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.98982648139335327</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.9365079371211531</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.93165903250304649</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0.99593495727743075</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0.95801516520843055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="12">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.86196382675318783</v>
-      </c>
-      <c r="I16" s="18">
-        <v>0.97357901239101086</v>
-      </c>
-      <c r="J16" s="18">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="12">
-        <v>6</v>
-      </c>
-      <c r="F17" s="12">
-        <v>4</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.9372073047629168</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0.95974259319363719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="12">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12">
-        <v>4</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.96905867158805403</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0.94961240732685592</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0.96147227615551067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="24">
-        <v>12</v>
-      </c>
-      <c r="F19" s="24">
-        <v>4</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="34">
-        <v>0.87802789344330667</v>
-      </c>
-      <c r="I19" s="34">
-        <v>0.96850763718630439</v>
-      </c>
-      <c r="J19" s="34">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="12">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="29">
-        <v>2</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="29">
-        <v>9</v>
-      </c>
-      <c r="F21" s="29">
-        <v>20</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="34">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="I21" s="34">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="J21" s="34">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="12">
-        <v>9</v>
-      </c>
-      <c r="F22" s="12">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.97418106672431659</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0.92157689209957483</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0.95431611009417394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="12">
-        <v>9</v>
-      </c>
-      <c r="F23" s="12">
-        <v>20</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="G23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="14">
         <v>1.0169398406633805</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="14">
         <v>0.94750914859707136</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="14">
         <v>0.98914904350968524</v>
       </c>
     </row>
@@ -9718,441 +10080,441 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K10"/>
+      <selection activeCell="A2" sqref="A2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="30"/>
-    <col min="7" max="7" width="8.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="26"/>
+    <col min="7" max="7" width="8.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="A1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="26">
+        <v>1</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1</v>
+      </c>
+      <c r="K8" s="26">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="E12" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="30">
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="30">
+      <c r="B17" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="26">
         <v>1</v>
       </c>
-      <c r="K3" s="30">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="26">
+        <v>-0.3</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1.6</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="30">
-        <v>1</v>
-      </c>
-      <c r="K4" s="30">
+      <c r="E19" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="26">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="30">
-        <v>1</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="30">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="K6" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="30">
-        <v>1</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="30">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="J8" s="30">
-        <v>1</v>
-      </c>
-      <c r="K8" s="30">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="E12" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D14" s="30">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D16" s="30">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="30">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="E19" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="30">
-        <v>-0.3</v>
-      </c>
-      <c r="E20" s="30">
+      <c r="E20" s="26">
         <v>-1</v>
       </c>
     </row>
@@ -10177,388 +10539,388 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="12"/>
-    <col min="14" max="14" width="12.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="12"/>
-    <col min="19" max="19" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
+    <col min="1" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="8"/>
+    <col min="14" max="14" width="12.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
+    <col min="19" max="19" width="14.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1.0144026135167818</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.91995203321878605</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E4" s="8">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.90191491074006924</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E5" s="8">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.96580407717300698</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.94409103821715123</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.86975819949198241</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G2" s="18">
-        <v>1.0144026135167818</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G8" s="14">
+        <v>0.9325048570767529</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="E9" s="8">
         <v>9</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F9" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="18">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="G9" s="14">
+        <v>0.94067682504457073</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="E10" s="8">
         <v>12</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="18">
-        <v>0.90191491074006924</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="G10" s="14">
+        <v>0.94484837694979296</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="E12" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.86975819949198241</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="12">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.94484837694979296</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12">
-        <v>12</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="12">
-        <v>9</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>20</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="14">
         <v>0.99226020155070471</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10578,612 +10940,612 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="16"/>
-    <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="11" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="A1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="8">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>9</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="8">
         <v>6</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="8">
         <v>9</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="A3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="14">
         <v>1.0129198894890106</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>0.97350979414442429</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>0.90222315151508559</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>0.95992351770881768</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>0.94264578934699639</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="14">
         <v>0.95337746088014153</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="14">
         <v>1.0144026135167818</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="14">
         <v>0.91995203321878605</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="14">
         <v>0.90191491074006924</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="15">
         <v>1.0441176371571805</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>0.95992351770881768</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.86890739851651788</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>12</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>0.9528993293071234</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>0.91488753032343617</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="14">
         <v>0.93845389777708454</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="16">
         <v>0.96580407717300698</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="14">
         <v>0.94409103821715123</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="14">
         <v>0.86975819949198241</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14">
         <v>0.99467084587180876</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>0.91240717823153894</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.85955102613220613</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>0.99226020155070471</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>0.93593454952384891</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="14">
         <v>0.96975909457752896</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="14">
         <v>0.9325048570767529</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="14">
         <v>0.94067682504457073</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="14">
         <v>0.94484837694979296</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="A7" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="8">
         <v>6</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="8">
         <v>9</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="14">
         <v>0.97176684744885755</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>0.88999116544880397</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>0.95095056774797182</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="8">
         <f>540/4-2*70</f>
         <v>-5</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="8">
         <f>820/4-2*80</f>
         <v>45</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="8">
         <f>1100/4-2*100</f>
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="15">
         <v>0.91927082493993217</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <v>0.94264578934699639</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>0.97196858936483677</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="8">
         <f>540/4-2*50</f>
         <v>35</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="8">
         <f>820/4-2*70</f>
         <v>65</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="8">
         <f>1110/4-2*100</f>
         <v>77.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="14">
         <v>0.96034816489690034</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>0.99366398441956927</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>0.96525299905055362</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="8">
         <f>550/4-2*50</f>
         <v>37.5</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="8">
         <f>820/4-2*70</f>
         <v>65</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="8">
         <f>1110/4-2*90</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="A13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="8">
         <v>6</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>9</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>12</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="14">
         <v>0.99584277680568178</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>0.94235169554311193</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>0.92082074738974806</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15">
         <v>0.99598392642281919</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>0.95337746088014153</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>0.90979728180831543</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="14">
         <v>0.98117154875196999</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>0.94494408086120152</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>0.90359829906310252</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="A20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8">
         <v>6</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="8">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="A21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="14">
         <v>0.98440485723765936</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>0.96281166478125579</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>0.91521741816882973</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="A22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="14">
         <v>0.97065645875260842</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>0.95801516520843055</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>0.90954639299952644</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="18">
+      <c r="A23" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="14">
         <v>0.95974259319363719</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>0.96147227615551067</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>0.91409434242231791</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="A26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="8">
         <v>6</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="8">
         <v>9</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="18">
+      <c r="A27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="14">
         <f>B21/B15</f>
         <v>0.98851433194634264</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="14">
         <f t="shared" ref="C27:D27" si="0">C21/C15</f>
         <v>1.0217116065423451</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="14">
         <f t="shared" si="0"/>
         <v>0.99391485342092678</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="18">
+      <c r="A28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="14">
         <f t="shared" ref="B28:D29" si="1">B22/B16</f>
         <v>0.97457040520605887</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="14">
         <f t="shared" si="1"/>
         <v>1.0048644996536917</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="14">
         <f t="shared" si="1"/>
         <v>0.99972423658126308</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="18">
+      <c r="A29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="14">
         <f t="shared" si="1"/>
         <v>0.97815982782461441</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="14">
         <f t="shared" si="1"/>
         <v>1.0174911887688061</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="14">
         <f t="shared" si="1"/>
         <v>1.0116158290360864</v>
       </c>
@@ -11206,631 +11568,634 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="16"/>
-    <col min="11" max="11" width="37.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="12.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="11" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="A1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="35">
+      <c r="A2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="33">
         <v>6</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>9</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>12</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="35">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="33">
         <v>6</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="33">
         <v>9</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="A3" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="14">
         <v>0.96799999999999997</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33">
         <v>4</v>
       </c>
-      <c r="G3" s="18">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="G3" s="14">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="14">
         <v>1.0144026135167818</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="14">
         <v>0.91995203321878605</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="14">
         <v>0.90191491074006924</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="15">
         <v>0.92400000000000004</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>0.88300000000000001</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>0.879</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33">
         <v>12</v>
       </c>
-      <c r="G4" s="18">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.93845389777708454</v>
-      </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="G4" s="14">
+        <v>0.95389541581427506</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.9542362743742252</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.95402495056718961</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="16">
         <v>0.96580407717300698</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="14">
         <v>0.94409103821715123</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="14">
         <v>0.86975819949198241</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="14">
         <v>0.875</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33">
         <v>20</v>
       </c>
-      <c r="G5" s="18">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0.96975909457752896</v>
-      </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="G5" s="14">
+        <v>0.9963542100310635</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.96946958330599287</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.98561427467112628</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="14">
         <v>0.9325048570767529</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="14">
         <v>0.94067682504457073</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="14">
         <v>0.94484837694979296</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="A7" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="35">
+      <c r="A8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>9</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="35">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="33">
         <v>6</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="33">
         <v>9</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="14">
         <v>0.97899999999999998</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>0.93400000000000005</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="35">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L9" s="33">
         <f>540/4-2*70</f>
         <v>-5</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="33">
         <f>820/4-2*80</f>
         <v>45</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="33">
         <f>1100/4-2*100</f>
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="15">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="35">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" s="33">
         <f>540/4-2*50</f>
         <v>35</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="33">
         <f>820/4-2*70</f>
         <v>65</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="33">
         <f>1110/4-2*100</f>
         <v>77.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="14">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>0.96299999999999997</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="35">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="33">
         <f>550/4-2*50</f>
         <v>37.5</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="33">
         <f>820/4-2*70</f>
         <v>65</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <f>1110/4-2*90</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="A13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="35">
+      <c r="A14" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="33">
         <v>6</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>9</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>12</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="14">
         <v>0.97199999999999998</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="15">
         <v>0.93</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>0.91300000000000003</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="A17" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="14">
         <v>0.91</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>0.90300000000000002</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>0.88400000000000001</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="35">
+      <c r="A20" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="33">
         <v>6</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>9</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="A21" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="14">
         <v>0.98440485723765936</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>0.96281166478125579</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>0.91521741816882973</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="A22" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="14">
         <v>0.97065645875260842</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>0.95801516520843055</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>0.90954639299952644</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="18">
+      <c r="A23" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="14">
         <v>0.95974259319363719</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>0.96147227615551067</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>0.91409434242231791</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="35">
+      <c r="A26" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="33">
         <v>6</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="33">
         <v>9</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="18">
+      <c r="A27" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="14">
         <f>B21/B15</f>
         <v>1.0127621988041764</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="14">
         <f t="shared" ref="C27:D27" si="0">C21/C15</f>
         <v>1.0397534176903409</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="14">
         <f t="shared" si="0"/>
         <v>0.9872895557376804</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="18">
+      <c r="A28" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="14">
         <f t="shared" ref="B28:D29" si="1">B22/B16</f>
         <v>1.0437166223146326</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="14">
         <f t="shared" si="1"/>
         <v>1.0493046716412164</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="14">
         <f t="shared" si="1"/>
         <v>0.99079127777726184</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="18">
+      <c r="A29" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="14">
         <f t="shared" si="1"/>
         <v>1.0546621903226783</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="14">
         <f t="shared" si="1"/>
         <v>1.0647533512242642</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="14">
         <f t="shared" si="1"/>
         <v>1.0340433737809025</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="264">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1752,7 +1752,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>總體效益</t>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -1761,20 +1761,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -1783,17 +1780,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -1802,20 +1802,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -1824,17 +1821,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -1843,23 +1846,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -1868,20 +1868,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -1890,17 +1887,368 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS02</t>
+  </si>
+  <si>
+    <t>USS03</t>
+  </si>
+  <si>
+    <t>USS04</t>
+  </si>
+  <si>
+    <t>USS05</t>
+  </si>
+  <si>
+    <t>USS06</t>
+  </si>
+  <si>
+    <t>USS07</t>
+  </si>
+  <si>
+    <t>USS08</t>
+  </si>
+  <si>
+    <t>USS09</t>
+  </si>
+  <si>
+    <t>USS10</t>
+  </si>
+  <si>
+    <t>USS11</t>
+  </si>
+  <si>
+    <t>USS12</t>
+  </si>
+  <si>
+    <t>USS13</t>
+  </si>
+  <si>
+    <t>USS14</t>
+  </si>
+  <si>
+    <t>USS15</t>
+  </si>
+  <si>
+    <t>USS16</t>
+  </si>
+  <si>
+    <t>USS17</t>
+  </si>
+  <si>
+    <t>USS18</t>
+  </si>
+  <si>
+    <t>USS01S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS02S</t>
+  </si>
+  <si>
+    <t>USS03S</t>
+  </si>
+  <si>
+    <t>USS04S</t>
+  </si>
+  <si>
+    <t>USS05S</t>
+  </si>
+  <si>
+    <t>USS06S</t>
+  </si>
+  <si>
+    <t>USS07S</t>
+  </si>
+  <si>
+    <t>USS08S</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜載重</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活載重</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>垂直地震力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動態地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜力分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜態地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計地震力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁之主筋號數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘇澳鎮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平鎮市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蘆竹鄉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
     </r>
     <r>
       <rPr>
@@ -1909,381 +2257,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USS02</t>
-  </si>
-  <si>
-    <t>USS03</t>
-  </si>
-  <si>
-    <t>USS04</t>
-  </si>
-  <si>
-    <t>USS05</t>
-  </si>
-  <si>
-    <t>USS06</t>
-  </si>
-  <si>
-    <t>USS07</t>
-  </si>
-  <si>
-    <t>USS08</t>
-  </si>
-  <si>
-    <t>USS09</t>
-  </si>
-  <si>
-    <t>USS10</t>
-  </si>
-  <si>
-    <t>USS11</t>
-  </si>
-  <si>
-    <t>USS12</t>
-  </si>
-  <si>
-    <t>USS13</t>
-  </si>
-  <si>
-    <t>USS14</t>
-  </si>
-  <si>
-    <t>USS15</t>
-  </si>
-  <si>
-    <t>USS16</t>
-  </si>
-  <si>
-    <t>USS17</t>
-  </si>
-  <si>
-    <t>USS18</t>
-  </si>
-  <si>
-    <t>USS01S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USS02S</t>
-  </si>
-  <si>
-    <t>USS03S</t>
-  </si>
-  <si>
-    <t>USS04S</t>
-  </si>
-  <si>
-    <t>USS05S</t>
-  </si>
-  <si>
-    <t>USS06S</t>
-  </si>
-  <si>
-    <t>USS07S</t>
-  </si>
-  <si>
-    <t>USS08S</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜載重</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>活載重</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>垂直地震力</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>動態地震力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USS01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜力分析</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜態地震力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設計地震力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁之主筋號數</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘆竹鄉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘇澳鎮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>平鎮市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蘆竹鄉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>假設</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一樓樓高</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
     </r>
     <r>
       <rPr>
@@ -2305,7 +2292,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>二樓以上樓高</t>
+      <t>混凝土強度</t>
     </r>
     <r>
       <rPr>
@@ -2314,20 +2301,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
+      <t xml:space="preserve"> kgf/cm2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
     </r>
     <r>
       <rPr>
@@ -2349,7 +2336,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋強度</t>
+      <t>箍筋強度</t>
     </r>
     <r>
       <rPr>
@@ -2371,301 +2358,353 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>箍筋強度</t>
-    </r>
-    <r>
-      <rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁、柱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>版、牆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不考慮勁度與強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混凝土強度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>280 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> kgf/cm2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>柱底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁、柱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>版、牆</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不考慮勁度與強度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>混凝土強度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>280 kgf/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋強度</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋強度</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4200 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4200 kgf/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋強度</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋強度</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4200 kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4200 kgf/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜載重</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靜載重</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1200 kgf/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1200 kgf/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活載重</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>活載重</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300 kgf/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>300 kgf/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>接頭之剛性區域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>韌性容量</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>接頭之剛性區域</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>韌性容量</t>
+      <t xml:space="preserve"> R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一樓樓高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二樓以上樓高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁承受重力之帶寬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與梁長相同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -2674,72 +2713,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> R</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一樓樓高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>二樓以上樓高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁承受重力之帶寬</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>與梁長相同</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -2748,17 +2732,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -2767,17 +2751,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -2786,69 +2770,69 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -2857,17 +2841,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -2876,17 +2860,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -2895,128 +2879,128 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal Pushover Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Modes Combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATC-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modal Pushover Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-Modes Combination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>傳統配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最佳化配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最佳化配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -3025,17 +3009,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -3044,17 +3028,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -3063,17 +3047,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3082,30 +3079,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3114,17 +3098,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -3133,17 +3117,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -3152,17 +3136,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -3171,30 +3168,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -3203,17 +3187,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -3222,17 +3206,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -3241,17 +3225,56 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>舊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3260,56 +3283,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>舊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層鋼筋效益</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3318,20 +3305,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3340,17 +3324,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -3359,20 +3346,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -3381,17 +3365,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -3400,20 +3387,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -3422,17 +3406,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3441,20 +3428,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3463,17 +3447,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3482,20 +3469,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層鋼筋效益</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3517,7 +3504,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>總體效益</t>
+      <t>樓層數效益比較</t>
     </r>
     <r>
       <rPr>
@@ -3539,7 +3526,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>樓層數效益比較</t>
+      <t>箍筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3561,7 +3548,101 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>箍筋效益</t>
+      <t>選擇標準</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不選近斷層，因為沒有做近斷層地震。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地盤類別不同是為了放大地震力的差異。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動力反應譜分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值分析模型之假設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3583,7 +3664,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>工址</t>
+      <t>樓層數</t>
     </r>
     <r>
       <rPr>
@@ -3602,7 +3683,33 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>梁長</t>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3611,20 +3718,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3633,30 +3737,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>(m)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3710,7 +3791,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -3729,7 +3810,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -3744,17 +3825,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1/4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>與</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3763,17 +3841,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之距離</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3782,20 +3860,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(cm)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
     </r>
     <r>
       <rPr>
@@ -3804,17 +3885,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t xml:space="preserve"> 2h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之距離</t>
     </r>
     <r>
       <rPr>
@@ -3823,20 +3904,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(cm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -3855,7 +3936,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力較小之工址</t>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -3877,7 +3958,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>鋼筋號數</t>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3886,30 +3967,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3918,17 +3989,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3937,20 +4011,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3959,17 +4030,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3978,102 +4052,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選擇標準</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不選近斷層，因為沒有做近斷層地震。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地盤類別不同是為了放大地震力的差異。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動力反應譜分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層鋼筋效益</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -4082,12 +4071,259 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>(%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>數值分析模型之假設</t>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益以傳統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進行對比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇澳鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樓層數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上層筋效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4098,7 +4334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4192,6 +4428,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4256,7 +4499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4359,7 +4602,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4377,7 +4638,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4385,21 +4658,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6547,22 +6805,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -6642,7 +6900,7 @@
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="44">
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -6659,7 +6917,7 @@
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6674,7 +6932,7 @@
       <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
@@ -6684,11 +6942,11 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -6713,35 +6971,35 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="11">
         <v>12</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="11">
         <v>20</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -6768,40 +7026,40 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="42">
         <v>4</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="11">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="11">
         <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -6828,13 +7086,13 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="42">
         <v>4</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="42" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -6842,15 +7100,15 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="11" t="s">
         <v>24</v>
       </c>
@@ -6898,36 +7156,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="F1" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="F1" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="F2" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="32">
         <v>6</v>
@@ -6939,7 +7197,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G3" s="32">
         <v>6</v>
@@ -6953,7 +7211,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="14">
         <v>1.0129198894890106</v>
@@ -6965,7 +7223,7 @@
         <v>0.90222315151508559</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G4" s="14">
         <v>0.96799999999999997</v>
@@ -6991,7 +7249,7 @@
         <v>0.86890739851651788</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="15">
         <v>0.92400000000000004</v>
@@ -7005,7 +7263,7 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="14">
         <v>0.99467084587180876</v>
@@ -7017,7 +7275,7 @@
         <v>0.85955102613220613</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="14">
         <v>0.875</v>
@@ -7040,18 +7298,18 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="F8" s="41" t="s">
+      <c r="A8" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="F8" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
@@ -7067,7 +7325,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G9" s="32">
         <v>6</v>
@@ -7107,7 +7365,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11" s="15">
         <v>0.91927082493993217</v>
@@ -7145,7 +7403,7 @@
         <v>0.96525299905055362</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G12" s="14">
         <v>0.96499999999999997</v>
@@ -7168,22 +7426,22 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="F14" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="A14" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="F14" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B15" s="32">
         <v>6</v>
@@ -7195,7 +7453,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G15" s="32">
         <v>6</v>
@@ -7221,7 +7479,7 @@
         <v>0.92082074738974806</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G16" s="14">
         <v>0.97199999999999998</v>
@@ -7235,7 +7493,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B17" s="15">
         <v>0.99598392642281919</v>
@@ -7261,7 +7519,7 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B18" s="14">
         <v>0.98117154875196999</v>
@@ -7273,7 +7531,7 @@
         <v>0.90359829906310252</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G18" s="14">
         <v>0.91</v>
@@ -7389,84 +7647,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="M2" s="43"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>17</v>
@@ -7474,7 +7732,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="12">
         <v>2.73</v>
@@ -7504,18 +7762,18 @@
         <v>2.71</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L4" s="12">
         <v>2.77</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="12">
         <v>1.35</v>
@@ -7542,21 +7800,21 @@
         <v>1.58</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="12">
         <v>1.25</v>
@@ -7583,10 +7841,10 @@
         <v>1.69</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L6" s="12">
         <v>1.62</v>
@@ -7597,7 +7855,7 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="12">
         <v>1.95</v>
@@ -7624,21 +7882,21 @@
         <v>2.76</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="12">
         <v>1.44</v>
@@ -8712,36 +8970,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="F2" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>37</v>
@@ -8753,10 +9011,10 @@
         <v>4</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>17</v>
@@ -8808,14 +9066,14 @@
       <c r="C5" s="21"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="39"/>
+      <c r="B6" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>107</v>
@@ -8823,55 +9081,55 @@
     </row>
     <row r="8" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="23">
         <v>0.75</v>
@@ -8879,7 +9137,7 @@
     </row>
     <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>3</v>
@@ -8887,7 +9145,7 @@
     </row>
     <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C16" s="23">
         <v>1.2</v>
@@ -8895,7 +9153,7 @@
     </row>
     <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" s="23">
         <v>4</v>
@@ -8903,7 +9161,7 @@
     </row>
     <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>108</v>
@@ -8911,7 +9169,7 @@
     </row>
     <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>109</v>
@@ -8919,10 +9177,10 @@
     </row>
     <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -8940,146 +9198,146 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="34"/>
-    <col min="2" max="2" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="34"/>
-    <col min="11" max="11" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="9.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="33"/>
+    <col min="11" max="11" width="9.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="L1" s="34">
+      <c r="K1" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="33">
         <v>1</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>0.5</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>0.3</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <v>0.7</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="33">
         <v>0.4</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="33">
         <v>2</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <v>2</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>0.66</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>0.49</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <v>0.8</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="33">
         <v>0.54</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>3</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>0.8</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>0.77</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="M10" s="45"/>
+      <c r="M10" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9091,10 +9349,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9105,205 +9363,174 @@
     <col min="7" max="7" width="13.875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.5" style="31" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="8"/>
+    <col min="12" max="13" width="9.5" style="31" customWidth="1"/>
+    <col min="14" max="16" width="9.5" style="35" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="31" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:26" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H1" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H2" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="R2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="W2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="8">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="J2" s="14">
-        <v>0.99584277680568178</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>3</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="8">
-        <v>6</v>
-      </c>
-      <c r="T2" s="8">
-        <v>4</v>
-      </c>
-      <c r="U2" s="14">
-        <v>1.0129198894890106</v>
-      </c>
-      <c r="V2" s="14">
-        <v>0.97176684744885755</v>
-      </c>
-      <c r="W2" s="14">
-        <v>0.99584277680568178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
+    </row>
+    <row r="3" spans="1:26" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="C3" s="8">
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8">
         <v>4</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="14">
-        <v>0.97350979414442429</v>
+        <v>1.0129198894890106</v>
       </c>
       <c r="I3" s="14">
-        <v>0.88999116544880397</v>
+        <v>0.97176684744885755</v>
       </c>
       <c r="J3" s="14">
-        <v>0.94235169554311193</v>
+        <v>0.99584277680568178</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="8">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="T3" s="8">
+        <v>3</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="8">
+        <v>6</v>
+      </c>
+      <c r="W3" s="8">
         <v>4</v>
       </c>
-      <c r="U3" s="14">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0.95337746088014153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X3" s="14">
+        <v>1.0129198894890106</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0.97176684744885755</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0.99584277680568178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -9314,10 +9541,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8">
         <v>4</v>
@@ -9326,173 +9553,182 @@
         <v>27</v>
       </c>
       <c r="H4" s="14">
-        <v>0.90222315151508559</v>
+        <v>0.97350979414442429</v>
       </c>
       <c r="I4" s="14">
-        <v>0.95095056774797182</v>
+        <v>0.88999116544880397</v>
       </c>
       <c r="J4" s="14">
-        <v>0.92082074738974806</v>
+        <v>0.94235169554311193</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>1</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="25">
+      <c r="S4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="8">
+        <v>2</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="8">
+        <v>9</v>
+      </c>
+      <c r="W4" s="8">
+        <v>4</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0.95992351770881768</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.94264578934699639</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0.95337746088014153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8">
         <v>12</v>
-      </c>
-      <c r="T4" s="25">
-        <v>4</v>
-      </c>
-      <c r="U4" s="30">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="V4" s="30">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="W4" s="30">
-        <v>0.90359829906310252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="8">
-        <v>6</v>
       </c>
       <c r="F5" s="8">
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1.0441176371571805</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.91927082493993217</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.99598392642281919</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.90222315151508559</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.95095056774797182</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.92082074738974806</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>2</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="8">
-        <v>9</v>
-      </c>
-      <c r="T5" s="8">
+      <c r="S5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="25">
+        <v>1</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="25">
         <v>12</v>
       </c>
-      <c r="U5" s="14">
-        <v>0.9528993293071234</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0.91488753032343617</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0.93845389777708454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="W5" s="25">
+        <v>4</v>
+      </c>
+      <c r="X5" s="30">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>0.90359829906310252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="8">
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.95992351770881768</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0.94264578934699639</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0.95337746088014153</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.0441176371571805</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.91927082493993217</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.99598392642281919</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="S6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="T6" s="8">
         <v>2</v>
       </c>
-      <c r="R6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="25">
+      <c r="U6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="8">
         <v>9</v>
       </c>
-      <c r="T6" s="25">
-        <v>20</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="W6" s="30">
-        <v>0.96975909457752896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="W6" s="8">
+        <v>12</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0.9528993293071234</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0.91488753032343617</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0.93845389777708454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -9503,10 +9739,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -9515,61 +9751,94 @@
         <v>27</v>
       </c>
       <c r="H7" s="14">
-        <v>0.86890739851651788</v>
+        <v>0.95992351770881768</v>
       </c>
       <c r="I7" s="14">
-        <v>0.97196858936483677</v>
+        <v>0.94264578934699639</v>
       </c>
       <c r="J7" s="14">
-        <v>0.90979728180831543</v>
+        <v>0.95337746088014153</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="25">
+        <v>2</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="25">
+        <v>9</v>
+      </c>
+      <c r="W7" s="25">
+        <v>20</v>
+      </c>
+      <c r="X7" s="30">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>0.96975909457752896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="14">
-        <v>0.99467084587180876</v>
+        <v>0.86890739851651788</v>
       </c>
       <c r="I8" s="14">
-        <v>0.96034816489690034</v>
+        <v>0.97196858936483677</v>
       </c>
       <c r="J8" s="14">
-        <v>0.98117154875196999</v>
+        <v>0.90979728180831543</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -9578,115 +9847,124 @@
         <v>46</v>
       </c>
       <c r="E9" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="14">
-        <v>0.91240717823153894</v>
+        <v>0.99467084587180876</v>
       </c>
       <c r="I9" s="14">
-        <v>0.99366398441956927</v>
+        <v>0.96034816489690034</v>
       </c>
       <c r="J9" s="14">
-        <v>0.94494408086120152</v>
+        <v>0.98117154875196999</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="20">
-        <v>12</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="E10" s="8">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="30">
-        <v>0.85955102613220613</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0.96525299905055362</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0.90359829906310252</v>
+      <c r="H10" s="14">
+        <v>0.91240717823153894</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.99366398441956927</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.94494408086120152</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="20">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20">
         <v>4</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0.97683621337292725</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.99583333370126281</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.98440485723765936</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.85955102613220613</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.96525299905055362</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.90359829906310252</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C12" s="8">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" s="8">
         <v>4</v>
@@ -9695,20 +9973,35 @@
         <v>24</v>
       </c>
       <c r="H12" s="14">
-        <v>0.97880850432860123</v>
+        <v>0.97683621337292725</v>
       </c>
       <c r="I12" s="14">
-        <v>0.93719992692330101</v>
+        <v>0.99583333370126281</v>
       </c>
       <c r="J12" s="14">
-        <v>0.96281166478125579</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.98440485723765936</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.91061002194439467</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.96944444249748196</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0.93405024701313766</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1.0277743245998392</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1.0216134739095455</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1.0252177811161121</v>
+      </c>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -9719,10 +10012,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="8">
         <v>4</v>
@@ -9731,30 +10024,49 @@
         <v>24</v>
       </c>
       <c r="H13" s="14">
-        <v>0.90568348791952125</v>
+        <v>0.97880850432860123</v>
       </c>
       <c r="I13" s="14">
-        <v>0.93038123815291496</v>
+        <v>0.93719992692330101</v>
       </c>
       <c r="J13" s="14">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.96281166478125579</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.91853259485167926</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.95592471606439267</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.93290837505555835</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.92543578017730721</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1.01088937797234</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.95731575315481021</v>
+      </c>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F14" s="8">
         <v>4</v>
@@ -9763,30 +10075,48 @@
         <v>24</v>
       </c>
       <c r="H14" s="14">
-        <v>0.98982648139335327</v>
+        <v>0.90568348791952125</v>
       </c>
       <c r="I14" s="14">
-        <v>0.9365079371211531</v>
+        <v>0.93038123815291496</v>
       </c>
       <c r="J14" s="14">
-        <v>0.97065645875260842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.91521741816882973</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.89027143514436236</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.95471017656090029</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.91514635128906563</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.90826920142635736</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.99212589933017203</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.94027444815532879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" s="8">
         <v>4</v>
@@ -9795,16 +10125,34 @@
         <v>24</v>
       </c>
       <c r="H15" s="14">
-        <v>0.93165903250304649</v>
+        <v>0.98982648139335327</v>
       </c>
       <c r="I15" s="14">
-        <v>0.99593495727743075</v>
+        <v>0.9365079371211531</v>
       </c>
       <c r="J15" s="14">
-        <v>0.95801516520843055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.97065645875260842</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.84799838505520519</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.94444444251719217</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0.88267437125089077</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.99960162928443308</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.99604569397429055</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.99823066627329382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
@@ -9815,10 +10163,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" s="8">
         <v>4</v>
@@ -9827,30 +10175,48 @@
         <v>24</v>
       </c>
       <c r="H16" s="14">
-        <v>0.86196382675318783</v>
+        <v>0.93165903250304649</v>
       </c>
       <c r="I16" s="14">
-        <v>0.97357901239101086</v>
+        <v>0.99593495727743075</v>
       </c>
       <c r="J16" s="14">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.95801516520843055</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.88409595402057362</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0.96568349685819377</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0.91592496518807309</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.88718303182772684</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1.0162295616647576</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.93607521835632901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F17" s="8">
         <v>4</v>
@@ -9859,21 +10225,39 @@
         <v>24</v>
       </c>
       <c r="H17" s="14">
-        <v>0.9372073047629168</v>
+        <v>0.86196382675318783</v>
       </c>
       <c r="I17" s="14">
-        <v>1</v>
+        <v>0.97357901239101086</v>
       </c>
       <c r="J17" s="14">
-        <v>0.95974259319363719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+        <v>0.90954639299952644</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.86291766771337231</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.97790834262787785</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.90875450520095635</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0.89101554062242849</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1.0176221713633737</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.94124715848316243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -9882,7 +10266,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" s="8">
         <v>4</v>
@@ -9891,184 +10275,241 @@
         <v>24</v>
       </c>
       <c r="H18" s="14">
+        <v>0.9372073047629168</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.95974259319363719</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.84051804404270203</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.8977535531003018</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.99849638089789705</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1.0257863774359752</v>
+      </c>
+      <c r="P18" s="14">
+        <v>1.0092296849756344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="14">
         <v>0.96905867158805403</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>0.94961240732685592</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>0.96147227615551067</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="K19" s="14">
+        <v>0.84327459275408634</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.99124452733931767</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.90394918041695571</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.85111731568677862</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1.0412311779435073</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.92724283076649239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="20">
         <v>12</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F20" s="20">
         <v>4</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H20" s="30">
         <v>0.87802789344330667</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I20" s="30">
         <v>0.96850763718630439</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J20" s="30">
         <v>0.91409434242231791</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="K20" s="30">
+        <v>0.82695756306427215</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0.96433631265830044</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0.88552337036049611</v>
+      </c>
+      <c r="N20" s="40">
+        <v>0.82722107911598641</v>
+      </c>
+      <c r="O20" s="40">
+        <v>1.0033689241341277</v>
+      </c>
+      <c r="P20" s="40">
+        <v>0.90062398723102066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>9</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>12</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>0.9528993293071234</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>0.91488753032343617</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>0.93845389777708454</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="25">
-        <v>2</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="25">
-        <v>9</v>
-      </c>
-      <c r="F21" s="25">
-        <v>20</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="30">
-        <v>0.99226020155070471</v>
-      </c>
-      <c r="I21" s="30">
-        <v>0.93593454952384891</v>
-      </c>
-      <c r="J21" s="30">
-        <v>0.96975909457752896</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="25">
         <v>2</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="25">
         <v>9</v>
       </c>
-      <c r="F22" s="8">
-        <v>12</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.97418106672431659</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0.92157689209957483</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0.95431611009417394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="8">
-        <v>9</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="F22" s="25">
         <v>20</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="14">
-        <v>1.0169398406633805</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0.94750914859707136</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.98914904350968524</v>
-      </c>
+      <c r="G22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0.99226020155070471</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.93593454952384891</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.96975909457752896</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10096,62 +10537,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="G1" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="26">
         <v>1.4</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="26">
         <v>1.2</v>
@@ -10168,7 +10609,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="26">
         <v>1.2</v>
@@ -10177,7 +10618,7 @@
         <v>1.6</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="26">
         <v>1.2</v>
@@ -10194,7 +10635,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="26">
         <v>1.2</v>
@@ -10209,7 +10650,7 @@
         <v>0.3</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="26">
         <v>1.2</v>
@@ -10226,7 +10667,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="26">
         <v>1.2</v>
@@ -10241,7 +10682,7 @@
         <v>0.3</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="26">
         <v>1.2</v>
@@ -10258,7 +10699,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="26">
         <v>1.2</v>
@@ -10273,7 +10714,7 @@
         <v>-0.3</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="26">
         <v>0.9</v>
@@ -10287,7 +10728,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="26">
         <v>1.2</v>
@@ -10302,7 +10743,7 @@
         <v>-0.3</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="26">
         <v>0.9</v>
@@ -10316,7 +10757,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="26">
         <v>1.2</v>
@@ -10331,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="26">
         <v>0.9</v>
@@ -10345,7 +10786,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="26">
         <v>1.2</v>
@@ -10360,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="26">
         <v>0.9</v>
@@ -10374,7 +10815,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="26">
         <v>1.2</v>
@@ -10391,7 +10832,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="26">
         <v>1.2</v>
@@ -10408,7 +10849,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="26">
         <v>0.9</v>
@@ -10422,7 +10863,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="26">
         <v>0.9</v>
@@ -10436,7 +10877,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="26">
         <v>0.9</v>
@@ -10450,7 +10891,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="26">
         <v>0.9</v>
@@ -10464,7 +10905,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="26">
         <v>0.9</v>
@@ -10478,7 +10919,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="26">
         <v>0.9</v>
@@ -10492,7 +10933,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="26">
         <v>0.9</v>
@@ -10506,7 +10947,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="26">
         <v>0.9</v>
@@ -10935,7 +11376,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10954,24 +11395,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -11150,12 +11591,12 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -11320,12 +11761,12 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="A13" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -11375,7 +11816,7 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="15">
         <v>0.99598392642281919</v>
@@ -11395,7 +11836,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="14">
         <v>0.98117154875196999</v>
@@ -11414,12 +11855,12 @@
       <c r="J17" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -11501,7 +11942,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="14">
         <f>B21/B15</f>
@@ -11518,7 +11959,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="14">
         <f t="shared" ref="B28:D29" si="1">B22/B16</f>
@@ -11535,7 +11976,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="14">
         <f t="shared" si="1"/>
@@ -11565,92 +12006,102 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.75" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="12.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="12"/>
-    <col min="11" max="11" width="37.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="12"/>
+    <col min="6" max="6" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="12"/>
+    <col min="15" max="15" width="37.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="33">
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="35">
         <v>6</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="35">
         <v>9</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="35">
         <v>12</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="33">
+      <c r="L2" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="35">
         <v>6</v>
       </c>
-      <c r="M2" s="33">
+      <c r="Q2" s="35">
         <v>9</v>
       </c>
-      <c r="N2" s="33">
+      <c r="R2" s="35">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>235</v>
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="B3" s="14">
         <v>0.96799999999999997</v>
@@ -11661,36 +12112,40 @@
       <c r="D3" s="14">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35">
         <v>4</v>
       </c>
-      <c r="G3" s="14">
+      <c r="K3" s="14">
         <v>0.88300000000000001</v>
       </c>
-      <c r="H3" s="14">
+      <c r="L3" s="14">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I3" s="14">
+      <c r="M3" s="14">
         <v>0.91300000000000003</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="14">
-        <v>1.0144026135167818</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.91995203321878605</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.90191491074006924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>236</v>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.98362443050577097</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0.9545620505860043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>262</v>
       </c>
       <c r="B4" s="15">
         <v>0.92400000000000004</v>
@@ -11701,36 +12156,40 @@
       <c r="D4" s="14">
         <v>0.879</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35">
         <v>12</v>
       </c>
-      <c r="G4" s="14">
+      <c r="K4" s="14">
         <v>0.95389541581427506</v>
       </c>
-      <c r="H4" s="14">
+      <c r="L4" s="14">
         <v>0.9542362743742252</v>
       </c>
-      <c r="I4" s="14">
+      <c r="M4" s="14">
         <v>0.95402495056718961</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0.96580407717300698</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0.94409103821715123</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.86975819949198241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>94</v>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.95822843243651423</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0.96637017055845364</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.96882785995617682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="B5" s="14">
         <v>0.875</v>
@@ -11741,104 +12200,120 @@
       <c r="D5" s="14">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35">
         <v>20</v>
       </c>
-      <c r="G5" s="14">
+      <c r="K5" s="14">
         <v>0.9963542100310635</v>
       </c>
-      <c r="H5" s="14">
+      <c r="L5" s="14">
         <v>0.96946958330599287</v>
       </c>
-      <c r="I5" s="14">
+      <c r="M5" s="14">
         <v>0.98561427467112628</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+      <c r="N5" s="35"/>
+      <c r="O5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="14">
-        <v>0.9325048570767529</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0.94067682504457073</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.94484837694979296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="P5" s="14">
+        <v>0.95845011730724239</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0.96930798590876444</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0.97592725654198931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="35">
         <v>6</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <v>9</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="35">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="33">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="35">
         <v>6</v>
       </c>
-      <c r="M8" s="33">
+      <c r="Q8" s="35">
         <v>9</v>
       </c>
-      <c r="N8" s="33">
+      <c r="R8" s="35">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>235</v>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="B9" s="14">
         <v>0.97899999999999998</v>
@@ -11849,31 +12324,35 @@
       <c r="D9" s="14">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="L9" s="33">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="P9" s="35">
         <f>540/4-2*70</f>
         <v>-5</v>
       </c>
-      <c r="M9" s="33">
+      <c r="Q9" s="35">
         <f>820/4-2*80</f>
         <v>45</v>
       </c>
-      <c r="N9" s="33">
+      <c r="R9" s="35">
         <f>1100/4-2*100</f>
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>236</v>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="B10" s="15">
         <v>0.93799999999999994</v>
@@ -11884,31 +12363,35 @@
       <c r="D10" s="14">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="L10" s="33">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="P10" s="35">
         <f>540/4-2*50</f>
         <v>35</v>
       </c>
-      <c r="M10" s="33">
+      <c r="Q10" s="35">
         <f>820/4-2*70</f>
         <v>65</v>
       </c>
-      <c r="N10" s="33">
+      <c r="R10" s="35">
         <f>1110/4-2*100</f>
         <v>77.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>239</v>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>246</v>
       </c>
       <c r="B11" s="14">
         <v>0.96499999999999997</v>
@@ -11919,78 +12402,100 @@
       <c r="D11" s="14">
         <v>0.96299999999999997</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="33">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="35">
         <f>550/4-2*50</f>
         <v>37.5</v>
       </c>
-      <c r="M11" s="33">
+      <c r="Q11" s="35">
         <f>820/4-2*70</f>
         <v>65</v>
       </c>
-      <c r="N11" s="33">
+      <c r="R11" s="35">
         <f>1110/4-2*90</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="33">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="35">
         <v>6</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="35">
         <v>9</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="35">
         <v>12</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>114</v>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="35">
+        <v>6</v>
+      </c>
+      <c r="H14" s="35">
+        <v>9</v>
+      </c>
+      <c r="I14" s="35">
+        <v>12</v>
+      </c>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="B15" s="14">
         <v>0.97199999999999998</v>
@@ -12001,16 +12506,24 @@
       <c r="D15" s="14">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>236</v>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="B16" s="15">
         <v>0.93</v>
@@ -12021,16 +12534,24 @@
       <c r="D16" s="14">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>239</v>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="B17" s="14">
         <v>0.91</v>
@@ -12041,158 +12562,324 @@
       <c r="D17" s="14">
         <v>0.88400000000000001</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="33">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="F19" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="35">
         <v>6</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="35">
         <v>9</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="35">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>235</v>
+      <c r="F20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="35">
+        <v>9</v>
+      </c>
+      <c r="I20" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="B21" s="14">
-        <v>0.98440485723765936</v>
+        <v>0.93405024701313766</v>
       </c>
       <c r="C21" s="14">
-        <v>0.96281166478125579</v>
+        <v>0.93290837505555835</v>
       </c>
       <c r="D21" s="14">
-        <v>0.91521741816882973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>116</v>
+        <v>0.91514635128906563</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1.0252177811161121</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.95731575315481021</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.94027444815532879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="B22" s="14">
-        <v>0.97065645875260842</v>
+        <v>0.88267437125089077</v>
       </c>
       <c r="C22" s="14">
-        <v>0.95801516520843055</v>
+        <v>0.91592496518807309</v>
       </c>
       <c r="D22" s="14">
-        <v>0.90954639299952644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>241</v>
+        <v>0.90875450520095635</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.99823066627329382</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.93607521835632901</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.94124715848316243</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="B23" s="14">
-        <v>0.95974259319363719</v>
+        <v>0.8977535531003018</v>
       </c>
       <c r="C23" s="14">
-        <v>0.96147227615551067</v>
+        <v>0.90394918041695571</v>
       </c>
       <c r="D23" s="14">
-        <v>0.91409434242231791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="33">
+        <v>0.88552337036049611</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1.0092296849756344</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.92724283076649239</v>
+      </c>
+      <c r="I23" s="40">
+        <v>0.90062398723102066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="F25" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="35">
         <v>6</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="35">
         <v>9</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="35">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>242</v>
+      <c r="F26" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="35">
+        <v>6</v>
+      </c>
+      <c r="H26" s="35">
+        <v>9</v>
+      </c>
+      <c r="I26" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="B27" s="14">
         <f>B21/B15</f>
-        <v>1.0127621988041764</v>
+        <v>0.9609570442521993</v>
       </c>
       <c r="C27" s="14">
         <f t="shared" ref="C27:D27" si="0">C21/C15</f>
-        <v>1.0397534176903409</v>
+        <v>1.0074604482241449</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>0.9872895557376804</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>236</v>
+        <v>0.98721289243696397</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="14">
+        <f>G21/G15</f>
+        <v>1.0547508036173994</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" ref="H27:I27" si="1">H21/H15</f>
+        <v>1.0338183079425596</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0143197930478196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" ref="B28:D29" si="1">B22/B16</f>
-        <v>1.0437166223146326</v>
+        <f t="shared" ref="B28:D29" si="2">B22/B16</f>
+        <v>0.94911222715149535</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="1"/>
-        <v>1.0493046716412164</v>
+        <f t="shared" si="2"/>
+        <v>1.0032036858576923</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="1"/>
-        <v>0.99079127777726184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>241</v>
+        <f t="shared" si="2"/>
+        <v>0.98992865490300253</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" ref="G28:I28" si="3">G22/G16</f>
+        <v>1.073366307820746</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0252740617265377</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0253237020513752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>246</v>
       </c>
       <c r="B29" s="14">
-        <f t="shared" si="1"/>
-        <v>1.0546621903226783</v>
+        <f t="shared" si="2"/>
+        <v>0.98654236604428769</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="1"/>
-        <v>1.0647533512242642</v>
+        <f t="shared" si="2"/>
+        <v>1.0010511411040484</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="1"/>
-        <v>1.0340433737809025</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1.0017232696385703</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" ref="G29:I29" si="4">G23/G17</f>
+        <v>1.1090436098633345</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="4"/>
+        <v>1.026846988667212</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0188054154197066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K39" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -2696,53 +2696,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
-    </r>
-    <r>
-      <rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>舊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -2751,17 +2830,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -2770,50 +2852,39 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -2832,7 +2903,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -2843,15 +2914,18 @@
       </rPr>
       <t>)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -2860,17 +2934,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -2879,109 +2953,39 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATC-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modal Pushover Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-Modes Combination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>傳統配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最佳化配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最佳化配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -2990,17 +2994,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3009,17 +3016,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3028,17 +3038,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數效益比較</t>
     </r>
     <r>
       <rPr>
@@ -3047,30 +3060,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3079,17 +3082,114 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選擇標準</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不選近斷層，因為沒有做近斷層地震。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地盤類別不同是為了放大地震力的差異。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動力反應譜分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值分析模型之假設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -3098,17 +3198,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數</t>
     </r>
     <r>
       <rPr>
@@ -3117,17 +3220,43 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3136,30 +3265,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3168,17 +3284,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -3187,17 +3306,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -3206,17 +3325,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -3225,56 +3347,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>舊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層鋼筋效益</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -3283,20 +3366,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3305,17 +3388,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3324,20 +3407,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
     </r>
     <r>
       <rPr>
@@ -3346,17 +3432,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t xml:space="preserve"> 2h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之距離</t>
     </r>
     <r>
       <rPr>
@@ -3365,7 +3451,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
+      <t>(cm)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3419,7 +3505,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3428,17 +3514,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3447,20 +3536,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層鋼筋效益</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3469,20 +3558,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3491,20 +3577,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數效益比較</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3513,20 +3599,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋效益</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3535,114 +3618,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選擇標準</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不選近斷層，因為沒有做近斷層地震。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地盤類別不同是為了放大地震力的差異。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動力反應譜分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數值分析模型之假設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層鋼筋效益</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3657,14 +3649,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益以傳統</t>
     </r>
     <r>
       <rPr>
@@ -3673,43 +3668,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>#8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進行對比</t>
     </r>
     <r>
       <rPr>
@@ -3718,17 +3687,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3737,20 +3709,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3759,17 +3728,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3778,20 +3749,28 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇澳鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3800,17 +3779,28 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較大之工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樓層數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上層筋效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -3819,20 +3809,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -3841,17 +3828,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3860,23 +3850,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1/4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>與</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3885,17 +3869,38 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之距離</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal Pushover Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Modes Combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -3904,20 +3909,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(cm)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -3926,17 +3928,40 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -3945,20 +3970,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -3967,20 +3989,40 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -3989,20 +4031,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -4011,17 +4050,40 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -4030,20 +4092,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -4052,17 +4111,40 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、梁長</t>
     </r>
     <r>
       <rPr>
@@ -4071,23 +4153,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、</t>
     </r>
     <r>
       <rPr>
@@ -4096,233 +4172,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益以傳統</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>#8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進行對比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜蘭縣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇澳鎮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樓層數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上層筋效益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4626,13 +4486,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6900,7 +6760,7 @@
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -6917,7 +6777,7 @@
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6932,7 +6792,7 @@
       <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
@@ -6971,27 +6831,27 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="11">
         <v>12</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="11">
         <v>20</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41" t="s">
@@ -7026,29 +6886,29 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="43">
         <v>4</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="11">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="11">
         <v>420</v>
       </c>
@@ -7086,13 +6946,13 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="43">
         <v>4</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -7100,21 +6960,28 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="11" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:D1"/>
@@ -7122,13 +6989,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7157,13 +7017,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="F1" s="48" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
@@ -7177,7 +7037,7 @@
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
@@ -7185,7 +7045,7 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B3" s="32">
         <v>6</v>
@@ -7197,7 +7057,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G3" s="32">
         <v>6</v>
@@ -7211,7 +7071,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B4" s="14">
         <v>1.0129198894890106</v>
@@ -7223,7 +7083,7 @@
         <v>0.90222315151508559</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G4" s="14">
         <v>0.96799999999999997</v>
@@ -7249,7 +7109,7 @@
         <v>0.86890739851651788</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G5" s="15">
         <v>0.92400000000000004</v>
@@ -7263,7 +7123,7 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B6" s="14">
         <v>0.99467084587180876</v>
@@ -7275,7 +7135,7 @@
         <v>0.85955102613220613</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G6" s="14">
         <v>0.875</v>
@@ -7299,7 +7159,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -7325,7 +7185,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G9" s="32">
         <v>6</v>
@@ -7365,7 +7225,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B11" s="15">
         <v>0.91927082493993217</v>
@@ -7403,7 +7263,7 @@
         <v>0.96525299905055362</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G12" s="14">
         <v>0.96499999999999997</v>
@@ -7427,13 +7287,13 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="F14" s="51" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
@@ -7441,7 +7301,7 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B15" s="32">
         <v>6</v>
@@ -7453,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G15" s="32">
         <v>6</v>
@@ -7479,7 +7339,7 @@
         <v>0.92082074738974806</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G16" s="14">
         <v>0.97199999999999998</v>
@@ -7493,7 +7353,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B17" s="15">
         <v>0.99598392642281919</v>
@@ -7519,7 +7379,7 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B18" s="14">
         <v>0.98117154875196999</v>
@@ -7531,7 +7391,7 @@
         <v>0.90359829906310252</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G18" s="14">
         <v>0.91</v>
@@ -7636,31 +7496,32 @@
   <sheetPr codeName="工作表10"/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="32.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="K1" s="48"/>
       <c r="L1" s="48"/>
@@ -7668,63 +7529,63 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>17</v>
@@ -7732,7 +7593,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="B4" s="12">
         <v>2.73</v>
@@ -7762,18 +7623,18 @@
         <v>2.71</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L4" s="12">
         <v>2.77</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="B5" s="12">
         <v>1.35</v>
@@ -7800,21 +7661,21 @@
         <v>1.58</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B6" s="12">
         <v>1.25</v>
@@ -7841,10 +7702,10 @@
         <v>1.69</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L6" s="12">
         <v>1.62</v>
@@ -7855,7 +7716,7 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="B7" s="12">
         <v>1.95</v>
@@ -7882,21 +7743,21 @@
         <v>2.76</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="B8" s="12">
         <v>1.44</v>
@@ -9067,7 +8928,7 @@
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C6" s="45"/>
     </row>
@@ -9243,18 +9104,18 @@
         <v>8</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L1" s="33">
         <v>1</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>33</v>
@@ -9281,12 +9142,12 @@
         <v>2</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>33</v>
@@ -9312,7 +9173,7 @@
     </row>
     <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>31</v>
@@ -9380,12 +9241,12 @@
   <sheetData>
     <row r="1" spans="1:26" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="H1" s="47" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="47" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
@@ -9407,16 +9268,16 @@
         <v>160</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>161</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>162</v>
@@ -9466,10 +9327,10 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C3" s="8">
         <v>3</v>
@@ -10545,7 +10406,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="G1" s="50" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
@@ -11762,7 +11623,7 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -12008,7 +11869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4:M5"/>
     </sheetView>
   </sheetViews>
@@ -12031,7 +11892,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -12042,14 +11903,14 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="51" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K1" s="51"/>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
       <c r="N1" s="35"/>
       <c r="O1" s="51" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
@@ -12074,20 +11935,20 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M2" s="35" t="s">
         <v>54</v>
       </c>
       <c r="N2" s="35"/>
       <c r="O2" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P2" s="35">
         <v>6</v>
@@ -12101,7 +11962,7 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="14">
         <v>0.96799999999999997</v>
@@ -12131,7 +11992,7 @@
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P3" s="14">
         <v>0.96899999999999997</v>
@@ -12145,7 +12006,7 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B4" s="15">
         <v>0.92400000000000004</v>
@@ -12175,7 +12036,7 @@
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="35" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P4" s="16">
         <v>0.95822843243651423</v>
@@ -12189,7 +12050,7 @@
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B5" s="14">
         <v>0.875</v>
@@ -12253,7 +12114,7 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -12269,7 +12130,7 @@
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -12277,7 +12138,7 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B8" s="35">
         <v>6</v>
@@ -12299,7 +12160,7 @@
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
       <c r="O8" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P8" s="35">
         <v>6</v>
@@ -12313,7 +12174,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B9" s="14">
         <v>0.97899999999999998</v>
@@ -12335,7 +12196,7 @@
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P9" s="35">
         <f>540/4-2*70</f>
@@ -12352,7 +12213,7 @@
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B10" s="15">
         <v>0.93799999999999994</v>
@@ -12374,7 +12235,7 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P10" s="35">
         <f>540/4-2*50</f>
@@ -12391,7 +12252,7 @@
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B11" s="14">
         <v>0.96499999999999997</v>
@@ -12413,7 +12274,7 @@
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P11" s="35">
         <f>550/4-2*50</f>
@@ -12447,14 +12308,14 @@
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="35"/>
       <c r="F13" s="51" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
@@ -12467,7 +12328,7 @@
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B14" s="35">
         <v>6</v>
@@ -12480,7 +12341,7 @@
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G14" s="35">
         <v>6</v>
@@ -12495,7 +12356,7 @@
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B15" s="14">
         <v>0.97199999999999998</v>
@@ -12508,7 +12369,7 @@
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G15" s="14">
         <v>0.97199999999999998</v>
@@ -12523,7 +12384,7 @@
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B16" s="15">
         <v>0.93</v>
@@ -12536,7 +12397,7 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G16" s="15">
         <v>0.93</v>
@@ -12551,7 +12412,7 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B17" s="14">
         <v>0.91</v>
@@ -12564,7 +12425,7 @@
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G17" s="14">
         <v>0.91</v>
@@ -12579,13 +12440,13 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="F19" s="51" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
@@ -12593,7 +12454,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B20" s="35">
         <v>6</v>
@@ -12605,7 +12466,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G20" s="35">
         <v>6</v>
@@ -12619,7 +12480,7 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B21" s="14">
         <v>0.93405024701313766</v>
@@ -12645,7 +12506,7 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B22" s="14">
         <v>0.88267437125089077</v>
@@ -12657,7 +12518,7 @@
         <v>0.90875450520095635</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G22" s="14">
         <v>0.99823066627329382</v>
@@ -12686,7 +12547,7 @@
         <v>0.88552337036049611</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G23" s="14">
         <v>1.0092296849756344</v>
@@ -12700,13 +12561,13 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="F25" s="35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
@@ -12714,7 +12575,7 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B26" s="35">
         <v>6</v>
@@ -12726,7 +12587,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G26" s="35">
         <v>6</v>
@@ -12740,7 +12601,7 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B27" s="14">
         <f>B21/B15</f>
@@ -12755,7 +12616,7 @@
         <v>0.98721289243696397</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G27" s="14">
         <f>G21/G15</f>
@@ -12772,7 +12633,7 @@
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B28" s="14">
         <f t="shared" ref="B28:D29" si="2">B22/B16</f>
@@ -12787,7 +12648,7 @@
         <v>0.98992865490300253</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" ref="G28:I28" si="3">G22/G16</f>
@@ -12804,7 +12665,7 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B29" s="14">
         <f t="shared" si="2"/>
@@ -12819,7 +12680,7 @@
         <v>1.0017232696385703</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" ref="G29:I29" si="4">G23/G17</f>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -4447,22 +4447,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6646,23 +6646,23 @@
       <c r="D1" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="52">
         <v>4</v>
       </c>
       <c r="D2" s="45" t="s">
@@ -6700,7 +6700,7 @@
       <c r="B3" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="B4" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
@@ -6773,22 +6773,22 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="46">
         <v>12</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="46">
         <v>20</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
@@ -6797,12 +6797,12 @@
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -6829,40 +6829,40 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="9">
         <v>420</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -6889,13 +6889,13 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="49">
         <v>4</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="49" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -6903,21 +6903,26 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="53"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -6925,11 +6930,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11811,7 +11811,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:H29"/>
+      <selection activeCell="J7" sqref="J7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11932,9 +11932,15 @@
         <v>0.875</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="J3" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="K3" s="33">
+        <v>91.3</v>
+      </c>
+      <c r="L3" s="33">
+        <v>88.4</v>
+      </c>
       <c r="M3" s="33">
         <v>4</v>
       </c>
@@ -11985,9 +11991,12 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="33">
+        <v>87.7</v>
+      </c>
+      <c r="L4" s="33">
+        <v>85.4</v>
+      </c>
       <c r="M4" s="33">
         <v>12</v>
       </c>
@@ -12038,9 +12047,12 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="K5" s="33">
+        <v>84.7</v>
+      </c>
+      <c r="L5" s="33">
+        <v>83.1</v>
+      </c>
       <c r="M5" s="33">
         <v>20</v>
       </c>
@@ -12077,9 +12089,15 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="10">
+        <v>93.3</v>
+      </c>
+      <c r="K6" s="33">
+        <v>83.8</v>
+      </c>
+      <c r="L6" s="33">
+        <v>76.900000000000006</v>
+      </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
@@ -12102,9 +12120,18 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="10">
+        <f>J3/100</f>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7:L7" si="0">K3/100</f>
+        <v>0.91299999999999992</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.88400000000000001</v>
+      </c>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
@@ -12135,9 +12162,18 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:L8" si="1">J4/100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.877</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.85400000000000009</v>
+      </c>
       <c r="M8" s="33"/>
       <c r="N8" s="12">
         <v>0.88300000000000001</v>
@@ -12186,9 +12222,18 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="10">
+        <f t="shared" ref="J9:L9" si="2">J5/100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.83099999999999996</v>
+      </c>
       <c r="M9" s="33"/>
       <c r="N9" s="12">
         <v>0.96199999999999997</v>
@@ -12240,9 +12285,18 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10:L10" si="3">J6/100</f>
+        <v>0.93299999999999994</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.76900000000000002</v>
+      </c>
       <c r="M10" s="33"/>
       <c r="N10" s="12">
         <v>0.91300000000000003</v>
@@ -12749,11 +12803,11 @@
         <v>-3.7949752986862317E-2</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" ref="C27:D27" si="0">C21-C15</f>
+        <f t="shared" ref="C27:D27" si="4">C21-C15</f>
         <v>6.9083750555583023E-3</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.1853648710934417E-2</v>
       </c>
       <c r="F27" s="12">
@@ -12773,11 +12827,11 @@
         <v>1.0547508036173971</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" ref="K27:L27" si="1">K21/K15</f>
+        <f t="shared" ref="K27:L27" si="5">K21/K15</f>
         <v>1.0338183079425596</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0143197930478196</v>
       </c>
       <c r="N27" s="12"/>
@@ -12789,15 +12843,15 @@
         <v>223</v>
       </c>
       <c r="B28" s="12">
-        <f t="shared" ref="B28:D28" si="2">B22-B16</f>
+        <f t="shared" ref="B28:D28" si="6">B22-B16</f>
         <v>-4.7325628749109283E-2</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.9249651880730587E-3</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-9.2454947990436853E-3</v>
       </c>
       <c r="F28" s="12">
@@ -12813,15 +12867,15 @@
         <v>223</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" ref="J28:L28" si="3">J22/J16</f>
+        <f t="shared" ref="J28:L28" si="7">J22/J16</f>
         <v>1.073366307820746</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0252740617265377</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0253237020513752</v>
       </c>
       <c r="N28" s="12"/>
@@ -12833,15 +12887,15 @@
         <v>221</v>
       </c>
       <c r="B29" s="12">
-        <f t="shared" ref="B29:D29" si="4">B23-B17</f>
+        <f t="shared" ref="B29:D29" si="8">B23-B17</f>
         <v>-1.2246446899698227E-2</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.4918041695568611E-4</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5233703604961013E-3</v>
       </c>
       <c r="F29" s="12">
@@ -12857,15 +12911,15 @@
         <v>221</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ref="J29:L29" si="5">J23/J17</f>
+        <f t="shared" ref="J29:L29" si="9">J23/J17</f>
         <v>1.1090436098633345</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.026846988667212</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0188054154197066</v>
       </c>
     </row>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <sheet name="Word 整理統計 新方法" sheetId="12" r:id="rId9"/>
     <sheet name="比較" sheetId="13" r:id="rId10"/>
     <sheet name="Word 非線性容量" sheetId="11" r:id="rId11"/>
-    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId12"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId13"/>
+    <sheet name="PPT 表格" sheetId="14" r:id="rId12"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId13"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="287">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2439,128 +2440,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+    <t>ATC-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>舊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATC-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>傳統配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最佳化配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最佳化配筋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>舊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層鋼筋效益</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -2569,20 +2540,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -2591,17 +2562,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -2610,20 +2581,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -2642,7 +2613,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力較大之工址</t>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -2664,7 +2635,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -2683,7 +2654,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -2705,7 +2676,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>下層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -2714,17 +2685,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -2733,20 +2707,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層鋼筋效益</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層數效益比較</t>
     </r>
     <r>
       <rPr>
@@ -2768,7 +2742,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>總體效益</t>
+      <t>箍筋效益</t>
     </r>
     <r>
       <rPr>
@@ -2790,7 +2764,101 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>樓層數效益比較</t>
+      <t>選擇標準</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不選近斷層，因為沒有做近斷層地震。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地盤類別不同是為了放大地震力的差異。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動力反應譜分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值分析模型之假設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層鋼筋效益</t>
     </r>
     <r>
       <rPr>
@@ -2812,7 +2880,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>箍筋效益</t>
+      <t>樓層數</t>
     </r>
     <r>
       <rPr>
@@ -2821,114 +2889,43 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>選擇標準</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不選近斷層，因為沒有做近斷層地震。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地盤類別不同是為了放大地震力的差異。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力大</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動力反應譜分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數值分析模型之假設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層鋼筋效益</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋效益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -2937,20 +2934,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層數</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -2959,43 +2953,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋效益</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
     </r>
     <r>
       <rPr>
@@ -3004,17 +2975,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較大之工址</t>
     </r>
     <r>
       <rPr>
@@ -3023,7 +2994,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3077,7 +3048,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3096,7 +3067,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力較大之工址</t>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3111,14 +3082,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t xml:space="preserve">1/4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
     </r>
     <r>
       <rPr>
@@ -3127,17 +3101,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t xml:space="preserve"> 2h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之距離</t>
     </r>
     <r>
       <rPr>
@@ -3146,23 +3120,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1/4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>與</t>
+      <t>(cm)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -3171,17 +3142,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之距離</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -3190,20 +3161,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(cm)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3212,17 +3183,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3231,20 +3205,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3253,20 +3227,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3275,20 +3246,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3297,17 +3268,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3316,20 +3287,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3338,17 +3312,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益以傳統</t>
     </r>
     <r>
       <rPr>
@@ -3357,23 +3337,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+      <t>#8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進行對比</t>
     </r>
     <r>
       <rPr>
@@ -3388,17 +3362,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">#10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益以傳統</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工址</t>
     </r>
     <r>
       <rPr>
@@ -3407,17 +3378,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>#8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進行對比</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁長</t>
     </r>
     <r>
       <rPr>
@@ -3426,20 +3397,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工址</t>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總體效益</t>
     </r>
     <r>
       <rPr>
@@ -3448,8 +3418,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>\</t>
-    </r>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇澳鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3469,17 +3450,26 @@
       </rPr>
       <t>(m)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總體效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樓層數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上層筋效益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
     </r>
     <r>
       <rPr>
@@ -3488,28 +3478,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜蘭縣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇澳鎮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁長</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震力介於中間之工址</t>
     </r>
     <r>
       <rPr>
@@ -3518,28 +3497,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樓層數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上層筋效益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
     </r>
     <r>
       <rPr>
@@ -3558,7 +3529,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>地震力介於中間之工址</t>
+      <t>地震力較小之工址</t>
     </r>
     <r>
       <rPr>
@@ -3572,357 +3543,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震力較小之工址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Modal Pushover Analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Multi-Modes Combination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宜蘭縣蘇澳鎮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣蘆竹鄉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣平鎮市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、梁長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>層樓</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4113,6 +3738,653 @@
         <charset val="136"/>
       </rPr>
       <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最佳化配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳統配筋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宜蘭縣蘇澳鎮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣蘆竹鄉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣平鎮市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層樓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 5%)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4124,7 +4396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4212,13 +4484,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="細明體"/>
@@ -4237,6 +4502,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4302,7 +4587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4414,7 +4699,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4432,22 +4717,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4456,22 +4774,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4488,6 +4797,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6638,44 +6950,44 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+        <v>237</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="52">
+        <v>239</v>
+      </c>
+      <c r="C2" s="58">
         <v>4</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>35</v>
@@ -6687,10 +6999,10 @@
         <v>4</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O2" s="47" t="s">
         <v>17</v>
@@ -6698,9 +7010,9 @@
     </row>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="52"/>
+        <v>240</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
@@ -6734,9 +7046,9 @@
     </row>
     <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="52"/>
+        <v>241</v>
+      </c>
+      <c r="C4" s="58"/>
       <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
@@ -6763,32 +7075,32 @@
     </row>
     <row r="7" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>253</v>
+      <c r="B8" s="59" t="s">
+        <v>243</v>
       </c>
       <c r="C8" s="46">
         <v>12</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="46">
         <v>20</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
@@ -6797,12 +7109,12 @@
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -6829,40 +7141,40 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="60">
         <v>4</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="60" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="9">
         <v>420</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -6889,13 +7201,13 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="60">
         <v>4</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="60" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -6903,26 +7215,21 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -6930,6 +7237,11 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6939,6 +7251,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表13"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6957,36 +7270,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="F1" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="A1" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="F1" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="F2" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="F2" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B3" s="30">
         <v>6</v>
@@ -6998,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G3" s="30">
         <v>6</v>
@@ -7012,7 +7325,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" s="12">
         <v>1.0129198894890106</v>
@@ -7024,7 +7337,7 @@
         <v>0.90222315151508559</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G4" s="12">
         <v>0.96799999999999997</v>
@@ -7050,7 +7363,7 @@
         <v>0.86890739851651788</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G5" s="13">
         <v>0.92400000000000004</v>
@@ -7064,7 +7377,7 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B6" s="12">
         <v>0.99467084587180876</v>
@@ -7076,7 +7389,7 @@
         <v>0.85955102613220613</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G6" s="12">
         <v>0.875</v>
@@ -7099,18 +7412,18 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="A8" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="F8" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -7126,7 +7439,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G9" s="30">
         <v>6</v>
@@ -7166,7 +7479,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B11" s="13">
         <v>0.91927082493993217</v>
@@ -7204,7 +7517,7 @@
         <v>0.96525299905055362</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G12" s="12">
         <v>0.96499999999999997</v>
@@ -7227,22 +7540,22 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="F14" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="A14" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="F14" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B15" s="30">
         <v>6</v>
@@ -7254,7 +7567,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G15" s="30">
         <v>6</v>
@@ -7280,7 +7593,7 @@
         <v>0.92082074738974806</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G16" s="12">
         <v>0.97199999999999998</v>
@@ -7294,7 +7607,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B17" s="13">
         <v>0.99598392642281919</v>
@@ -7320,7 +7633,7 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B18" s="12">
         <v>0.98117154875196999</v>
@@ -7332,7 +7645,7 @@
         <v>0.90359829906310252</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G18" s="12">
         <v>0.91</v>
@@ -7435,310 +7748,1278 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表10"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11:AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="28.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="7.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="48"/>
+    <col min="27" max="27" width="28.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="7.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="6.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="AB2" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+    </row>
+    <row r="3" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AB3" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="AC3" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AD3" s="53">
+        <v>0.84</v>
+      </c>
+      <c r="AE3" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="AF3" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AG3" s="53">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2.73</v>
+      </c>
+      <c r="C4" s="48">
+        <v>3.42</v>
+      </c>
+      <c r="D4" s="48">
+        <v>2.85</v>
+      </c>
+      <c r="E4" s="48">
+        <v>3.57</v>
+      </c>
+      <c r="F4" s="48">
+        <v>2.74</v>
+      </c>
+      <c r="G4" s="48">
+        <v>3.44</v>
+      </c>
+      <c r="H4" s="48">
+        <v>2.86</v>
+      </c>
+      <c r="I4" s="48">
+        <v>3.58</v>
+      </c>
+      <c r="J4" s="48">
+        <v>2.71</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="L4" s="48">
+        <v>2.77</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="AA4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB4" s="48">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="48">
+        <v>2.65</v>
+      </c>
+      <c r="AD4" s="48">
+        <v>1.99</v>
+      </c>
+      <c r="AE4" s="48">
+        <v>2.89</v>
+      </c>
+      <c r="AF4" s="48">
+        <v>2.68</v>
+      </c>
+      <c r="AG4" s="48">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1.35</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1.52</v>
+      </c>
+      <c r="D5" s="48">
+        <v>1.34</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1.51</v>
+      </c>
+      <c r="F5" s="48">
+        <v>1.41</v>
+      </c>
+      <c r="G5" s="48">
+        <v>1.59</v>
+      </c>
+      <c r="H5" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="48">
+        <v>1.58</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
+      <c r="AA5" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB5" s="48">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AC5" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="AD5" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="AE5" s="48">
+        <v>1.41</v>
+      </c>
+      <c r="AF5" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG5" s="48">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="48">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1.65</v>
+      </c>
+      <c r="D6" s="48">
+        <v>1.24</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1.64</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1.28</v>
+      </c>
+      <c r="G6" s="48">
+        <v>1.7</v>
+      </c>
+      <c r="H6" s="48">
+        <v>1.28</v>
+      </c>
+      <c r="I6" s="48">
+        <v>1.69</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="48">
+        <v>1.62</v>
+      </c>
+      <c r="M6" s="48">
+        <v>2.36</v>
+      </c>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="AA6" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB6" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="AC6" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD6" s="48">
+        <v>0.72</v>
+      </c>
+      <c r="AE6" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="AF6" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="AG6" s="48">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1.95</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D7" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="E7" s="48">
+        <v>2.48</v>
+      </c>
+      <c r="F7" s="48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7" s="48">
+        <v>2.58</v>
+      </c>
+      <c r="H7" s="48">
+        <v>2.34</v>
+      </c>
+      <c r="I7" s="48">
+        <v>2.76</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="AA7" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB7" s="48">
+        <v>1.52</v>
+      </c>
+      <c r="AC7" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="AD7" s="48">
+        <v>0.31</v>
+      </c>
+      <c r="AE7" s="48">
+        <v>1.49</v>
+      </c>
+      <c r="AF7" s="48">
+        <v>0.88</v>
+      </c>
+      <c r="AG7" s="48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="48">
+        <v>1.44</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1.63</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1.71</v>
+      </c>
+      <c r="F8" s="48">
+        <v>1.88</v>
+      </c>
+      <c r="G8" s="48">
+        <v>2.11</v>
+      </c>
+      <c r="H8" s="48">
+        <v>1.87</v>
+      </c>
+      <c r="I8" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="J8" s="48">
+        <v>2</v>
+      </c>
+      <c r="K8" s="48">
+        <v>2.33</v>
+      </c>
+      <c r="L8" s="48">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M8" s="48">
+        <v>2.37</v>
+      </c>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="AA8" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB8" s="48">
+        <v>1.33</v>
+      </c>
+      <c r="AC8" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="AD8" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="AE8" s="48">
+        <v>1.28</v>
+      </c>
+      <c r="AF8" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="AG8" s="48">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="Q10" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="Q11" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="X11" s="70"/>
+      <c r="AA11" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB11" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+    </row>
+    <row r="12" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="D12" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="F12" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="H12" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="V12" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="X12" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="AC12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AD12" s="53">
+        <v>0.84</v>
+      </c>
+      <c r="AE12" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="AF12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AG12" s="53">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="48">
         <v>2.73</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C13" s="48">
         <v>3.42</v>
       </c>
-      <c r="D4" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3.57</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D13" s="48">
+        <v>2.81</v>
+      </c>
+      <c r="E13" s="48">
+        <v>3.53</v>
+      </c>
+      <c r="F13" s="48">
         <v>2.74</v>
       </c>
-      <c r="G4" s="10">
-        <v>3.44</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2.86</v>
-      </c>
-      <c r="I4" s="10">
-        <v>3.58</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="G13" s="48">
+        <v>3.43</v>
+      </c>
+      <c r="H13" s="48">
+        <v>2.82</v>
+      </c>
+      <c r="I13" s="48">
+        <v>3.54</v>
+      </c>
+      <c r="J13" s="48">
         <v>2.71</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="10">
-        <v>2.77</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="K13" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="48">
+        <v>2.92</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="49">
+        <f>H13/F13</f>
+        <v>1.0291970802919708</v>
+      </c>
+      <c r="O13" s="49">
+        <f>I13/G13</f>
+        <v>1.032069970845481</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q13" s="54">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="R13" s="54">
+        <v>1.04E-2</v>
+      </c>
+      <c r="S13" s="54">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="T13" s="54">
+        <v>1.04E-2</v>
+      </c>
+      <c r="U13" s="54">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="V13" s="54">
+        <v>1.35E-2</v>
+      </c>
+      <c r="W13" s="54">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="X13" s="54">
+        <v>1.35E-2</v>
+      </c>
+      <c r="AA13" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB13" s="48">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="48">
+        <v>2.65</v>
+      </c>
+      <c r="AD13" s="48">
+        <v>1.99</v>
+      </c>
+      <c r="AE13" s="48">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="AG13" s="48">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AH13" s="49">
+        <f>AE13/AB13</f>
+        <v>1</v>
+      </c>
+      <c r="AI13" s="49">
+        <f t="shared" ref="AI13:AJ13" si="0">AF13/AC13</f>
+        <v>1.0188679245283019</v>
+      </c>
+      <c r="AJ13" s="49">
+        <f t="shared" si="0"/>
+        <v>1.0201005025125627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="48">
         <v>1.35</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C14" s="48">
         <v>1.52</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D14" s="48">
         <v>1.34</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E14" s="48">
         <v>1.51</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F14" s="48">
         <v>1.41</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G14" s="48">
         <v>1.59</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H14" s="48">
         <v>1.4</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I14" s="48">
         <v>1.58</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="J14" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="49">
+        <f t="shared" ref="N14:N17" si="1">H14/F14</f>
+        <v>0.99290780141843971</v>
+      </c>
+      <c r="O14" s="49">
+        <f t="shared" ref="O14:O17" si="2">I14/G14</f>
+        <v>0.99371069182389937</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" s="54">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="R14" s="54">
+        <v>1.17E-2</v>
+      </c>
+      <c r="S14" s="54">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="T14" s="54">
+        <v>1.17E-2</v>
+      </c>
+      <c r="U14" s="54">
+        <v>1.26E-2</v>
+      </c>
+      <c r="V14" s="54">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="W14" s="54">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="X14" s="55">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="Y14" s="53">
+        <f>W14/U14</f>
+        <v>1.0079365079365079</v>
+      </c>
+      <c r="AA14" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB14" s="48">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AC14" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="AD14" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="AE14" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="AF14" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG14" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="AH14" s="49">
+        <f t="shared" ref="AH14:AH17" si="3">AE14/AB14</f>
+        <v>1.5517241379310347</v>
+      </c>
+      <c r="AI14" s="49">
+        <f t="shared" ref="AI14:AI17" si="4">AF14/AC14</f>
+        <v>1.1956521739130435</v>
+      </c>
+      <c r="AJ14" s="49">
+        <f t="shared" ref="AJ14:AJ17" si="5">AG14/AD14</f>
+        <v>0.98765432098765427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="48">
+        <v>1.24</v>
+      </c>
+      <c r="C15" s="48">
+        <v>1.66</v>
+      </c>
+      <c r="D15" s="48">
         <v>1.25</v>
       </c>
-      <c r="C6" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1.24</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1.64</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E15" s="48">
+        <v>1.66</v>
+      </c>
+      <c r="F15" s="48">
         <v>1.28</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G15" s="48">
         <v>1.7</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H15" s="48">
+        <v>1.27</v>
+      </c>
+      <c r="I15" s="48">
+        <v>1.71</v>
+      </c>
+      <c r="J15" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="K15" s="48">
+        <v>1.78</v>
+      </c>
+      <c r="L15" s="48">
+        <v>1.38</v>
+      </c>
+      <c r="M15" s="48">
+        <v>1.76</v>
+      </c>
+      <c r="N15" s="49">
+        <f t="shared" si="1"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="O15" s="49">
+        <f t="shared" si="2"/>
+        <v>1.0058823529411764</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q15" s="54">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="R15" s="54">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="S15" s="54">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="T15" s="54">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="U15" s="54">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="V15" s="54">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="W15" s="54">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="X15" s="54">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="AA15" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB15" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="AC15" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD15" s="48">
+        <v>0.7</v>
+      </c>
+      <c r="AE15" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="AF15" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG15" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="AH15" s="49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI15" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="49">
+        <f t="shared" si="5"/>
+        <v>1.0714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="48">
+        <v>1.92</v>
+      </c>
+      <c r="C16" s="48">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D16" s="48">
+        <v>2.08</v>
+      </c>
+      <c r="E16" s="48">
+        <v>2.44</v>
+      </c>
+      <c r="F16" s="48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G16" s="48">
+        <v>2.58</v>
+      </c>
+      <c r="H16" s="48">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I16" s="48">
+        <v>2.72</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="48">
+        <v>2.13</v>
+      </c>
+      <c r="M16" s="48">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="N16" s="49">
+        <f t="shared" si="1"/>
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="O16" s="49">
+        <f t="shared" si="2"/>
+        <v>1.054263565891473</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="54">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="R16" s="54">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="S16" s="54">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="T16" s="54">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="U16" s="54">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="V16" s="54">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="W16" s="54">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="X16" s="54">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="AA16" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB16" s="48">
+        <v>1.44</v>
+      </c>
+      <c r="AC16" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="AD16" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="AE16" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="AF16" s="48">
+        <v>0.94</v>
+      </c>
+      <c r="AG16" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" s="49">
+        <f t="shared" si="3"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="AI16" s="49">
+        <f t="shared" si="4"/>
+        <v>1.0217391304347825</v>
+      </c>
+      <c r="AJ16" s="49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="48">
+        <v>1.44</v>
+      </c>
+      <c r="C17" s="48">
+        <v>1.63</v>
+      </c>
+      <c r="D17" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="48">
+        <v>1.71</v>
+      </c>
+      <c r="F17" s="48">
+        <v>1.88</v>
+      </c>
+      <c r="G17" s="48">
+        <v>2.11</v>
+      </c>
+      <c r="H17" s="48">
+        <v>1.87</v>
+      </c>
+      <c r="I17" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="J17" s="48">
+        <v>2</v>
+      </c>
+      <c r="K17" s="48">
+        <v>2.33</v>
+      </c>
+      <c r="L17" s="48">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M17" s="48">
+        <v>2.37</v>
+      </c>
+      <c r="N17" s="49">
+        <f t="shared" si="1"/>
+        <v>0.99468085106382986</v>
+      </c>
+      <c r="O17" s="49">
+        <f t="shared" si="2"/>
+        <v>0.99526066350710907</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q17" s="54">
+        <v>1.21E-2</v>
+      </c>
+      <c r="R17" s="54">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="S17" s="54">
+        <v>1.21E-2</v>
+      </c>
+      <c r="T17" s="54">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="U17" s="54">
+        <v>1.4E-2</v>
+      </c>
+      <c r="V17" s="54">
+        <v>1.32E-2</v>
+      </c>
+      <c r="W17" s="54">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X17" s="54">
+        <v>1.32E-2</v>
+      </c>
+      <c r="AA17" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB17" s="48">
+        <v>1.33</v>
+      </c>
+      <c r="AC17" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="AD17" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="AE17" s="48">
         <v>1.28</v>
       </c>
-      <c r="I6" s="10">
-        <v>1.69</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="M6" s="10">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.95</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.48</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2.58</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="I7" s="10">
-        <v>2.76</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.44</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1.63</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1.71</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1.88</v>
-      </c>
-      <c r="G8" s="10">
-        <v>2.11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1.87</v>
-      </c>
-      <c r="I8" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="J8" s="10">
-        <v>2</v>
-      </c>
-      <c r="K8" s="10">
-        <v>2.33</v>
-      </c>
-      <c r="L8" s="10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M8" s="10">
-        <v>2.37</v>
+      <c r="AF17" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="AG17" s="48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AH17" s="49">
+        <f t="shared" si="3"/>
+        <v>0.96240601503759393</v>
+      </c>
+      <c r="AI17" s="49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="49">
+        <f t="shared" si="5"/>
+        <v>1.1176470588235292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="29">
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -7757,6 +9038,186 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="50"/>
+    <col min="2" max="2" width="32.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="50"/>
+    <col min="6" max="6" width="32.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="50"/>
+    <col min="10" max="10" width="32.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1.0291970802919708</v>
+      </c>
+      <c r="D2" s="51">
+        <v>1.032069970845481</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="51">
+        <v>1</v>
+      </c>
+      <c r="H2" s="51">
+        <v>1</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="51">
+        <v>1.0188679245283019</v>
+      </c>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0.99290780141843971</v>
+      </c>
+      <c r="D3" s="51">
+        <v>0.99371069182389937</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="51">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51">
+        <v>1.01</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="51">
+        <v>1.1956521739130435</v>
+      </c>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0.9921875</v>
+      </c>
+      <c r="D4" s="51">
+        <v>1.0058823529411764</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="51">
+        <v>1</v>
+      </c>
+      <c r="H4" s="51">
+        <v>1</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="51">
+        <v>1</v>
+      </c>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1.0545454545454545</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1.054263565891473</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="51">
+        <v>1</v>
+      </c>
+      <c r="H5" s="51">
+        <v>1</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="51">
+        <v>1.0217391304347825</v>
+      </c>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0.99468085106382986</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.99526066350710907</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="51">
+        <v>1</v>
+      </c>
+      <c r="H6" s="51">
+        <v>1</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="51">
+        <v>1</v>
+      </c>
+      <c r="L6" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表11"/>
   <dimension ref="A1:T13"/>
   <sheetViews>
@@ -8222,7 +9683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -8772,20 +10233,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="8" t="s">
@@ -8868,10 +10329,10 @@
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="54"/>
+      <c r="B6" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -9045,18 +10506,18 @@
         <v>8</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L1" s="31">
         <v>1</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>31</v>
@@ -9083,12 +10544,12 @@
         <v>2</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>31</v>
@@ -9114,7 +10575,7 @@
     </row>
     <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>29</v>
@@ -9181,16 +10642,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="H1" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="H1" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -9209,16 +10670,16 @@
         <v>142</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>143</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>144</v>
@@ -9268,10 +10729,10 @@
     </row>
     <row r="3" spans="1:26" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C3" s="7">
         <v>3</v>
@@ -10339,20 +11800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="G1" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="G1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -11197,24 +12658,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -11393,12 +12854,12 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -11563,12 +13024,12 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -11657,12 +13118,12 @@
       <c r="J17" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -11808,9 +13269,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表12"/>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7:L10"/>
     </sheetView>
   </sheetViews>
@@ -11833,12 +13295,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="33"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
@@ -11847,19 +13309,19 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
-      <c r="M1" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="M1" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="33"/>
-      <c r="R1" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="R1" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -11883,20 +13345,20 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>52</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S2" s="33">
         <v>6</v>
@@ -11910,7 +13372,7 @@
     </row>
     <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B3" s="12">
         <v>0.96799999999999997</v>
@@ -11955,7 +13417,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S3" s="12">
         <v>0.96899999999999997</v>
@@ -11969,7 +13431,7 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B4" s="13">
         <v>0.92400000000000004</v>
@@ -12011,7 +13473,7 @@
       </c>
       <c r="Q4" s="33"/>
       <c r="R4" s="33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S4" s="14">
         <v>0.95822843243651423</v>
@@ -12025,7 +13487,7 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B5" s="12">
         <v>0.875</v>
@@ -12109,12 +13571,12 @@
       <c r="U6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
+      <c r="A7" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="33"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -12138,7 +13600,7 @@
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
       <c r="R7" s="33" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
@@ -12146,7 +13608,7 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
@@ -12186,7 +13648,7 @@
       </c>
       <c r="Q8" s="33"/>
       <c r="R8" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S8" s="33">
         <v>6</v>
@@ -12200,7 +13662,7 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B9" s="12">
         <v>0.97899999999999998</v>
@@ -12246,7 +13708,7 @@
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="33" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S9" s="33">
         <f>540/4-2*70</f>
@@ -12263,7 +13725,7 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B10" s="13">
         <v>0.93799999999999994</v>
@@ -12309,7 +13771,7 @@
       </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S10" s="33">
         <f>540/4-2*50</f>
@@ -12326,7 +13788,7 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B11" s="12">
         <v>0.96499999999999997</v>
@@ -12357,7 +13819,7 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S11" s="33">
         <f>550/4-2*50</f>
@@ -12393,22 +13855,22 @@
       <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="33"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="I13" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
       <c r="M13" s="33"/>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
@@ -12426,7 +13888,7 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B14" s="33">
         <v>6</v>
@@ -12442,7 +13904,7 @@
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J14" s="33">
         <v>6</v>
@@ -12468,7 +13930,7 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B15" s="12">
         <v>0.97199999999999998</v>
@@ -12490,7 +13952,7 @@
         <v>0.91</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J15" s="12">
         <v>0.97199999999999998</v>
@@ -12516,7 +13978,7 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B16" s="13">
         <v>0.93</v>
@@ -12538,7 +14000,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J16" s="13">
         <v>0.93</v>
@@ -12555,7 +14017,7 @@
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B17" s="12">
         <v>0.91</v>
@@ -12577,7 +14039,7 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J17" s="12">
         <v>0.91</v>
@@ -12598,25 +14060,25 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="I19" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
+      <c r="A19" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="I19" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B20" s="33">
         <v>6</v>
@@ -12628,7 +14090,7 @@
         <v>12</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J20" s="33">
         <v>6</v>
@@ -12645,7 +14107,7 @@
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B21" s="12">
         <v>0.93405024701313766</v>
@@ -12674,7 +14136,7 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B22" s="12">
         <v>0.88267437125089077</v>
@@ -12689,7 +14151,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J22" s="12">
         <v>0.99823066627329382</v>
@@ -12722,7 +14184,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J23" s="12">
         <v>1.0092296849756344</v>
@@ -12747,7 +14209,7 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -12756,7 +14218,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="33" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
@@ -12764,7 +14226,7 @@
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B26" s="33">
         <v>6</v>
@@ -12779,7 +14241,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J26" s="33">
         <v>6</v>
@@ -12796,7 +14258,7 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B27" s="12">
         <f>B21-B15</f>
@@ -12820,7 +14282,7 @@
         <v>-1.2246446899698227E-2</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J27" s="12">
         <f>J21/J15</f>
@@ -12840,7 +14302,7 @@
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B28" s="12">
         <f t="shared" ref="B28:D28" si="6">B22-B16</f>
@@ -12864,7 +14326,7 @@
         <v>9.4918041695568611E-4</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" ref="J28:L28" si="7">J22/J16</f>
@@ -12884,7 +14346,7 @@
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B29" s="12">
         <f t="shared" ref="B29:D29" si="8">B23-B17</f>
@@ -12908,7 +14370,7 @@
         <v>1.5233703604961013E-3</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" ref="J29:L29" si="9">J23/J17</f>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -4587,7 +4587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4756,22 +4756,22 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4800,6 +4800,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6958,23 +6964,23 @@
       <c r="D1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="60">
         <v>4</v>
       </c>
       <c r="D2" s="45" t="s">
@@ -7012,7 +7018,7 @@
       <c r="B3" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
@@ -7048,7 +7054,7 @@
       <c r="B4" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
@@ -7085,22 +7091,22 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>243</v>
       </c>
       <c r="C8" s="46">
         <v>12</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="46">
         <v>20</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
@@ -7109,12 +7115,12 @@
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -7141,40 +7147,40 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="57">
         <v>4</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="57" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="9">
         <v>420</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -7201,13 +7207,13 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="57">
         <v>4</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="57" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -7215,21 +7221,26 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -7237,11 +7248,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7254,7 +7260,7 @@
   <sheetPr codeName="工作表13"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -9000,6 +9006,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="AB11:AD11"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AB2:AD2"/>
@@ -9011,24 +9035,6 @@
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9040,7 +9046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -13272,8 +13278,8 @@
   <sheetPr codeName="工作表12"/>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:L10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13862,8 +13868,14 @@
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="33"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="71">
+        <f>_xlfn.STDEV.S(F9:H11)</f>
+        <v>1.8010028070802968E-2</v>
+      </c>
+      <c r="G13" s="72">
+        <f>AVERAGE(F9:H11)</f>
+        <v>0.9638888888888888</v>
+      </c>
       <c r="H13" s="40"/>
       <c r="I13" s="68" t="s">
         <v>220</v>
@@ -14066,6 +14078,14 @@
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
+      <c r="F19" s="71">
+        <f>_xlfn.STDEV.S(F15:H17)</f>
+        <v>2.404682931282209E-2</v>
+      </c>
+      <c r="G19" s="72">
+        <f>AVERAGE(F15:H17)</f>
+        <v>0.92033333333333323</v>
+      </c>
       <c r="I19" s="68" t="s">
         <v>224</v>
       </c>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -4756,22 +4756,28 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4800,12 +4806,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6964,17 +6964,17 @@
       <c r="D1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
@@ -7115,12 +7115,12 @@
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -7147,40 +7147,40 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="62">
         <v>4</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="62" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="9">
         <v>420</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -7207,13 +7207,13 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="62">
         <v>4</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="62" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -7221,26 +7221,21 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="58"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -7248,6 +7243,11 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7260,7 +7260,7 @@
   <sheetPr codeName="工作表13"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -7276,32 +7276,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="F1" s="65" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="F1" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="F2" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7418,18 +7418,18 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="F8" s="68" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="F8" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -7546,18 +7546,18 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="F14" s="68" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="F14" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -7756,8 +7756,8 @@
   <sheetPr codeName="工作表10"/>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11:AG17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7783,60 +7783,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="AB2" s="70" t="s">
+      <c r="M2" s="72"/>
+      <c r="AB2" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
     </row>
     <row r="3" spans="1:36" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -8255,91 +8255,91 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70" t="s">
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="Q10" s="70" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="Q10" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70" t="s">
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70" t="s">
+      <c r="E11" s="72"/>
+      <c r="F11" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70" t="s">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70" t="s">
+      <c r="I11" s="72"/>
+      <c r="J11" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="72"/>
+      <c r="L11" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="Q11" s="70" t="s">
+      <c r="M11" s="72"/>
+      <c r="Q11" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70" t="s">
+      <c r="R11" s="72"/>
+      <c r="S11" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70" t="s">
+      <c r="T11" s="72"/>
+      <c r="U11" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70" t="s">
+      <c r="V11" s="72"/>
+      <c r="W11" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="X11" s="70"/>
-      <c r="AA11" s="70" t="s">
+      <c r="X11" s="72"/>
+      <c r="AA11" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="AB11" s="70" t="s">
+      <c r="AB11" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70" t="s">
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
     </row>
     <row r="12" spans="1:36" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
-      <c r="AA12" s="70"/>
+      <c r="AA12" s="72"/>
       <c r="AB12" s="53">
         <v>0.16</v>
       </c>
@@ -8622,13 +8622,13 @@
         <v>275</v>
       </c>
       <c r="AB14" s="48">
-        <v>1.1599999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" s="48">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="48">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="AE14" s="48">
         <v>1.8</v>
@@ -8641,15 +8641,15 @@
       </c>
       <c r="AH14" s="49">
         <f t="shared" ref="AH14:AH17" si="3">AE14/AB14</f>
-        <v>1.5517241379310347</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="49">
         <f t="shared" ref="AI14:AI17" si="4">AF14/AC14</f>
-        <v>1.1956521739130435</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ14" s="49">
         <f t="shared" ref="AJ14:AJ17" si="5">AG14/AD14</f>
-        <v>0.98765432098765427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -9006,24 +9006,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
     <mergeCell ref="AB11:AD11"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AB2:AD2"/>
@@ -9035,6 +9017,24 @@
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10239,20 +10239,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="8" t="s">
@@ -10335,10 +10335,10 @@
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="64"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -10648,16 +10648,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="64" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -11806,20 +11806,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="G1" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -12664,24 +12664,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -12860,12 +12860,12 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -13030,12 +13030,12 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -13124,12 +13124,12 @@
       <c r="J17" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -13301,12 +13301,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="33"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
@@ -13315,19 +13315,19 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
       <c r="Q1" s="33"/>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -13577,12 +13577,12 @@
       <c r="U6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="33"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -13861,28 +13861,28 @@
       <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="33"/>
-      <c r="F13" s="71">
+      <c r="F13" s="56">
         <f>_xlfn.STDEV.S(F9:H11)</f>
         <v>1.8010028070802968E-2</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="57">
         <f>AVERAGE(F9:H11)</f>
         <v>0.9638888888888888</v>
       </c>
       <c r="H13" s="40"/>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="33"/>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
@@ -14072,26 +14072,26 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="F19" s="71">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="F19" s="56">
         <f>_xlfn.STDEV.S(F15:H17)</f>
         <v>2.404682931282209E-2</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="57">
         <f>AVERAGE(F15:H17)</f>
         <v>0.92033333333333323</v>
       </c>
-      <c r="I19" s="68" t="s">
+      <c r="I19" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PPT 總則" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
     <sheet name="Word 整理統計" sheetId="6" r:id="rId8"/>
     <sheet name="Word 整理統計 新方法" sheetId="12" r:id="rId9"/>
-    <sheet name="比較" sheetId="13" r:id="rId10"/>
-    <sheet name="Word 非線性容量" sheetId="11" r:id="rId11"/>
-    <sheet name="PPT 表格" sheetId="14" r:id="rId12"/>
-    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId13"/>
-    <sheet name="PPT 統計" sheetId="3" r:id="rId14"/>
+    <sheet name="Method A" sheetId="15" r:id="rId10"/>
+    <sheet name="比較" sheetId="13" r:id="rId11"/>
+    <sheet name="Word 非線性容量" sheetId="11" r:id="rId12"/>
+    <sheet name="PPT 表格" sheetId="14" r:id="rId13"/>
+    <sheet name="上下層鋼筋用量統計" sheetId="9" r:id="rId14"/>
+    <sheet name="PPT 統計" sheetId="3" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="City">[1]地震行政區資料!$C$2:$C$22</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="287">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4587,7 +4588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4762,22 +4763,25 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6964,23 +6968,23 @@
       <c r="D1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="63">
         <v>4</v>
       </c>
       <c r="D2" s="45" t="s">
@@ -7018,7 +7022,7 @@
       <c r="B3" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
@@ -7054,7 +7058,7 @@
       <c r="B4" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
@@ -7091,22 +7095,22 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="64" t="s">
         <v>243</v>
       </c>
       <c r="C8" s="46">
         <v>12</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="46">
         <v>20</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
@@ -7147,29 +7151,29 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="60">
         <v>4</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="60" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="9">
         <v>420</v>
       </c>
@@ -7207,13 +7211,13 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="60">
         <v>4</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="60" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -7221,21 +7225,26 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -7243,11 +7252,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,6 +7260,289 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表14"/>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="58">
+        <v>6</v>
+      </c>
+      <c r="C2" s="58">
+        <v>9</v>
+      </c>
+      <c r="D2" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.874</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="58">
+        <v>6</v>
+      </c>
+      <c r="C8" s="58">
+        <v>9</v>
+      </c>
+      <c r="D8" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="58">
+        <v>6</v>
+      </c>
+      <c r="C14" s="58">
+        <v>9</v>
+      </c>
+      <c r="D14" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="58">
+        <v>6</v>
+      </c>
+      <c r="C20" s="58">
+        <v>9</v>
+      </c>
+      <c r="D20" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表13"/>
   <dimension ref="A1:I18"/>
@@ -7276,32 +7563,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="F1" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="F2" s="70" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="F2" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7418,18 +7705,18 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="F8" s="70" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="F8" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -7546,18 +7833,18 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="F14" s="70" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="F14" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -7751,12 +8038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表10"/>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
@@ -7783,60 +8070,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="AB2" s="72" t="s">
+      <c r="M2" s="73"/>
+      <c r="AB2" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72" t="s">
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
     </row>
     <row r="3" spans="1:36" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -8255,91 +8542,91 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72" t="s">
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="Q10" s="72" t="s">
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="Q10" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72" t="s">
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72" t="s">
+      <c r="K11" s="73"/>
+      <c r="L11" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="Q11" s="72" t="s">
+      <c r="M11" s="73"/>
+      <c r="Q11" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72" t="s">
+      <c r="R11" s="73"/>
+      <c r="S11" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72" t="s">
+      <c r="T11" s="73"/>
+      <c r="U11" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72" t="s">
+      <c r="V11" s="73"/>
+      <c r="W11" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="X11" s="72"/>
-      <c r="AA11" s="72" t="s">
+      <c r="X11" s="73"/>
+      <c r="AA11" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72" t="s">
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
     </row>
     <row r="12" spans="1:36" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
@@ -8410,7 +8697,7 @@
       </c>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
-      <c r="AA12" s="72"/>
+      <c r="AA12" s="73"/>
       <c r="AB12" s="53">
         <v>0.16</v>
       </c>
@@ -9006,6 +9293,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="AB11:AD11"/>
     <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AB2:AD2"/>
@@ -9017,24 +9322,6 @@
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9042,8 +9329,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表15"/>
   <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9222,7 +9510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表11"/>
   <dimension ref="A1:T13"/>
@@ -9689,7 +9977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:D19"/>
@@ -10239,20 +10527,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="8" t="s">
@@ -10335,10 +10623,10 @@
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -10648,16 +10936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="66" t="s">
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -11806,20 +12094,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="G1" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -12664,24 +12952,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -12860,12 +13148,12 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -13030,12 +13318,12 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -13124,12 +13412,12 @@
       <c r="J17" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -13278,8 +13566,8 @@
   <sheetPr codeName="工作表12"/>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13301,12 +13589,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="33"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
@@ -13315,19 +13603,19 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
       <c r="Q1" s="33"/>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -13577,12 +13865,12 @@
       <c r="U6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="33"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -13861,12 +14149,12 @@
       <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="33"/>
       <c r="F13" s="56">
         <f>_xlfn.STDEV.S(F9:H11)</f>
@@ -13877,12 +14165,12 @@
         <v>0.9638888888888888</v>
       </c>
       <c r="H13" s="40"/>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="33"/>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
@@ -14072,12 +14360,12 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="F19" s="56">
         <f>_xlfn.STDEV.S(F15:H17)</f>
         <v>2.404682931282209E-2</v>
@@ -14086,12 +14374,12 @@
         <f>AVERAGE(F15:H17)</f>
         <v>0.92033333333333323</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Word 剪力統計" sheetId="8" r:id="rId7"/>
     <sheet name="Word 整理統計" sheetId="6" r:id="rId8"/>
     <sheet name="Word 整理統計 新方法" sheetId="12" r:id="rId9"/>
-    <sheet name="Method A" sheetId="15" r:id="rId10"/>
+    <sheet name="Method A B" sheetId="15" r:id="rId10"/>
     <sheet name="比較" sheetId="13" r:id="rId11"/>
     <sheet name="Word 非線性容量" sheetId="11" r:id="rId12"/>
     <sheet name="PPT 表格" sheetId="14" r:id="rId13"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="287">
   <si>
     <t>6m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4588,7 +4588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4762,6 +4762,12 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6968,23 +6974,23 @@
       <c r="D1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="65">
         <v>4</v>
       </c>
       <c r="D2" s="45" t="s">
@@ -7022,7 +7028,7 @@
       <c r="B3" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
@@ -7058,7 +7064,7 @@
       <c r="B4" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
@@ -7095,22 +7101,22 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="66" t="s">
         <v>243</v>
       </c>
       <c r="C8" s="46">
         <v>12</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="46">
         <v>20</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
@@ -7119,12 +7125,12 @@
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -7151,40 +7157,40 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="62">
         <v>4</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="62" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="9">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="9">
         <v>420</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -7211,13 +7217,13 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="62">
         <v>4</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="62" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -7225,15 +7231,15 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="61"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
@@ -7262,27 +7268,38 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表14"/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="M1" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -7295,8 +7312,20 @@
       <c r="D2" s="58">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M2" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>96</v>
       </c>
@@ -7309,8 +7338,20 @@
       <c r="D3" s="12">
         <v>0.90100000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M3" s="59">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>98</v>
       </c>
@@ -7323,8 +7364,20 @@
       <c r="D4" s="12">
         <v>0.879</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M4" s="59">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>100</v>
       </c>
@@ -7337,22 +7390,34 @@
       <c r="D5" s="12">
         <v>0.82699999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M5" s="59">
+        <v>20</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>75</v>
       </c>
@@ -7366,7 +7431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>96</v>
       </c>
@@ -7380,7 +7445,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>98</v>
       </c>
@@ -7394,7 +7459,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>100</v>
       </c>
@@ -7408,21 +7473,27 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="F13" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>75</v>
       </c>
@@ -7435,8 +7506,20 @@
       <c r="D14" s="58">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="60">
+        <v>6</v>
+      </c>
+      <c r="H14" s="60">
+        <v>9</v>
+      </c>
+      <c r="I14" s="60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>96</v>
       </c>
@@ -7449,8 +7532,20 @@
       <c r="D15" s="12">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.996</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>98</v>
       </c>
@@ -7463,8 +7558,20 @@
       <c r="D16" s="12">
         <v>0.91600000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.996</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>100</v>
       </c>
@@ -7477,22 +7584,34 @@
       <c r="D17" s="12">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>225</v>
       </c>
@@ -7506,36 +7625,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="12">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.88600000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7563,32 +7702,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="F1" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="F2" s="71" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="F2" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7705,18 +7844,18 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="F8" s="71" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="F8" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -7833,18 +7972,18 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="F14" s="71" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="F14" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -8070,60 +8209,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73" t="s">
+      <c r="K2" s="75"/>
+      <c r="L2" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="AB2" s="73" t="s">
+      <c r="M2" s="75"/>
+      <c r="AB2" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73" t="s">
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
     </row>
     <row r="3" spans="1:36" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -8542,91 +8681,91 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73" t="s">
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="Q10" s="73" t="s">
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="Q10" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73" t="s">
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73" t="s">
+      <c r="E11" s="75"/>
+      <c r="F11" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73" t="s">
+      <c r="I11" s="75"/>
+      <c r="J11" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73" t="s">
+      <c r="K11" s="75"/>
+      <c r="L11" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="Q11" s="73" t="s">
+      <c r="M11" s="75"/>
+      <c r="Q11" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73" t="s">
+      <c r="R11" s="75"/>
+      <c r="S11" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73" t="s">
+      <c r="T11" s="75"/>
+      <c r="U11" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73" t="s">
+      <c r="V11" s="75"/>
+      <c r="W11" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="X11" s="73"/>
-      <c r="AA11" s="73" t="s">
+      <c r="X11" s="75"/>
+      <c r="AA11" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="AB11" s="73" t="s">
+      <c r="AB11" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73" t="s">
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
     </row>
     <row r="12" spans="1:36" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
@@ -8697,7 +8836,7 @@
       </c>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53"/>
-      <c r="AA12" s="73"/>
+      <c r="AA12" s="75"/>
       <c r="AB12" s="53">
         <v>0.16</v>
       </c>
@@ -10527,20 +10666,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F3" s="8" t="s">
@@ -10623,10 +10762,10 @@
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -10936,16 +11075,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="67" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -12094,20 +12233,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="G1" s="70" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="G1" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -12952,24 +13091,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -13148,12 +13287,12 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -13318,12 +13457,12 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -13412,12 +13551,12 @@
       <c r="J17" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -13567,7 +13706,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection activeCell="M1" sqref="M1:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13589,12 +13728,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="33"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
@@ -13603,19 +13742,19 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
       <c r="Q1" s="33"/>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -13865,12 +14004,12 @@
       <c r="U6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="33"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -14149,12 +14288,12 @@
       <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="33"/>
       <c r="F13" s="56">
         <f>_xlfn.STDEV.S(F9:H11)</f>
@@ -14165,12 +14304,12 @@
         <v>0.9638888888888888</v>
       </c>
       <c r="H13" s="40"/>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="33"/>
       <c r="N13" s="12"/>
       <c r="O13" s="13"/>
@@ -14360,12 +14499,12 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
       <c r="F19" s="56">
         <f>_xlfn.STDEV.S(F15:H17)</f>
         <v>2.404682931282209E-2</v>
@@ -14374,12 +14513,12 @@
         <f>AVERAGE(F15:H17)</f>
         <v>0.92033333333333323</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>

--- a/Models/00 結構設計變數.xlsx
+++ b/Models/00 結構設計變數.xlsx
@@ -4588,7 +4588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4772,22 +4772,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="cen